--- a/テスト項目.xlsx
+++ b/テスト項目.xlsx
@@ -8,12 +8,13 @@
     <sheet name="書き出しの概要" sheetId="1" r:id="rId4"/>
     <sheet name="単体テスト - 表2" sheetId="2" r:id="rId5"/>
     <sheet name="結合テスト - 表2" sheetId="3" r:id="rId6"/>
+    <sheet name="総合テスト" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -3734,6 +3735,13 @@
 ※今回の場合は「bbbb」と入力することとする</t>
   </si>
   <si>
+    <t>①ログイン画面にて登録済みのメアド、パスワードを入力し「ログイン」ボタンを押下
+②表示されたページのURLを確認</t>
+  </si>
+  <si>
+    <t>SearchActionと表示されていることを確認する</t>
+  </si>
+  <si>
     <t>①「全てのアカウント検索」ボタンを押下
 ②画面下の検索結果を確認</t>
   </si>
@@ -3777,13 +3785,733 @@
     <t>性別が「女性」かつアカウント権限が「管理者」と表示されたアカウント情報のみ表示されることを確認</t>
   </si>
   <si>
-    <t>①名前（姓）にひらがなを入力する
+    <t>①名前（姓）にひらがなで登録済みの値を入力する
 ②「検索」ボタンを押下
 ※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
 また、指定されていない項目については空欄とする</t>
   </si>
   <si>
-    <t>性別が「男性」、アカウント権限が「一般」、名前（姓）に入力した値が含まれるアカウント情報のみ表示されることを確認</t>
+    <t>性別が「男性」、アカウント権限が「一般」、名前（姓）に入力した値と一致するアカウント情報のみ表示されることを確認</t>
+  </si>
+  <si>
+    <t>①名前（姓）にひらがなを1文字だけ入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>性別が「男性」、アカウント権限が「一般」、名前（姓）に入力した文字が含まれるアカウント情報のみ表示されることを確認</t>
+  </si>
+  <si>
+    <t>①名前（姓）にひらがな以外を1文字だけ入力する
+※一つ前に入力した文字を入力する
+例
+「あ」⇨「a」または「ア」と入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>一つ前のテスト項目にて表示されたアカウント情報が表示されないことを確認</t>
+  </si>
+  <si>
+    <t>①名前（名）にひらがなで登録済みの値を入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>性別が「男性」、アカウント権限が「一般」、名前（名）に入力した値と一致するアカウント情報のみ表示されることを確認</t>
+  </si>
+  <si>
+    <t>①名前（名）にひらがなを1文字だけ入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>性別が「男性」、アカウント権限が「一般」、名前（名）に入力した文字が含まれるアカウント情報のみ表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カナ（姓）にカタカナで登録済みの値を入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>性別が「男性」、アカウント権限が「一般」、カタカナ（姓）に入力した値と一致するアカウント情報のみ表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カナ（姓）にカタカナを1文字だけ入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>性別が「男性」、アカウント権限が「一般」、カナ（姓）に入力した文字が含まれるアカウント情報のみ表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カナ（姓）にカタカナ以外を1文字だけ入力する
+※一つ前に入力した文字を入力する
+例
+「ア」⇨「a」または「あ」と入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>①カナ（名）にカタカナで登録済みの値を入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>性別が「男性」、アカウント権限が「一般」、カタカナ（名）に入力した値と一致するアカウント情報のみ表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カナ（名）にカタカナを1文字だけ入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>性別が「男性」、アカウント権限が「一般」、カナ（名）に入力した文字が含まれるアカウント情報のみ表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カナ（名）にカタカナ以外を1文字だけ入力する
+※一つ前に入力した文字を入力する
+例
+「ア」⇨「a」または「あ」と入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>①メールアドレスにアルファベットで登録済みの値を入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>性別が「男性」、アカウント権限が「一般」、メールアドレスに入力した値と一致するアカウント情報のみ表示されることを確認</t>
+  </si>
+  <si>
+    <t>①メールアドレスにアルファベットを1文字だけ入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>性別が「男性」、アカウント権限が「一般」、メールアドレスに入力した文字が含まれるアカウント情報のみ表示されることを確認</t>
+  </si>
+  <si>
+    <t>①メールアドレスにアルファベット以外を1文字だけ入力する
+※一つ前に入力した文字を入力する
+例
+「a」⇨「ア」または「あ」と入力する
+②「検索」ボタンを押下
+※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
+また、指定されていない項目については空欄とする</t>
+  </si>
+  <si>
+    <t>①全ての項目にエラーが出ない形式で登録済みの情報を入力する
+②「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>指定した値全てに一致するアカウント情報が表示されることを確認</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>①ログイン画面にてアカウント権限が「一般」のアカウントとしてログイン +②TOPページに画面遷移することを確認 +③画面上部のURL部分に「</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost:8080/account/ListAction.action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>」を入力しEnterを押下 +④アカウント一覧画面にて「検索」ボタンを押下 +⑤表示された画面を確認</t>
+    </r>
+  </si>
+  <si>
+    <t>「アカウント権限がありません。」と赤字で表示され、その直下に「ログインページへ戻る」ボタンがあることを確認</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>①ログイン画面にてアカウント権限が「一般」のアカウントとしてログイン +②TOPページに画面遷移することを確認 +③画面上部のURL部分に「</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost:8080/account/DeleteAction.action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>」を入力しEnterを押下 +④表示された画面を確認</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>①ログイン画面にてアカウント権限が「一般」のアカウントとしてログイン +②TOPページに画面遷移することを確認 +③画面上部のURL部分に「</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost:8080/account/UpdateAction.action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>」を入力しEnterを押下 +④表示された画面を確認</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>①ログイン画面にてアカウント権限が「一般」のアカウントとしてログイン +②TOPページに画面遷移することを確認 +③画面上部のURL部分に「</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost:8080/account/RegistAction.action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>」を入力しEnterを押下 +④表示された画面を確認</t>
+    </r>
+  </si>
+  <si>
+    <t>総合テスト</t>
+  </si>
+  <si>
+    <t>表1</t>
+  </si>
+  <si>
+    <t>機能</t>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>①safariを起動し「</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost:8080/account/HomeAction.action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">」で検索
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②ログイン画面にて「管理者」権限のアカウントでログイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">③「アカウント登録」を押下
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">④アカウント登録画面にてエラーが出ない形式で項目全てに入力し「確認する」を押下
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">⑤アカウント登録確認画面にて「登録する」を押下
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">⑥ログイン画面を再度表示し、登録したアカウントでログイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>問題なくログイン出来ることを確認</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>①chromeを起動し「</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost:8080/account/HomeAction.action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">」で検索
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②ログイン画面にて「管理者」権限のアカウントでログイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">③「アカウント登録」を押下
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">④アカウント登録画面にてエラーが出ない形式で項目全てに入力し「確認する」を押下
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">⑤アカウント登録確認画面にて「登録する」を押下
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">⑥ログイン画面を再度表示し、登録したアカウントでログイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①safariを起動し「http://localhost:8080/account/HomeAction.action」で検索
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②ログイン画面にて「管理者」権限のアカウントでログイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>③ログアウトせずに再度「</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost:8080/account/HomeAction.action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">」で検索
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">④「一般」権限のアカウントでログイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">⑤TOPページの画面を確認
+</t>
+    </r>
+  </si>
+  <si>
+    <t>画面上部に「アカウント登録、アカウント一覧」の表示がないことを確認</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①chromeを起動し「http://localhost:8080/account/HomeAction.action」で検索
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②ログイン画面にて「管理者」権限のアカウントでログイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>③ログアウトせずに再度「</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost:8080/account/HomeAction.action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">」で検索
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">④「一般」権限のアカウントでログイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">⑤TOPページの画面を確認
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>①ブラウザにて「</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost:8080/account/HomeAction.action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">」で検索
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②登録済みのアカウントでログイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">③TOPページの画面を確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>※ブラウザの指定はないものとする</t>
+    </r>
+  </si>
+  <si>
+    <t>ログインしたアカウント情報の記載があることを確認</t>
+  </si>
+  <si>
+    <t>現在どのアカウントでログインしているのかを確認する場所がない</t>
+  </si>
+  <si>
+    <t>アカウント登録機能</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>①ブラウザにて「</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost:8080/account/HomeAction.action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">」で検索
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②ログイン画面にて「管理者」権限のアカウントでログイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">③「アカウント登録」を押下
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">④メールアドレスに既に登録済みのアドレスを入力
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">⑤画面の表示を確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>※ブラウザの指定はないものとする</t>
+    </r>
+  </si>
+  <si>
+    <t>「既に登録済みのメールアドレスです。」とのエラー表示が出ることを確認</t>
+  </si>
+  <si>
+    <t>同じメアドを登録出来ないようにする処理がない</t>
   </si>
 </sst>
 </file>
@@ -3855,7 +4583,7 @@
       <name val="Menlo Regular"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3880,8 +4608,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="70">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -4881,6 +5621,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="18"/>
       </left>
       <right style="thin">
@@ -4888,6 +5643,21 @@
       </right>
       <top style="thin">
         <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -4924,13 +5694,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5315,7 +6385,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -5336,22 +6406,100 @@
     <xf numFmtId="0" fontId="0" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="69" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="75" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="77" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5388,6 +6536,8 @@
       <rgbColor rgb="ff0226cb"/>
       <rgbColor rgb="ffe3e3e3"/>
       <rgbColor rgb="ff931967"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -6505,6 +7655,22 @@
         <v>84</v>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>384</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>385</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>384</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -6512,6 +7678,7 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'単体テスト - 表2'!R2C1" tooltip="" display="単体テスト - 表2"/>
     <hyperlink ref="D12" location="'結合テスト - 表2'!R2C1" tooltip="" display="結合テスト - 表2"/>
+    <hyperlink ref="D14" location="'総合テスト'!R2C1" tooltip="" display="総合テスト"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -6611,7 +7778,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" ht="288.3" customHeight="1">
+    <row r="4" ht="288.35" customHeight="1">
       <c r="A4" s="22"/>
       <c r="B4" s="23">
         <v>2</v>
@@ -6686,7 +7853,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="27"/>
     </row>
-    <row r="7" ht="303.3" customHeight="1">
+    <row r="7" ht="303.35" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="23">
         <v>5</v>
@@ -7052,7 +8219,7 @@
       <c r="J20" s="22"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" ht="333.3" customHeight="1">
+    <row r="21" ht="333.35" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="23">
         <v>19</v>
@@ -7317,7 +8484,7 @@
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
     </row>
-    <row r="32" ht="303.3" customHeight="1">
+    <row r="32" ht="303.35" customHeight="1">
       <c r="A32" s="35"/>
       <c r="B32" s="36">
         <v>30</v>
@@ -7576,7 +8743,7 @@
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
     </row>
-    <row r="43" ht="333.3" customHeight="1">
+    <row r="43" ht="333.35" customHeight="1">
       <c r="A43" s="35"/>
       <c r="B43" s="36">
         <v>41</v>
@@ -7664,7 +8831,7 @@
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
     </row>
-    <row r="47" ht="393.3" customHeight="1">
+    <row r="47" ht="393.35" customHeight="1">
       <c r="A47" s="35"/>
       <c r="B47" s="36">
         <v>45</v>
@@ -8243,7 +9410,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:K367"/>
+  <dimension ref="A2:K374"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -11887,7 +13054,9 @@
     </row>
     <row r="157" ht="48.45" customHeight="1">
       <c r="A157" s="72"/>
-      <c r="B157" s="128"/>
+      <c r="B157" s="128">
+        <v>155</v>
+      </c>
       <c r="C157" t="s" s="110">
         <v>71</v>
       </c>
@@ -11909,7 +13078,7 @@
     <row r="158" ht="123.45" customHeight="1">
       <c r="A158" s="65"/>
       <c r="B158" s="66">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C158" t="s" s="103">
         <v>71</v>
@@ -11932,7 +13101,7 @@
     <row r="159" ht="108.45" customHeight="1">
       <c r="A159" s="72"/>
       <c r="B159" s="73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C159" t="s" s="109">
         <v>71</v>
@@ -11955,7 +13124,7 @@
     <row r="160" ht="123.45" customHeight="1">
       <c r="A160" s="65"/>
       <c r="B160" s="66">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C160" t="s" s="103">
         <v>71</v>
@@ -11978,7 +13147,7 @@
     <row r="161" ht="108.45" customHeight="1">
       <c r="A161" s="72"/>
       <c r="B161" s="73">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C161" t="s" s="109">
         <v>71</v>
@@ -12001,7 +13170,7 @@
     <row r="162" ht="123.45" customHeight="1">
       <c r="A162" s="65"/>
       <c r="B162" s="66">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C162" t="s" s="103">
         <v>71</v>
@@ -12024,7 +13193,7 @@
     <row r="163" ht="108.45" customHeight="1">
       <c r="A163" s="72"/>
       <c r="B163" s="73">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C163" t="s" s="109">
         <v>71</v>
@@ -12047,7 +13216,7 @@
     <row r="164" ht="123.45" customHeight="1">
       <c r="A164" s="65"/>
       <c r="B164" s="66">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C164" t="s" s="103">
         <v>71</v>
@@ -12070,7 +13239,7 @@
     <row r="165" ht="108.45" customHeight="1">
       <c r="A165" s="72"/>
       <c r="B165" s="73">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C165" t="s" s="109">
         <v>71</v>
@@ -12093,7 +13262,7 @@
     <row r="166" ht="297" customHeight="1">
       <c r="A166" s="65"/>
       <c r="B166" s="66">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C166" t="s" s="124">
         <v>71</v>
@@ -12122,7 +13291,7 @@
     <row r="167" ht="93.45" customHeight="1">
       <c r="A167" s="72"/>
       <c r="B167" s="73">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C167" t="s" s="116">
         <v>71</v>
@@ -12145,7 +13314,7 @@
     <row r="168" ht="33.45" customHeight="1">
       <c r="A168" s="65"/>
       <c r="B168" s="117">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C168" t="s" s="104">
         <v>75</v>
@@ -12168,7 +13337,7 @@
     <row r="169" ht="78.45" customHeight="1">
       <c r="A169" s="72"/>
       <c r="B169" s="73">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C169" t="s" s="109">
         <v>334</v>
@@ -12189,7 +13358,7 @@
     <row r="170" ht="78.45" customHeight="1">
       <c r="A170" s="65"/>
       <c r="B170" s="66">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C170" s="133"/>
       <c r="D170" t="s" s="104">
@@ -12210,13 +13379,13 @@
     <row r="171" ht="78.45" customHeight="1">
       <c r="A171" s="72"/>
       <c r="B171" s="73">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C171" s="134"/>
-      <c r="D171" t="s" s="110">
+      <c r="D171" t="s" s="135">
         <v>339</v>
       </c>
-      <c r="E171" t="s" s="110">
+      <c r="E171" t="s" s="135">
         <v>336</v>
       </c>
       <c r="F171" s="132"/>
@@ -12226,37 +13395,37 @@
       <c r="J171" s="38"/>
       <c r="K171" s="38"/>
     </row>
-    <row r="172" ht="63.45" customHeight="1">
+    <row r="172" ht="48.45" customHeight="1">
       <c r="A172" s="65"/>
       <c r="B172" s="66">
-        <v>169</v>
-      </c>
-      <c r="C172" t="s" s="103">
-        <v>52</v>
-      </c>
-      <c r="D172" t="s" s="104">
+        <v>170</v>
+      </c>
+      <c r="C172" s="136"/>
+      <c r="D172" t="s" s="67">
         <v>340</v>
       </c>
-      <c r="E172" t="s" s="104">
+      <c r="E172" t="s" s="67">
         <v>341</v>
       </c>
-      <c r="F172" s="135"/>
+      <c r="F172" s="137"/>
       <c r="G172" s="106"/>
       <c r="H172" s="106"/>
       <c r="I172" s="107"/>
       <c r="J172" s="108"/>
       <c r="K172" s="108"/>
     </row>
-    <row r="173" ht="78.45" customHeight="1">
+    <row r="173" ht="63.45" customHeight="1">
       <c r="A173" s="72"/>
       <c r="B173" s="73">
-        <v>170</v>
-      </c>
-      <c r="C173" s="136"/>
-      <c r="D173" t="s" s="137">
+        <v>171</v>
+      </c>
+      <c r="C173" t="s" s="109">
+        <v>52</v>
+      </c>
+      <c r="D173" t="s" s="138">
         <v>342</v>
       </c>
-      <c r="E173" t="s" s="120">
+      <c r="E173" t="s" s="138">
         <v>343</v>
       </c>
       <c r="F173" s="132"/>
@@ -12268,17 +13437,17 @@
     </row>
     <row r="174" ht="78.45" customHeight="1">
       <c r="A174" s="65"/>
-      <c r="B174" s="117">
-        <v>171</v>
-      </c>
-      <c r="C174" s="106"/>
-      <c r="D174" t="s" s="121">
+      <c r="B174" s="66">
+        <v>172</v>
+      </c>
+      <c r="C174" s="136"/>
+      <c r="D174" t="s" s="139">
         <v>344</v>
       </c>
-      <c r="E174" t="s" s="114">
+      <c r="E174" t="s" s="124">
         <v>345</v>
       </c>
-      <c r="F174" s="135"/>
+      <c r="F174" s="140"/>
       <c r="G174" s="106"/>
       <c r="H174" s="106"/>
       <c r="I174" s="107"/>
@@ -12287,10 +13456,10 @@
     </row>
     <row r="175" ht="78.45" customHeight="1">
       <c r="A175" s="72"/>
-      <c r="B175" s="73">
-        <v>172</v>
-      </c>
-      <c r="C175" s="134"/>
+      <c r="B175" s="128">
+        <v>173</v>
+      </c>
+      <c r="C175" s="112"/>
       <c r="D175" t="s" s="125">
         <v>346</v>
       </c>
@@ -12306,29 +13475,33 @@
     </row>
     <row r="176" ht="78.45" customHeight="1">
       <c r="A176" s="65"/>
-      <c r="B176" s="138"/>
+      <c r="B176" s="66">
+        <v>174</v>
+      </c>
       <c r="C176" s="133"/>
-      <c r="D176" t="s" s="126">
+      <c r="D176" t="s" s="121">
         <v>348</v>
       </c>
-      <c r="E176" t="s" s="127">
+      <c r="E176" t="s" s="114">
         <v>349</v>
       </c>
-      <c r="F176" s="135"/>
+      <c r="F176" s="140"/>
       <c r="G176" s="106"/>
       <c r="H176" s="106"/>
       <c r="I176" s="107"/>
       <c r="J176" s="108"/>
       <c r="K176" s="108"/>
     </row>
-    <row r="177" ht="108.45" customHeight="1">
+    <row r="177" ht="78.45" customHeight="1">
       <c r="A177" s="72"/>
-      <c r="B177" s="139"/>
+      <c r="B177" s="73">
+        <v>175</v>
+      </c>
       <c r="C177" s="134"/>
-      <c r="D177" t="s" s="110">
+      <c r="D177" t="s" s="122">
         <v>350</v>
       </c>
-      <c r="E177" t="s" s="110">
+      <c r="E177" t="s" s="116">
         <v>351</v>
       </c>
       <c r="F177" s="132"/>
@@ -12338,25 +13511,37 @@
       <c r="J177" s="38"/>
       <c r="K177" s="38"/>
     </row>
-    <row r="178" ht="18.45" customHeight="1">
+    <row r="178" ht="108.45" customHeight="1">
       <c r="A178" s="65"/>
-      <c r="B178" s="138"/>
+      <c r="B178" s="66">
+        <v>176</v>
+      </c>
       <c r="C178" s="133"/>
-      <c r="D178" s="106"/>
-      <c r="E178" s="106"/>
-      <c r="F178" s="135"/>
+      <c r="D178" t="s" s="104">
+        <v>352</v>
+      </c>
+      <c r="E178" t="s" s="104">
+        <v>353</v>
+      </c>
+      <c r="F178" s="140"/>
       <c r="G178" s="106"/>
       <c r="H178" s="106"/>
       <c r="I178" s="107"/>
       <c r="J178" s="108"/>
       <c r="K178" s="108"/>
     </row>
-    <row r="179" ht="18.45" customHeight="1">
+    <row r="179" ht="108.45" customHeight="1">
       <c r="A179" s="72"/>
-      <c r="B179" s="139"/>
+      <c r="B179" s="73">
+        <v>177</v>
+      </c>
       <c r="C179" s="134"/>
-      <c r="D179" s="112"/>
-      <c r="E179" s="112"/>
+      <c r="D179" t="s" s="110">
+        <v>354</v>
+      </c>
+      <c r="E179" t="s" s="110">
+        <v>355</v>
+      </c>
       <c r="F179" s="132"/>
       <c r="G179" s="112"/>
       <c r="H179" s="112"/>
@@ -12364,25 +13549,37 @@
       <c r="J179" s="38"/>
       <c r="K179" s="38"/>
     </row>
-    <row r="180" ht="18.45" customHeight="1">
+    <row r="180" ht="168.45" customHeight="1">
       <c r="A180" s="65"/>
-      <c r="B180" s="138"/>
+      <c r="B180" s="66">
+        <v>178</v>
+      </c>
       <c r="C180" s="133"/>
-      <c r="D180" s="106"/>
-      <c r="E180" s="106"/>
-      <c r="F180" s="135"/>
+      <c r="D180" t="s" s="104">
+        <v>356</v>
+      </c>
+      <c r="E180" t="s" s="104">
+        <v>357</v>
+      </c>
+      <c r="F180" s="140"/>
       <c r="G180" s="106"/>
       <c r="H180" s="106"/>
       <c r="I180" s="107"/>
       <c r="J180" s="108"/>
       <c r="K180" s="108"/>
     </row>
-    <row r="181" ht="18.45" customHeight="1">
+    <row r="181" ht="108.45" customHeight="1">
       <c r="A181" s="72"/>
-      <c r="B181" s="139"/>
+      <c r="B181" s="73">
+        <v>179</v>
+      </c>
       <c r="C181" s="134"/>
-      <c r="D181" s="112"/>
-      <c r="E181" s="112"/>
+      <c r="D181" t="s" s="110">
+        <v>358</v>
+      </c>
+      <c r="E181" t="s" s="110">
+        <v>359</v>
+      </c>
       <c r="F181" s="132"/>
       <c r="G181" s="112"/>
       <c r="H181" s="112"/>
@@ -12390,25 +13587,37 @@
       <c r="J181" s="38"/>
       <c r="K181" s="38"/>
     </row>
-    <row r="182" ht="18.45" customHeight="1">
+    <row r="182" ht="108.45" customHeight="1">
       <c r="A182" s="65"/>
-      <c r="B182" s="138"/>
+      <c r="B182" s="66">
+        <v>180</v>
+      </c>
       <c r="C182" s="133"/>
-      <c r="D182" s="106"/>
-      <c r="E182" s="106"/>
-      <c r="F182" s="135"/>
+      <c r="D182" t="s" s="104">
+        <v>360</v>
+      </c>
+      <c r="E182" t="s" s="104">
+        <v>361</v>
+      </c>
+      <c r="F182" s="140"/>
       <c r="G182" s="106"/>
       <c r="H182" s="106"/>
       <c r="I182" s="107"/>
       <c r="J182" s="108"/>
       <c r="K182" s="108"/>
     </row>
-    <row r="183" ht="18.45" customHeight="1">
+    <row r="183" ht="168.45" customHeight="1">
       <c r="A183" s="72"/>
-      <c r="B183" s="139"/>
+      <c r="B183" s="73">
+        <v>181</v>
+      </c>
       <c r="C183" s="134"/>
-      <c r="D183" s="112"/>
-      <c r="E183" s="112"/>
+      <c r="D183" t="s" s="110">
+        <v>356</v>
+      </c>
+      <c r="E183" t="s" s="110">
+        <v>357</v>
+      </c>
       <c r="F183" s="132"/>
       <c r="G183" s="112"/>
       <c r="H183" s="112"/>
@@ -12416,25 +13625,37 @@
       <c r="J183" s="38"/>
       <c r="K183" s="38"/>
     </row>
-    <row r="184" ht="18.45" customHeight="1">
+    <row r="184" ht="108.45" customHeight="1">
       <c r="A184" s="65"/>
-      <c r="B184" s="138"/>
+      <c r="B184" s="66">
+        <v>182</v>
+      </c>
       <c r="C184" s="133"/>
-      <c r="D184" s="106"/>
-      <c r="E184" s="106"/>
-      <c r="F184" s="135"/>
+      <c r="D184" t="s" s="104">
+        <v>362</v>
+      </c>
+      <c r="E184" t="s" s="104">
+        <v>363</v>
+      </c>
+      <c r="F184" s="140"/>
       <c r="G184" s="106"/>
       <c r="H184" s="106"/>
       <c r="I184" s="107"/>
       <c r="J184" s="108"/>
       <c r="K184" s="108"/>
     </row>
-    <row r="185" ht="18.45" customHeight="1">
+    <row r="185" ht="108.45" customHeight="1">
       <c r="A185" s="72"/>
-      <c r="B185" s="139"/>
+      <c r="B185" s="73">
+        <v>183</v>
+      </c>
       <c r="C185" s="134"/>
-      <c r="D185" s="112"/>
-      <c r="E185" s="112"/>
+      <c r="D185" t="s" s="110">
+        <v>364</v>
+      </c>
+      <c r="E185" t="s" s="110">
+        <v>365</v>
+      </c>
       <c r="F185" s="132"/>
       <c r="G185" s="112"/>
       <c r="H185" s="112"/>
@@ -12442,25 +13663,37 @@
       <c r="J185" s="38"/>
       <c r="K185" s="38"/>
     </row>
-    <row r="186" ht="18.45" customHeight="1">
+    <row r="186" ht="168.45" customHeight="1">
       <c r="A186" s="65"/>
-      <c r="B186" s="138"/>
+      <c r="B186" s="66">
+        <v>184</v>
+      </c>
       <c r="C186" s="133"/>
-      <c r="D186" s="106"/>
-      <c r="E186" s="106"/>
-      <c r="F186" s="135"/>
+      <c r="D186" t="s" s="104">
+        <v>366</v>
+      </c>
+      <c r="E186" t="s" s="104">
+        <v>357</v>
+      </c>
+      <c r="F186" s="140"/>
       <c r="G186" s="106"/>
       <c r="H186" s="106"/>
       <c r="I186" s="107"/>
       <c r="J186" s="108"/>
       <c r="K186" s="108"/>
     </row>
-    <row r="187" ht="18.45" customHeight="1">
+    <row r="187" ht="108.45" customHeight="1">
       <c r="A187" s="72"/>
-      <c r="B187" s="139"/>
+      <c r="B187" s="73">
+        <v>185</v>
+      </c>
       <c r="C187" s="134"/>
-      <c r="D187" s="112"/>
-      <c r="E187" s="112"/>
+      <c r="D187" t="s" s="110">
+        <v>367</v>
+      </c>
+      <c r="E187" t="s" s="110">
+        <v>368</v>
+      </c>
       <c r="F187" s="132"/>
       <c r="G187" s="112"/>
       <c r="H187" s="112"/>
@@ -12468,25 +13701,37 @@
       <c r="J187" s="38"/>
       <c r="K187" s="38"/>
     </row>
-    <row r="188" ht="18.45" customHeight="1">
+    <row r="188" ht="108.45" customHeight="1">
       <c r="A188" s="65"/>
-      <c r="B188" s="138"/>
+      <c r="B188" s="66">
+        <v>186</v>
+      </c>
       <c r="C188" s="133"/>
-      <c r="D188" s="106"/>
-      <c r="E188" s="106"/>
-      <c r="F188" s="135"/>
+      <c r="D188" t="s" s="104">
+        <v>369</v>
+      </c>
+      <c r="E188" t="s" s="104">
+        <v>370</v>
+      </c>
+      <c r="F188" s="140"/>
       <c r="G188" s="106"/>
       <c r="H188" s="106"/>
       <c r="I188" s="107"/>
       <c r="J188" s="108"/>
       <c r="K188" s="108"/>
     </row>
-    <row r="189" ht="18.45" customHeight="1">
+    <row r="189" ht="168.45" customHeight="1">
       <c r="A189" s="72"/>
-      <c r="B189" s="139"/>
+      <c r="B189" s="73">
+        <v>187</v>
+      </c>
       <c r="C189" s="134"/>
-      <c r="D189" s="112"/>
-      <c r="E189" s="112"/>
+      <c r="D189" t="s" s="110">
+        <v>371</v>
+      </c>
+      <c r="E189" t="s" s="110">
+        <v>357</v>
+      </c>
       <c r="F189" s="132"/>
       <c r="G189" s="112"/>
       <c r="H189" s="112"/>
@@ -12494,25 +13739,37 @@
       <c r="J189" s="38"/>
       <c r="K189" s="38"/>
     </row>
-    <row r="190" ht="18.45" customHeight="1">
+    <row r="190" ht="123.45" customHeight="1">
       <c r="A190" s="65"/>
-      <c r="B190" s="138"/>
+      <c r="B190" s="66">
+        <v>188</v>
+      </c>
       <c r="C190" s="133"/>
-      <c r="D190" s="106"/>
-      <c r="E190" s="106"/>
-      <c r="F190" s="135"/>
+      <c r="D190" t="s" s="104">
+        <v>372</v>
+      </c>
+      <c r="E190" t="s" s="104">
+        <v>373</v>
+      </c>
+      <c r="F190" s="140"/>
       <c r="G190" s="106"/>
       <c r="H190" s="106"/>
       <c r="I190" s="107"/>
       <c r="J190" s="108"/>
       <c r="K190" s="108"/>
     </row>
-    <row r="191" ht="18.45" customHeight="1">
+    <row r="191" ht="108.45" customHeight="1">
       <c r="A191" s="72"/>
-      <c r="B191" s="139"/>
+      <c r="B191" s="73">
+        <v>189</v>
+      </c>
       <c r="C191" s="134"/>
-      <c r="D191" s="112"/>
-      <c r="E191" s="112"/>
+      <c r="D191" t="s" s="110">
+        <v>374</v>
+      </c>
+      <c r="E191" t="s" s="110">
+        <v>375</v>
+      </c>
       <c r="F191" s="132"/>
       <c r="G191" s="112"/>
       <c r="H191" s="112"/>
@@ -12520,25 +13777,37 @@
       <c r="J191" s="38"/>
       <c r="K191" s="38"/>
     </row>
-    <row r="192" ht="18.45" customHeight="1">
+    <row r="192" ht="183.45" customHeight="1">
       <c r="A192" s="65"/>
-      <c r="B192" s="138"/>
+      <c r="B192" s="66">
+        <v>190</v>
+      </c>
       <c r="C192" s="133"/>
-      <c r="D192" s="106"/>
-      <c r="E192" s="106"/>
-      <c r="F192" s="135"/>
+      <c r="D192" t="s" s="104">
+        <v>376</v>
+      </c>
+      <c r="E192" t="s" s="104">
+        <v>357</v>
+      </c>
+      <c r="F192" s="140"/>
       <c r="G192" s="106"/>
       <c r="H192" s="106"/>
       <c r="I192" s="107"/>
       <c r="J192" s="108"/>
       <c r="K192" s="108"/>
     </row>
-    <row r="193" ht="18.45" customHeight="1">
+    <row r="193" ht="48.45" customHeight="1">
       <c r="A193" s="72"/>
-      <c r="B193" s="139"/>
+      <c r="B193" s="73">
+        <v>191</v>
+      </c>
       <c r="C193" s="134"/>
-      <c r="D193" s="112"/>
-      <c r="E193" s="112"/>
+      <c r="D193" t="s" s="110">
+        <v>377</v>
+      </c>
+      <c r="E193" t="s" s="110">
+        <v>378</v>
+      </c>
       <c r="F193" s="132"/>
       <c r="G193" s="112"/>
       <c r="H193" s="112"/>
@@ -12546,25 +13815,37 @@
       <c r="J193" s="38"/>
       <c r="K193" s="38"/>
     </row>
-    <row r="194" ht="18.45" customHeight="1">
+    <row r="194" ht="108.5" customHeight="1">
       <c r="A194" s="65"/>
-      <c r="B194" s="138"/>
+      <c r="B194" s="66">
+        <v>192</v>
+      </c>
       <c r="C194" s="133"/>
-      <c r="D194" s="106"/>
-      <c r="E194" s="106"/>
-      <c r="F194" s="135"/>
+      <c r="D194" t="s" s="104">
+        <v>379</v>
+      </c>
+      <c r="E194" t="s" s="104">
+        <v>380</v>
+      </c>
+      <c r="F194" s="140"/>
       <c r="G194" s="106"/>
       <c r="H194" s="106"/>
       <c r="I194" s="107"/>
       <c r="J194" s="108"/>
       <c r="K194" s="108"/>
     </row>
-    <row r="195" ht="18.45" customHeight="1">
+    <row r="195" ht="93.5" customHeight="1">
       <c r="A195" s="72"/>
-      <c r="B195" s="139"/>
+      <c r="B195" s="73">
+        <v>193</v>
+      </c>
       <c r="C195" s="134"/>
-      <c r="D195" s="112"/>
-      <c r="E195" s="112"/>
+      <c r="D195" t="s" s="110">
+        <v>381</v>
+      </c>
+      <c r="E195" t="s" s="110">
+        <v>380</v>
+      </c>
       <c r="F195" s="132"/>
       <c r="G195" s="112"/>
       <c r="H195" s="112"/>
@@ -12572,25 +13853,37 @@
       <c r="J195" s="38"/>
       <c r="K195" s="38"/>
     </row>
-    <row r="196" ht="18.45" customHeight="1">
+    <row r="196" ht="93.5" customHeight="1">
       <c r="A196" s="65"/>
-      <c r="B196" s="138"/>
+      <c r="B196" s="66">
+        <v>194</v>
+      </c>
       <c r="C196" s="133"/>
-      <c r="D196" s="106"/>
-      <c r="E196" s="106"/>
-      <c r="F196" s="135"/>
+      <c r="D196" t="s" s="104">
+        <v>382</v>
+      </c>
+      <c r="E196" t="s" s="104">
+        <v>380</v>
+      </c>
+      <c r="F196" s="140"/>
       <c r="G196" s="106"/>
       <c r="H196" s="106"/>
       <c r="I196" s="107"/>
       <c r="J196" s="108"/>
       <c r="K196" s="108"/>
     </row>
-    <row r="197" ht="18.45" customHeight="1">
+    <row r="197" ht="93.5" customHeight="1">
       <c r="A197" s="72"/>
-      <c r="B197" s="139"/>
+      <c r="B197" s="73">
+        <v>195</v>
+      </c>
       <c r="C197" s="134"/>
-      <c r="D197" s="112"/>
-      <c r="E197" s="112"/>
+      <c r="D197" t="s" s="110">
+        <v>383</v>
+      </c>
+      <c r="E197" t="s" s="110">
+        <v>380</v>
+      </c>
       <c r="F197" s="132"/>
       <c r="G197" s="112"/>
       <c r="H197" s="112"/>
@@ -12598,22 +13891,26 @@
       <c r="J197" s="38"/>
       <c r="K197" s="38"/>
     </row>
-    <row r="198" ht="18.45" customHeight="1">
+    <row r="198" ht="18.5" customHeight="1">
       <c r="A198" s="65"/>
-      <c r="B198" s="138"/>
+      <c r="B198" s="66">
+        <v>196</v>
+      </c>
       <c r="C198" s="133"/>
       <c r="D198" s="106"/>
       <c r="E198" s="106"/>
-      <c r="F198" s="135"/>
+      <c r="F198" s="140"/>
       <c r="G198" s="106"/>
       <c r="H198" s="106"/>
       <c r="I198" s="107"/>
       <c r="J198" s="108"/>
       <c r="K198" s="108"/>
     </row>
-    <row r="199" ht="18.45" customHeight="1">
+    <row r="199" ht="18.5" customHeight="1">
       <c r="A199" s="72"/>
-      <c r="B199" s="139"/>
+      <c r="B199" s="73">
+        <v>197</v>
+      </c>
       <c r="C199" s="134"/>
       <c r="D199" s="112"/>
       <c r="E199" s="112"/>
@@ -12626,11 +13923,13 @@
     </row>
     <row r="200" ht="18.45" customHeight="1">
       <c r="A200" s="65"/>
-      <c r="B200" s="138"/>
+      <c r="B200" s="66">
+        <v>198</v>
+      </c>
       <c r="C200" s="133"/>
       <c r="D200" s="106"/>
       <c r="E200" s="106"/>
-      <c r="F200" s="135"/>
+      <c r="F200" s="140"/>
       <c r="G200" s="106"/>
       <c r="H200" s="106"/>
       <c r="I200" s="107"/>
@@ -12639,7 +13938,9 @@
     </row>
     <row r="201" ht="18.45" customHeight="1">
       <c r="A201" s="72"/>
-      <c r="B201" s="139"/>
+      <c r="B201" s="73">
+        <v>199</v>
+      </c>
       <c r="C201" s="134"/>
       <c r="D201" s="112"/>
       <c r="E201" s="112"/>
@@ -12652,11 +13953,13 @@
     </row>
     <row r="202" ht="18.45" customHeight="1">
       <c r="A202" s="65"/>
-      <c r="B202" s="138"/>
+      <c r="B202" s="66">
+        <v>200</v>
+      </c>
       <c r="C202" s="133"/>
       <c r="D202" s="106"/>
       <c r="E202" s="106"/>
-      <c r="F202" s="135"/>
+      <c r="F202" s="140"/>
       <c r="G202" s="106"/>
       <c r="H202" s="106"/>
       <c r="I202" s="107"/>
@@ -12665,7 +13968,9 @@
     </row>
     <row r="203" ht="18.45" customHeight="1">
       <c r="A203" s="72"/>
-      <c r="B203" s="139"/>
+      <c r="B203" s="73">
+        <v>201</v>
+      </c>
       <c r="C203" s="134"/>
       <c r="D203" s="112"/>
       <c r="E203" s="112"/>
@@ -12678,11 +13983,13 @@
     </row>
     <row r="204" ht="18.45" customHeight="1">
       <c r="A204" s="65"/>
-      <c r="B204" s="138"/>
+      <c r="B204" s="66">
+        <v>202</v>
+      </c>
       <c r="C204" s="133"/>
       <c r="D204" s="106"/>
       <c r="E204" s="106"/>
-      <c r="F204" s="135"/>
+      <c r="F204" s="140"/>
       <c r="G204" s="106"/>
       <c r="H204" s="106"/>
       <c r="I204" s="107"/>
@@ -12691,7 +13998,9 @@
     </row>
     <row r="205" ht="18.45" customHeight="1">
       <c r="A205" s="72"/>
-      <c r="B205" s="139"/>
+      <c r="B205" s="73">
+        <v>203</v>
+      </c>
       <c r="C205" s="134"/>
       <c r="D205" s="112"/>
       <c r="E205" s="112"/>
@@ -12704,11 +14013,13 @@
     </row>
     <row r="206" ht="18.45" customHeight="1">
       <c r="A206" s="65"/>
-      <c r="B206" s="138"/>
+      <c r="B206" s="66">
+        <v>204</v>
+      </c>
       <c r="C206" s="133"/>
       <c r="D206" s="106"/>
       <c r="E206" s="106"/>
-      <c r="F206" s="135"/>
+      <c r="F206" s="140"/>
       <c r="G206" s="106"/>
       <c r="H206" s="106"/>
       <c r="I206" s="107"/>
@@ -12717,7 +14028,9 @@
     </row>
     <row r="207" ht="18.45" customHeight="1">
       <c r="A207" s="72"/>
-      <c r="B207" s="139"/>
+      <c r="B207" s="73">
+        <v>205</v>
+      </c>
       <c r="C207" s="134"/>
       <c r="D207" s="112"/>
       <c r="E207" s="112"/>
@@ -12730,11 +14043,13 @@
     </row>
     <row r="208" ht="18.45" customHeight="1">
       <c r="A208" s="65"/>
-      <c r="B208" s="138"/>
+      <c r="B208" s="66">
+        <v>206</v>
+      </c>
       <c r="C208" s="133"/>
       <c r="D208" s="106"/>
       <c r="E208" s="106"/>
-      <c r="F208" s="135"/>
+      <c r="F208" s="140"/>
       <c r="G208" s="106"/>
       <c r="H208" s="106"/>
       <c r="I208" s="107"/>
@@ -12743,7 +14058,9 @@
     </row>
     <row r="209" ht="18.45" customHeight="1">
       <c r="A209" s="72"/>
-      <c r="B209" s="139"/>
+      <c r="B209" s="73">
+        <v>207</v>
+      </c>
       <c r="C209" s="134"/>
       <c r="D209" s="112"/>
       <c r="E209" s="112"/>
@@ -12756,11 +14073,13 @@
     </row>
     <row r="210" ht="18.45" customHeight="1">
       <c r="A210" s="65"/>
-      <c r="B210" s="138"/>
+      <c r="B210" s="66">
+        <v>208</v>
+      </c>
       <c r="C210" s="133"/>
       <c r="D210" s="106"/>
       <c r="E210" s="106"/>
-      <c r="F210" s="135"/>
+      <c r="F210" s="140"/>
       <c r="G210" s="106"/>
       <c r="H210" s="106"/>
       <c r="I210" s="107"/>
@@ -12769,7 +14088,9 @@
     </row>
     <row r="211" ht="18.45" customHeight="1">
       <c r="A211" s="72"/>
-      <c r="B211" s="139"/>
+      <c r="B211" s="73">
+        <v>209</v>
+      </c>
       <c r="C211" s="134"/>
       <c r="D211" s="112"/>
       <c r="E211" s="112"/>
@@ -12782,11 +14103,13 @@
     </row>
     <row r="212" ht="18.45" customHeight="1">
       <c r="A212" s="65"/>
-      <c r="B212" s="138"/>
+      <c r="B212" s="66">
+        <v>210</v>
+      </c>
       <c r="C212" s="133"/>
       <c r="D212" s="106"/>
       <c r="E212" s="106"/>
-      <c r="F212" s="135"/>
+      <c r="F212" s="140"/>
       <c r="G212" s="106"/>
       <c r="H212" s="106"/>
       <c r="I212" s="107"/>
@@ -12795,7 +14118,9 @@
     </row>
     <row r="213" ht="18.45" customHeight="1">
       <c r="A213" s="72"/>
-      <c r="B213" s="139"/>
+      <c r="B213" s="73">
+        <v>211</v>
+      </c>
       <c r="C213" s="134"/>
       <c r="D213" s="112"/>
       <c r="E213" s="112"/>
@@ -12808,11 +14133,13 @@
     </row>
     <row r="214" ht="18.45" customHeight="1">
       <c r="A214" s="65"/>
-      <c r="B214" s="138"/>
+      <c r="B214" s="66">
+        <v>212</v>
+      </c>
       <c r="C214" s="133"/>
       <c r="D214" s="106"/>
       <c r="E214" s="106"/>
-      <c r="F214" s="135"/>
+      <c r="F214" s="140"/>
       <c r="G214" s="106"/>
       <c r="H214" s="106"/>
       <c r="I214" s="107"/>
@@ -12821,7 +14148,9 @@
     </row>
     <row r="215" ht="18.45" customHeight="1">
       <c r="A215" s="72"/>
-      <c r="B215" s="139"/>
+      <c r="B215" s="73">
+        <v>213</v>
+      </c>
       <c r="C215" s="134"/>
       <c r="D215" s="112"/>
       <c r="E215" s="112"/>
@@ -12834,11 +14163,13 @@
     </row>
     <row r="216" ht="18.45" customHeight="1">
       <c r="A216" s="65"/>
-      <c r="B216" s="138"/>
+      <c r="B216" s="66">
+        <v>214</v>
+      </c>
       <c r="C216" s="133"/>
       <c r="D216" s="106"/>
       <c r="E216" s="106"/>
-      <c r="F216" s="135"/>
+      <c r="F216" s="140"/>
       <c r="G216" s="106"/>
       <c r="H216" s="106"/>
       <c r="I216" s="107"/>
@@ -12847,7 +14178,9 @@
     </row>
     <row r="217" ht="18.45" customHeight="1">
       <c r="A217" s="72"/>
-      <c r="B217" s="139"/>
+      <c r="B217" s="73">
+        <v>215</v>
+      </c>
       <c r="C217" s="134"/>
       <c r="D217" s="112"/>
       <c r="E217" s="112"/>
@@ -12860,11 +14193,13 @@
     </row>
     <row r="218" ht="18.45" customHeight="1">
       <c r="A218" s="65"/>
-      <c r="B218" s="138"/>
+      <c r="B218" s="66">
+        <v>216</v>
+      </c>
       <c r="C218" s="133"/>
       <c r="D218" s="106"/>
       <c r="E218" s="106"/>
-      <c r="F218" s="135"/>
+      <c r="F218" s="140"/>
       <c r="G218" s="106"/>
       <c r="H218" s="106"/>
       <c r="I218" s="107"/>
@@ -12873,7 +14208,9 @@
     </row>
     <row r="219" ht="18.45" customHeight="1">
       <c r="A219" s="72"/>
-      <c r="B219" s="139"/>
+      <c r="B219" s="73">
+        <v>217</v>
+      </c>
       <c r="C219" s="134"/>
       <c r="D219" s="112"/>
       <c r="E219" s="112"/>
@@ -12886,11 +14223,13 @@
     </row>
     <row r="220" ht="18.45" customHeight="1">
       <c r="A220" s="65"/>
-      <c r="B220" s="138"/>
+      <c r="B220" s="66">
+        <v>218</v>
+      </c>
       <c r="C220" s="133"/>
       <c r="D220" s="106"/>
       <c r="E220" s="106"/>
-      <c r="F220" s="135"/>
+      <c r="F220" s="140"/>
       <c r="G220" s="106"/>
       <c r="H220" s="106"/>
       <c r="I220" s="107"/>
@@ -12899,7 +14238,9 @@
     </row>
     <row r="221" ht="18.45" customHeight="1">
       <c r="A221" s="72"/>
-      <c r="B221" s="139"/>
+      <c r="B221" s="73">
+        <v>219</v>
+      </c>
       <c r="C221" s="134"/>
       <c r="D221" s="112"/>
       <c r="E221" s="112"/>
@@ -12912,11 +14253,13 @@
     </row>
     <row r="222" ht="18.45" customHeight="1">
       <c r="A222" s="65"/>
-      <c r="B222" s="138"/>
+      <c r="B222" s="66">
+        <v>220</v>
+      </c>
       <c r="C222" s="133"/>
       <c r="D222" s="106"/>
       <c r="E222" s="106"/>
-      <c r="F222" s="135"/>
+      <c r="F222" s="140"/>
       <c r="G222" s="106"/>
       <c r="H222" s="106"/>
       <c r="I222" s="107"/>
@@ -12925,7 +14268,9 @@
     </row>
     <row r="223" ht="18.45" customHeight="1">
       <c r="A223" s="72"/>
-      <c r="B223" s="139"/>
+      <c r="B223" s="73">
+        <v>221</v>
+      </c>
       <c r="C223" s="134"/>
       <c r="D223" s="112"/>
       <c r="E223" s="112"/>
@@ -12938,11 +14283,13 @@
     </row>
     <row r="224" ht="18.45" customHeight="1">
       <c r="A224" s="65"/>
-      <c r="B224" s="138"/>
+      <c r="B224" s="66">
+        <v>222</v>
+      </c>
       <c r="C224" s="133"/>
       <c r="D224" s="106"/>
       <c r="E224" s="106"/>
-      <c r="F224" s="135"/>
+      <c r="F224" s="140"/>
       <c r="G224" s="106"/>
       <c r="H224" s="106"/>
       <c r="I224" s="107"/>
@@ -12951,7 +14298,9 @@
     </row>
     <row r="225" ht="18.45" customHeight="1">
       <c r="A225" s="72"/>
-      <c r="B225" s="139"/>
+      <c r="B225" s="73">
+        <v>223</v>
+      </c>
       <c r="C225" s="134"/>
       <c r="D225" s="112"/>
       <c r="E225" s="112"/>
@@ -12964,11 +14313,13 @@
     </row>
     <row r="226" ht="18.45" customHeight="1">
       <c r="A226" s="65"/>
-      <c r="B226" s="138"/>
+      <c r="B226" s="66">
+        <v>224</v>
+      </c>
       <c r="C226" s="133"/>
       <c r="D226" s="106"/>
       <c r="E226" s="106"/>
-      <c r="F226" s="135"/>
+      <c r="F226" s="140"/>
       <c r="G226" s="106"/>
       <c r="H226" s="106"/>
       <c r="I226" s="107"/>
@@ -12977,7 +14328,9 @@
     </row>
     <row r="227" ht="18.45" customHeight="1">
       <c r="A227" s="72"/>
-      <c r="B227" s="139"/>
+      <c r="B227" s="73">
+        <v>225</v>
+      </c>
       <c r="C227" s="134"/>
       <c r="D227" s="112"/>
       <c r="E227" s="112"/>
@@ -12990,11 +14343,13 @@
     </row>
     <row r="228" ht="18.45" customHeight="1">
       <c r="A228" s="65"/>
-      <c r="B228" s="138"/>
+      <c r="B228" s="66">
+        <v>226</v>
+      </c>
       <c r="C228" s="133"/>
       <c r="D228" s="106"/>
       <c r="E228" s="106"/>
-      <c r="F228" s="135"/>
+      <c r="F228" s="140"/>
       <c r="G228" s="106"/>
       <c r="H228" s="106"/>
       <c r="I228" s="107"/>
@@ -13003,7 +14358,9 @@
     </row>
     <row r="229" ht="18.45" customHeight="1">
       <c r="A229" s="72"/>
-      <c r="B229" s="139"/>
+      <c r="B229" s="73">
+        <v>227</v>
+      </c>
       <c r="C229" s="134"/>
       <c r="D229" s="112"/>
       <c r="E229" s="112"/>
@@ -13016,11 +14373,13 @@
     </row>
     <row r="230" ht="18.45" customHeight="1">
       <c r="A230" s="65"/>
-      <c r="B230" s="138"/>
+      <c r="B230" s="66">
+        <v>228</v>
+      </c>
       <c r="C230" s="133"/>
       <c r="D230" s="106"/>
       <c r="E230" s="106"/>
-      <c r="F230" s="135"/>
+      <c r="F230" s="140"/>
       <c r="G230" s="106"/>
       <c r="H230" s="106"/>
       <c r="I230" s="107"/>
@@ -13029,7 +14388,9 @@
     </row>
     <row r="231" ht="18.45" customHeight="1">
       <c r="A231" s="72"/>
-      <c r="B231" s="139"/>
+      <c r="B231" s="73">
+        <v>229</v>
+      </c>
       <c r="C231" s="134"/>
       <c r="D231" s="112"/>
       <c r="E231" s="112"/>
@@ -13042,11 +14403,13 @@
     </row>
     <row r="232" ht="18.45" customHeight="1">
       <c r="A232" s="65"/>
-      <c r="B232" s="138"/>
+      <c r="B232" s="66">
+        <v>230</v>
+      </c>
       <c r="C232" s="133"/>
       <c r="D232" s="106"/>
       <c r="E232" s="106"/>
-      <c r="F232" s="135"/>
+      <c r="F232" s="140"/>
       <c r="G232" s="106"/>
       <c r="H232" s="106"/>
       <c r="I232" s="107"/>
@@ -13055,7 +14418,9 @@
     </row>
     <row r="233" ht="18.45" customHeight="1">
       <c r="A233" s="72"/>
-      <c r="B233" s="139"/>
+      <c r="B233" s="73">
+        <v>231</v>
+      </c>
       <c r="C233" s="134"/>
       <c r="D233" s="112"/>
       <c r="E233" s="112"/>
@@ -13068,11 +14433,13 @@
     </row>
     <row r="234" ht="18.45" customHeight="1">
       <c r="A234" s="65"/>
-      <c r="B234" s="138"/>
+      <c r="B234" s="66">
+        <v>232</v>
+      </c>
       <c r="C234" s="133"/>
       <c r="D234" s="106"/>
       <c r="E234" s="106"/>
-      <c r="F234" s="135"/>
+      <c r="F234" s="140"/>
       <c r="G234" s="106"/>
       <c r="H234" s="106"/>
       <c r="I234" s="107"/>
@@ -13081,7 +14448,9 @@
     </row>
     <row r="235" ht="18.45" customHeight="1">
       <c r="A235" s="72"/>
-      <c r="B235" s="139"/>
+      <c r="B235" s="73">
+        <v>233</v>
+      </c>
       <c r="C235" s="134"/>
       <c r="D235" s="112"/>
       <c r="E235" s="112"/>
@@ -13094,11 +14463,13 @@
     </row>
     <row r="236" ht="18.45" customHeight="1">
       <c r="A236" s="65"/>
-      <c r="B236" s="138"/>
+      <c r="B236" s="66">
+        <v>234</v>
+      </c>
       <c r="C236" s="133"/>
       <c r="D236" s="106"/>
       <c r="E236" s="106"/>
-      <c r="F236" s="135"/>
+      <c r="F236" s="140"/>
       <c r="G236" s="106"/>
       <c r="H236" s="106"/>
       <c r="I236" s="107"/>
@@ -13107,7 +14478,9 @@
     </row>
     <row r="237" ht="18.45" customHeight="1">
       <c r="A237" s="72"/>
-      <c r="B237" s="139"/>
+      <c r="B237" s="73">
+        <v>235</v>
+      </c>
       <c r="C237" s="134"/>
       <c r="D237" s="112"/>
       <c r="E237" s="112"/>
@@ -13120,11 +14493,13 @@
     </row>
     <row r="238" ht="18.45" customHeight="1">
       <c r="A238" s="65"/>
-      <c r="B238" s="138"/>
+      <c r="B238" s="66">
+        <v>236</v>
+      </c>
       <c r="C238" s="133"/>
       <c r="D238" s="106"/>
       <c r="E238" s="106"/>
-      <c r="F238" s="135"/>
+      <c r="F238" s="140"/>
       <c r="G238" s="106"/>
       <c r="H238" s="106"/>
       <c r="I238" s="107"/>
@@ -13133,7 +14508,9 @@
     </row>
     <row r="239" ht="18.45" customHeight="1">
       <c r="A239" s="72"/>
-      <c r="B239" s="139"/>
+      <c r="B239" s="73">
+        <v>237</v>
+      </c>
       <c r="C239" s="134"/>
       <c r="D239" s="112"/>
       <c r="E239" s="112"/>
@@ -13146,11 +14523,13 @@
     </row>
     <row r="240" ht="18.45" customHeight="1">
       <c r="A240" s="65"/>
-      <c r="B240" s="138"/>
+      <c r="B240" s="66">
+        <v>238</v>
+      </c>
       <c r="C240" s="133"/>
       <c r="D240" s="106"/>
       <c r="E240" s="106"/>
-      <c r="F240" s="135"/>
+      <c r="F240" s="140"/>
       <c r="G240" s="106"/>
       <c r="H240" s="106"/>
       <c r="I240" s="107"/>
@@ -13159,7 +14538,9 @@
     </row>
     <row r="241" ht="18.45" customHeight="1">
       <c r="A241" s="72"/>
-      <c r="B241" s="139"/>
+      <c r="B241" s="73">
+        <v>239</v>
+      </c>
       <c r="C241" s="134"/>
       <c r="D241" s="112"/>
       <c r="E241" s="112"/>
@@ -13172,11 +14553,13 @@
     </row>
     <row r="242" ht="18.45" customHeight="1">
       <c r="A242" s="65"/>
-      <c r="B242" s="138"/>
+      <c r="B242" s="66">
+        <v>240</v>
+      </c>
       <c r="C242" s="133"/>
       <c r="D242" s="106"/>
       <c r="E242" s="106"/>
-      <c r="F242" s="135"/>
+      <c r="F242" s="140"/>
       <c r="G242" s="106"/>
       <c r="H242" s="106"/>
       <c r="I242" s="107"/>
@@ -13185,7 +14568,9 @@
     </row>
     <row r="243" ht="18.45" customHeight="1">
       <c r="A243" s="72"/>
-      <c r="B243" s="139"/>
+      <c r="B243" s="73">
+        <v>241</v>
+      </c>
       <c r="C243" s="134"/>
       <c r="D243" s="112"/>
       <c r="E243" s="112"/>
@@ -13198,11 +14583,13 @@
     </row>
     <row r="244" ht="18.45" customHeight="1">
       <c r="A244" s="65"/>
-      <c r="B244" s="138"/>
+      <c r="B244" s="66">
+        <v>242</v>
+      </c>
       <c r="C244" s="133"/>
       <c r="D244" s="106"/>
       <c r="E244" s="106"/>
-      <c r="F244" s="135"/>
+      <c r="F244" s="140"/>
       <c r="G244" s="106"/>
       <c r="H244" s="106"/>
       <c r="I244" s="107"/>
@@ -13211,7 +14598,9 @@
     </row>
     <row r="245" ht="18.45" customHeight="1">
       <c r="A245" s="72"/>
-      <c r="B245" s="139"/>
+      <c r="B245" s="73">
+        <v>243</v>
+      </c>
       <c r="C245" s="134"/>
       <c r="D245" s="112"/>
       <c r="E245" s="112"/>
@@ -13224,11 +14613,13 @@
     </row>
     <row r="246" ht="18.45" customHeight="1">
       <c r="A246" s="65"/>
-      <c r="B246" s="138"/>
+      <c r="B246" s="66">
+        <v>244</v>
+      </c>
       <c r="C246" s="133"/>
       <c r="D246" s="106"/>
       <c r="E246" s="106"/>
-      <c r="F246" s="135"/>
+      <c r="F246" s="140"/>
       <c r="G246" s="106"/>
       <c r="H246" s="106"/>
       <c r="I246" s="107"/>
@@ -13237,7 +14628,9 @@
     </row>
     <row r="247" ht="18.45" customHeight="1">
       <c r="A247" s="72"/>
-      <c r="B247" s="139"/>
+      <c r="B247" s="73">
+        <v>245</v>
+      </c>
       <c r="C247" s="134"/>
       <c r="D247" s="112"/>
       <c r="E247" s="112"/>
@@ -13250,11 +14643,13 @@
     </row>
     <row r="248" ht="18.45" customHeight="1">
       <c r="A248" s="65"/>
-      <c r="B248" s="138"/>
+      <c r="B248" s="66">
+        <v>246</v>
+      </c>
       <c r="C248" s="133"/>
       <c r="D248" s="106"/>
       <c r="E248" s="106"/>
-      <c r="F248" s="135"/>
+      <c r="F248" s="140"/>
       <c r="G248" s="106"/>
       <c r="H248" s="106"/>
       <c r="I248" s="107"/>
@@ -13263,7 +14658,9 @@
     </row>
     <row r="249" ht="18.45" customHeight="1">
       <c r="A249" s="72"/>
-      <c r="B249" s="139"/>
+      <c r="B249" s="73">
+        <v>247</v>
+      </c>
       <c r="C249" s="134"/>
       <c r="D249" s="112"/>
       <c r="E249" s="112"/>
@@ -13276,11 +14673,13 @@
     </row>
     <row r="250" ht="18.45" customHeight="1">
       <c r="A250" s="65"/>
-      <c r="B250" s="138"/>
+      <c r="B250" s="66">
+        <v>248</v>
+      </c>
       <c r="C250" s="133"/>
       <c r="D250" s="106"/>
       <c r="E250" s="106"/>
-      <c r="F250" s="135"/>
+      <c r="F250" s="140"/>
       <c r="G250" s="106"/>
       <c r="H250" s="106"/>
       <c r="I250" s="107"/>
@@ -13289,7 +14688,9 @@
     </row>
     <row r="251" ht="18.45" customHeight="1">
       <c r="A251" s="72"/>
-      <c r="B251" s="139"/>
+      <c r="B251" s="73">
+        <v>249</v>
+      </c>
       <c r="C251" s="134"/>
       <c r="D251" s="112"/>
       <c r="E251" s="112"/>
@@ -13302,11 +14703,13 @@
     </row>
     <row r="252" ht="18.45" customHeight="1">
       <c r="A252" s="65"/>
-      <c r="B252" s="138"/>
+      <c r="B252" s="66">
+        <v>250</v>
+      </c>
       <c r="C252" s="133"/>
       <c r="D252" s="106"/>
       <c r="E252" s="106"/>
-      <c r="F252" s="135"/>
+      <c r="F252" s="140"/>
       <c r="G252" s="106"/>
       <c r="H252" s="106"/>
       <c r="I252" s="107"/>
@@ -13315,7 +14718,9 @@
     </row>
     <row r="253" ht="18.45" customHeight="1">
       <c r="A253" s="72"/>
-      <c r="B253" s="139"/>
+      <c r="B253" s="73">
+        <v>251</v>
+      </c>
       <c r="C253" s="134"/>
       <c r="D253" s="112"/>
       <c r="E253" s="112"/>
@@ -13328,11 +14733,13 @@
     </row>
     <row r="254" ht="18.45" customHeight="1">
       <c r="A254" s="65"/>
-      <c r="B254" s="138"/>
+      <c r="B254" s="66">
+        <v>252</v>
+      </c>
       <c r="C254" s="133"/>
       <c r="D254" s="106"/>
       <c r="E254" s="106"/>
-      <c r="F254" s="135"/>
+      <c r="F254" s="140"/>
       <c r="G254" s="106"/>
       <c r="H254" s="106"/>
       <c r="I254" s="107"/>
@@ -13341,7 +14748,9 @@
     </row>
     <row r="255" ht="18.45" customHeight="1">
       <c r="A255" s="72"/>
-      <c r="B255" s="139"/>
+      <c r="B255" s="73">
+        <v>253</v>
+      </c>
       <c r="C255" s="134"/>
       <c r="D255" s="112"/>
       <c r="E255" s="112"/>
@@ -13354,11 +14763,13 @@
     </row>
     <row r="256" ht="18.45" customHeight="1">
       <c r="A256" s="65"/>
-      <c r="B256" s="138"/>
+      <c r="B256" s="66">
+        <v>254</v>
+      </c>
       <c r="C256" s="133"/>
       <c r="D256" s="106"/>
       <c r="E256" s="106"/>
-      <c r="F256" s="135"/>
+      <c r="F256" s="140"/>
       <c r="G256" s="106"/>
       <c r="H256" s="106"/>
       <c r="I256" s="107"/>
@@ -13367,7 +14778,9 @@
     </row>
     <row r="257" ht="18.45" customHeight="1">
       <c r="A257" s="72"/>
-      <c r="B257" s="139"/>
+      <c r="B257" s="73">
+        <v>255</v>
+      </c>
       <c r="C257" s="134"/>
       <c r="D257" s="112"/>
       <c r="E257" s="112"/>
@@ -13380,11 +14793,13 @@
     </row>
     <row r="258" ht="18.45" customHeight="1">
       <c r="A258" s="65"/>
-      <c r="B258" s="138"/>
+      <c r="B258" s="66">
+        <v>256</v>
+      </c>
       <c r="C258" s="133"/>
       <c r="D258" s="106"/>
       <c r="E258" s="106"/>
-      <c r="F258" s="135"/>
+      <c r="F258" s="140"/>
       <c r="G258" s="106"/>
       <c r="H258" s="106"/>
       <c r="I258" s="107"/>
@@ -13393,7 +14808,9 @@
     </row>
     <row r="259" ht="18.45" customHeight="1">
       <c r="A259" s="72"/>
-      <c r="B259" s="139"/>
+      <c r="B259" s="73">
+        <v>257</v>
+      </c>
       <c r="C259" s="134"/>
       <c r="D259" s="112"/>
       <c r="E259" s="112"/>
@@ -13406,11 +14823,13 @@
     </row>
     <row r="260" ht="18.45" customHeight="1">
       <c r="A260" s="65"/>
-      <c r="B260" s="138"/>
+      <c r="B260" s="66">
+        <v>258</v>
+      </c>
       <c r="C260" s="133"/>
       <c r="D260" s="106"/>
       <c r="E260" s="106"/>
-      <c r="F260" s="135"/>
+      <c r="F260" s="140"/>
       <c r="G260" s="106"/>
       <c r="H260" s="106"/>
       <c r="I260" s="107"/>
@@ -13419,7 +14838,9 @@
     </row>
     <row r="261" ht="18.45" customHeight="1">
       <c r="A261" s="72"/>
-      <c r="B261" s="139"/>
+      <c r="B261" s="73">
+        <v>259</v>
+      </c>
       <c r="C261" s="134"/>
       <c r="D261" s="112"/>
       <c r="E261" s="112"/>
@@ -13432,11 +14853,13 @@
     </row>
     <row r="262" ht="18.45" customHeight="1">
       <c r="A262" s="65"/>
-      <c r="B262" s="138"/>
+      <c r="B262" s="66">
+        <v>260</v>
+      </c>
       <c r="C262" s="133"/>
       <c r="D262" s="106"/>
       <c r="E262" s="106"/>
-      <c r="F262" s="135"/>
+      <c r="F262" s="140"/>
       <c r="G262" s="106"/>
       <c r="H262" s="106"/>
       <c r="I262" s="107"/>
@@ -13445,7 +14868,9 @@
     </row>
     <row r="263" ht="18.45" customHeight="1">
       <c r="A263" s="72"/>
-      <c r="B263" s="139"/>
+      <c r="B263" s="73">
+        <v>261</v>
+      </c>
       <c r="C263" s="134"/>
       <c r="D263" s="112"/>
       <c r="E263" s="112"/>
@@ -13458,11 +14883,13 @@
     </row>
     <row r="264" ht="18.45" customHeight="1">
       <c r="A264" s="65"/>
-      <c r="B264" s="138"/>
+      <c r="B264" s="66">
+        <v>262</v>
+      </c>
       <c r="C264" s="133"/>
       <c r="D264" s="106"/>
       <c r="E264" s="106"/>
-      <c r="F264" s="135"/>
+      <c r="F264" s="140"/>
       <c r="G264" s="106"/>
       <c r="H264" s="106"/>
       <c r="I264" s="107"/>
@@ -13471,7 +14898,9 @@
     </row>
     <row r="265" ht="18.45" customHeight="1">
       <c r="A265" s="72"/>
-      <c r="B265" s="139"/>
+      <c r="B265" s="73">
+        <v>263</v>
+      </c>
       <c r="C265" s="134"/>
       <c r="D265" s="112"/>
       <c r="E265" s="112"/>
@@ -13484,11 +14913,13 @@
     </row>
     <row r="266" ht="18.45" customHeight="1">
       <c r="A266" s="65"/>
-      <c r="B266" s="138"/>
+      <c r="B266" s="66">
+        <v>264</v>
+      </c>
       <c r="C266" s="133"/>
       <c r="D266" s="106"/>
       <c r="E266" s="106"/>
-      <c r="F266" s="135"/>
+      <c r="F266" s="140"/>
       <c r="G266" s="106"/>
       <c r="H266" s="106"/>
       <c r="I266" s="107"/>
@@ -13497,7 +14928,9 @@
     </row>
     <row r="267" ht="18.45" customHeight="1">
       <c r="A267" s="72"/>
-      <c r="B267" s="139"/>
+      <c r="B267" s="73">
+        <v>265</v>
+      </c>
       <c r="C267" s="134"/>
       <c r="D267" s="112"/>
       <c r="E267" s="112"/>
@@ -13510,11 +14943,13 @@
     </row>
     <row r="268" ht="18.45" customHeight="1">
       <c r="A268" s="65"/>
-      <c r="B268" s="138"/>
+      <c r="B268" s="66">
+        <v>266</v>
+      </c>
       <c r="C268" s="133"/>
       <c r="D268" s="106"/>
       <c r="E268" s="106"/>
-      <c r="F268" s="135"/>
+      <c r="F268" s="140"/>
       <c r="G268" s="106"/>
       <c r="H268" s="106"/>
       <c r="I268" s="107"/>
@@ -13523,7 +14958,9 @@
     </row>
     <row r="269" ht="18.45" customHeight="1">
       <c r="A269" s="72"/>
-      <c r="B269" s="139"/>
+      <c r="B269" s="73">
+        <v>267</v>
+      </c>
       <c r="C269" s="134"/>
       <c r="D269" s="112"/>
       <c r="E269" s="112"/>
@@ -13536,11 +14973,13 @@
     </row>
     <row r="270" ht="18.45" customHeight="1">
       <c r="A270" s="65"/>
-      <c r="B270" s="138"/>
+      <c r="B270" s="66">
+        <v>268</v>
+      </c>
       <c r="C270" s="133"/>
       <c r="D270" s="106"/>
       <c r="E270" s="106"/>
-      <c r="F270" s="135"/>
+      <c r="F270" s="140"/>
       <c r="G270" s="106"/>
       <c r="H270" s="106"/>
       <c r="I270" s="107"/>
@@ -13549,7 +14988,9 @@
     </row>
     <row r="271" ht="18.45" customHeight="1">
       <c r="A271" s="72"/>
-      <c r="B271" s="139"/>
+      <c r="B271" s="73">
+        <v>269</v>
+      </c>
       <c r="C271" s="134"/>
       <c r="D271" s="112"/>
       <c r="E271" s="112"/>
@@ -13562,11 +15003,13 @@
     </row>
     <row r="272" ht="18.45" customHeight="1">
       <c r="A272" s="65"/>
-      <c r="B272" s="138"/>
+      <c r="B272" s="66">
+        <v>270</v>
+      </c>
       <c r="C272" s="133"/>
       <c r="D272" s="106"/>
       <c r="E272" s="106"/>
-      <c r="F272" s="135"/>
+      <c r="F272" s="140"/>
       <c r="G272" s="106"/>
       <c r="H272" s="106"/>
       <c r="I272" s="107"/>
@@ -13575,7 +15018,9 @@
     </row>
     <row r="273" ht="18.45" customHeight="1">
       <c r="A273" s="72"/>
-      <c r="B273" s="139"/>
+      <c r="B273" s="73">
+        <v>271</v>
+      </c>
       <c r="C273" s="134"/>
       <c r="D273" s="112"/>
       <c r="E273" s="112"/>
@@ -13588,11 +15033,13 @@
     </row>
     <row r="274" ht="18.45" customHeight="1">
       <c r="A274" s="65"/>
-      <c r="B274" s="138"/>
+      <c r="B274" s="66">
+        <v>272</v>
+      </c>
       <c r="C274" s="133"/>
       <c r="D274" s="106"/>
       <c r="E274" s="106"/>
-      <c r="F274" s="135"/>
+      <c r="F274" s="140"/>
       <c r="G274" s="106"/>
       <c r="H274" s="106"/>
       <c r="I274" s="107"/>
@@ -13601,7 +15048,9 @@
     </row>
     <row r="275" ht="18.45" customHeight="1">
       <c r="A275" s="72"/>
-      <c r="B275" s="139"/>
+      <c r="B275" s="73">
+        <v>273</v>
+      </c>
       <c r="C275" s="134"/>
       <c r="D275" s="112"/>
       <c r="E275" s="112"/>
@@ -13614,11 +15063,13 @@
     </row>
     <row r="276" ht="18.45" customHeight="1">
       <c r="A276" s="65"/>
-      <c r="B276" s="138"/>
+      <c r="B276" s="66">
+        <v>274</v>
+      </c>
       <c r="C276" s="133"/>
       <c r="D276" s="106"/>
       <c r="E276" s="106"/>
-      <c r="F276" s="135"/>
+      <c r="F276" s="140"/>
       <c r="G276" s="106"/>
       <c r="H276" s="106"/>
       <c r="I276" s="107"/>
@@ -13627,7 +15078,9 @@
     </row>
     <row r="277" ht="18.45" customHeight="1">
       <c r="A277" s="72"/>
-      <c r="B277" s="139"/>
+      <c r="B277" s="73">
+        <v>275</v>
+      </c>
       <c r="C277" s="134"/>
       <c r="D277" s="112"/>
       <c r="E277" s="112"/>
@@ -13640,11 +15093,13 @@
     </row>
     <row r="278" ht="18.45" customHeight="1">
       <c r="A278" s="65"/>
-      <c r="B278" s="138"/>
+      <c r="B278" s="66">
+        <v>276</v>
+      </c>
       <c r="C278" s="133"/>
       <c r="D278" s="106"/>
       <c r="E278" s="106"/>
-      <c r="F278" s="135"/>
+      <c r="F278" s="140"/>
       <c r="G278" s="106"/>
       <c r="H278" s="106"/>
       <c r="I278" s="107"/>
@@ -13653,7 +15108,9 @@
     </row>
     <row r="279" ht="18.45" customHeight="1">
       <c r="A279" s="72"/>
-      <c r="B279" s="139"/>
+      <c r="B279" s="73">
+        <v>277</v>
+      </c>
       <c r="C279" s="134"/>
       <c r="D279" s="112"/>
       <c r="E279" s="112"/>
@@ -13666,11 +15123,13 @@
     </row>
     <row r="280" ht="18.45" customHeight="1">
       <c r="A280" s="65"/>
-      <c r="B280" s="138"/>
+      <c r="B280" s="66">
+        <v>278</v>
+      </c>
       <c r="C280" s="133"/>
       <c r="D280" s="106"/>
       <c r="E280" s="106"/>
-      <c r="F280" s="135"/>
+      <c r="F280" s="140"/>
       <c r="G280" s="106"/>
       <c r="H280" s="106"/>
       <c r="I280" s="107"/>
@@ -13679,7 +15138,9 @@
     </row>
     <row r="281" ht="18.45" customHeight="1">
       <c r="A281" s="72"/>
-      <c r="B281" s="139"/>
+      <c r="B281" s="73">
+        <v>279</v>
+      </c>
       <c r="C281" s="134"/>
       <c r="D281" s="112"/>
       <c r="E281" s="112"/>
@@ -13692,11 +15153,13 @@
     </row>
     <row r="282" ht="18.45" customHeight="1">
       <c r="A282" s="65"/>
-      <c r="B282" s="138"/>
+      <c r="B282" s="66">
+        <v>280</v>
+      </c>
       <c r="C282" s="133"/>
       <c r="D282" s="106"/>
       <c r="E282" s="106"/>
-      <c r="F282" s="135"/>
+      <c r="F282" s="140"/>
       <c r="G282" s="106"/>
       <c r="H282" s="106"/>
       <c r="I282" s="107"/>
@@ -13705,7 +15168,9 @@
     </row>
     <row r="283" ht="18.45" customHeight="1">
       <c r="A283" s="72"/>
-      <c r="B283" s="139"/>
+      <c r="B283" s="73">
+        <v>281</v>
+      </c>
       <c r="C283" s="134"/>
       <c r="D283" s="112"/>
       <c r="E283" s="112"/>
@@ -13718,11 +15183,13 @@
     </row>
     <row r="284" ht="18.45" customHeight="1">
       <c r="A284" s="65"/>
-      <c r="B284" s="138"/>
+      <c r="B284" s="66">
+        <v>282</v>
+      </c>
       <c r="C284" s="133"/>
       <c r="D284" s="106"/>
       <c r="E284" s="106"/>
-      <c r="F284" s="135"/>
+      <c r="F284" s="140"/>
       <c r="G284" s="106"/>
       <c r="H284" s="106"/>
       <c r="I284" s="107"/>
@@ -13731,7 +15198,9 @@
     </row>
     <row r="285" ht="18.45" customHeight="1">
       <c r="A285" s="72"/>
-      <c r="B285" s="139"/>
+      <c r="B285" s="73">
+        <v>283</v>
+      </c>
       <c r="C285" s="134"/>
       <c r="D285" s="112"/>
       <c r="E285" s="112"/>
@@ -13744,11 +15213,13 @@
     </row>
     <row r="286" ht="18.45" customHeight="1">
       <c r="A286" s="65"/>
-      <c r="B286" s="138"/>
+      <c r="B286" s="66">
+        <v>284</v>
+      </c>
       <c r="C286" s="133"/>
       <c r="D286" s="106"/>
       <c r="E286" s="106"/>
-      <c r="F286" s="135"/>
+      <c r="F286" s="140"/>
       <c r="G286" s="106"/>
       <c r="H286" s="106"/>
       <c r="I286" s="107"/>
@@ -13757,7 +15228,9 @@
     </row>
     <row r="287" ht="18.45" customHeight="1">
       <c r="A287" s="72"/>
-      <c r="B287" s="139"/>
+      <c r="B287" s="73">
+        <v>285</v>
+      </c>
       <c r="C287" s="134"/>
       <c r="D287" s="112"/>
       <c r="E287" s="112"/>
@@ -13770,11 +15243,13 @@
     </row>
     <row r="288" ht="18.45" customHeight="1">
       <c r="A288" s="65"/>
-      <c r="B288" s="138"/>
+      <c r="B288" s="66">
+        <v>286</v>
+      </c>
       <c r="C288" s="133"/>
       <c r="D288" s="106"/>
       <c r="E288" s="106"/>
-      <c r="F288" s="135"/>
+      <c r="F288" s="140"/>
       <c r="G288" s="106"/>
       <c r="H288" s="106"/>
       <c r="I288" s="107"/>
@@ -13783,7 +15258,9 @@
     </row>
     <row r="289" ht="18.45" customHeight="1">
       <c r="A289" s="72"/>
-      <c r="B289" s="139"/>
+      <c r="B289" s="73">
+        <v>287</v>
+      </c>
       <c r="C289" s="134"/>
       <c r="D289" s="112"/>
       <c r="E289" s="112"/>
@@ -13796,11 +15273,13 @@
     </row>
     <row r="290" ht="18.45" customHeight="1">
       <c r="A290" s="65"/>
-      <c r="B290" s="138"/>
+      <c r="B290" s="66">
+        <v>288</v>
+      </c>
       <c r="C290" s="133"/>
       <c r="D290" s="106"/>
       <c r="E290" s="106"/>
-      <c r="F290" s="135"/>
+      <c r="F290" s="140"/>
       <c r="G290" s="106"/>
       <c r="H290" s="106"/>
       <c r="I290" s="107"/>
@@ -13809,7 +15288,9 @@
     </row>
     <row r="291" ht="18.45" customHeight="1">
       <c r="A291" s="72"/>
-      <c r="B291" s="139"/>
+      <c r="B291" s="73">
+        <v>289</v>
+      </c>
       <c r="C291" s="134"/>
       <c r="D291" s="112"/>
       <c r="E291" s="112"/>
@@ -13822,11 +15303,13 @@
     </row>
     <row r="292" ht="18.45" customHeight="1">
       <c r="A292" s="65"/>
-      <c r="B292" s="138"/>
+      <c r="B292" s="66">
+        <v>290</v>
+      </c>
       <c r="C292" s="133"/>
       <c r="D292" s="106"/>
       <c r="E292" s="106"/>
-      <c r="F292" s="135"/>
+      <c r="F292" s="140"/>
       <c r="G292" s="106"/>
       <c r="H292" s="106"/>
       <c r="I292" s="107"/>
@@ -13835,7 +15318,9 @@
     </row>
     <row r="293" ht="18.45" customHeight="1">
       <c r="A293" s="72"/>
-      <c r="B293" s="139"/>
+      <c r="B293" s="73">
+        <v>291</v>
+      </c>
       <c r="C293" s="134"/>
       <c r="D293" s="112"/>
       <c r="E293" s="112"/>
@@ -13848,11 +15333,13 @@
     </row>
     <row r="294" ht="18.45" customHeight="1">
       <c r="A294" s="65"/>
-      <c r="B294" s="138"/>
+      <c r="B294" s="66">
+        <v>292</v>
+      </c>
       <c r="C294" s="133"/>
       <c r="D294" s="106"/>
       <c r="E294" s="106"/>
-      <c r="F294" s="135"/>
+      <c r="F294" s="140"/>
       <c r="G294" s="106"/>
       <c r="H294" s="106"/>
       <c r="I294" s="107"/>
@@ -13861,7 +15348,9 @@
     </row>
     <row r="295" ht="18.45" customHeight="1">
       <c r="A295" s="72"/>
-      <c r="B295" s="139"/>
+      <c r="B295" s="73">
+        <v>293</v>
+      </c>
       <c r="C295" s="134"/>
       <c r="D295" s="112"/>
       <c r="E295" s="112"/>
@@ -13874,11 +15363,13 @@
     </row>
     <row r="296" ht="18.45" customHeight="1">
       <c r="A296" s="65"/>
-      <c r="B296" s="138"/>
+      <c r="B296" s="66">
+        <v>294</v>
+      </c>
       <c r="C296" s="133"/>
       <c r="D296" s="106"/>
       <c r="E296" s="106"/>
-      <c r="F296" s="135"/>
+      <c r="F296" s="140"/>
       <c r="G296" s="106"/>
       <c r="H296" s="106"/>
       <c r="I296" s="107"/>
@@ -13887,7 +15378,9 @@
     </row>
     <row r="297" ht="18.45" customHeight="1">
       <c r="A297" s="72"/>
-      <c r="B297" s="139"/>
+      <c r="B297" s="73">
+        <v>295</v>
+      </c>
       <c r="C297" s="134"/>
       <c r="D297" s="112"/>
       <c r="E297" s="112"/>
@@ -13900,11 +15393,13 @@
     </row>
     <row r="298" ht="18.45" customHeight="1">
       <c r="A298" s="65"/>
-      <c r="B298" s="138"/>
+      <c r="B298" s="66">
+        <v>296</v>
+      </c>
       <c r="C298" s="133"/>
       <c r="D298" s="106"/>
       <c r="E298" s="106"/>
-      <c r="F298" s="135"/>
+      <c r="F298" s="140"/>
       <c r="G298" s="106"/>
       <c r="H298" s="106"/>
       <c r="I298" s="107"/>
@@ -13913,7 +15408,9 @@
     </row>
     <row r="299" ht="18.45" customHeight="1">
       <c r="A299" s="72"/>
-      <c r="B299" s="139"/>
+      <c r="B299" s="73">
+        <v>297</v>
+      </c>
       <c r="C299" s="134"/>
       <c r="D299" s="112"/>
       <c r="E299" s="112"/>
@@ -13926,11 +15423,13 @@
     </row>
     <row r="300" ht="18.45" customHeight="1">
       <c r="A300" s="65"/>
-      <c r="B300" s="138"/>
+      <c r="B300" s="66">
+        <v>298</v>
+      </c>
       <c r="C300" s="133"/>
       <c r="D300" s="106"/>
       <c r="E300" s="106"/>
-      <c r="F300" s="135"/>
+      <c r="F300" s="140"/>
       <c r="G300" s="106"/>
       <c r="H300" s="106"/>
       <c r="I300" s="107"/>
@@ -13939,7 +15438,9 @@
     </row>
     <row r="301" ht="18.45" customHeight="1">
       <c r="A301" s="72"/>
-      <c r="B301" s="139"/>
+      <c r="B301" s="73">
+        <v>299</v>
+      </c>
       <c r="C301" s="134"/>
       <c r="D301" s="112"/>
       <c r="E301" s="112"/>
@@ -13952,11 +15453,13 @@
     </row>
     <row r="302" ht="18.45" customHeight="1">
       <c r="A302" s="65"/>
-      <c r="B302" s="138"/>
+      <c r="B302" s="66">
+        <v>300</v>
+      </c>
       <c r="C302" s="133"/>
       <c r="D302" s="106"/>
       <c r="E302" s="106"/>
-      <c r="F302" s="135"/>
+      <c r="F302" s="140"/>
       <c r="G302" s="106"/>
       <c r="H302" s="106"/>
       <c r="I302" s="107"/>
@@ -13965,7 +15468,9 @@
     </row>
     <row r="303" ht="18.45" customHeight="1">
       <c r="A303" s="72"/>
-      <c r="B303" s="139"/>
+      <c r="B303" s="73">
+        <v>301</v>
+      </c>
       <c r="C303" s="134"/>
       <c r="D303" s="112"/>
       <c r="E303" s="112"/>
@@ -13978,11 +15483,13 @@
     </row>
     <row r="304" ht="18.45" customHeight="1">
       <c r="A304" s="65"/>
-      <c r="B304" s="138"/>
+      <c r="B304" s="66">
+        <v>302</v>
+      </c>
       <c r="C304" s="133"/>
       <c r="D304" s="106"/>
       <c r="E304" s="106"/>
-      <c r="F304" s="135"/>
+      <c r="F304" s="140"/>
       <c r="G304" s="106"/>
       <c r="H304" s="106"/>
       <c r="I304" s="107"/>
@@ -13991,7 +15498,9 @@
     </row>
     <row r="305" ht="18.45" customHeight="1">
       <c r="A305" s="72"/>
-      <c r="B305" s="139"/>
+      <c r="B305" s="73">
+        <v>303</v>
+      </c>
       <c r="C305" s="134"/>
       <c r="D305" s="112"/>
       <c r="E305" s="112"/>
@@ -14004,11 +15513,13 @@
     </row>
     <row r="306" ht="18.45" customHeight="1">
       <c r="A306" s="65"/>
-      <c r="B306" s="138"/>
+      <c r="B306" s="66">
+        <v>304</v>
+      </c>
       <c r="C306" s="133"/>
       <c r="D306" s="106"/>
       <c r="E306" s="106"/>
-      <c r="F306" s="135"/>
+      <c r="F306" s="140"/>
       <c r="G306" s="106"/>
       <c r="H306" s="106"/>
       <c r="I306" s="107"/>
@@ -14017,7 +15528,9 @@
     </row>
     <row r="307" ht="18.45" customHeight="1">
       <c r="A307" s="72"/>
-      <c r="B307" s="139"/>
+      <c r="B307" s="73">
+        <v>305</v>
+      </c>
       <c r="C307" s="134"/>
       <c r="D307" s="112"/>
       <c r="E307" s="112"/>
@@ -14030,11 +15543,13 @@
     </row>
     <row r="308" ht="18.45" customHeight="1">
       <c r="A308" s="65"/>
-      <c r="B308" s="138"/>
+      <c r="B308" s="66">
+        <v>306</v>
+      </c>
       <c r="C308" s="133"/>
       <c r="D308" s="106"/>
       <c r="E308" s="106"/>
-      <c r="F308" s="135"/>
+      <c r="F308" s="140"/>
       <c r="G308" s="106"/>
       <c r="H308" s="106"/>
       <c r="I308" s="107"/>
@@ -14043,7 +15558,9 @@
     </row>
     <row r="309" ht="18.45" customHeight="1">
       <c r="A309" s="72"/>
-      <c r="B309" s="139"/>
+      <c r="B309" s="73">
+        <v>307</v>
+      </c>
       <c r="C309" s="134"/>
       <c r="D309" s="112"/>
       <c r="E309" s="112"/>
@@ -14056,11 +15573,13 @@
     </row>
     <row r="310" ht="18.45" customHeight="1">
       <c r="A310" s="65"/>
-      <c r="B310" s="138"/>
+      <c r="B310" s="66">
+        <v>308</v>
+      </c>
       <c r="C310" s="133"/>
       <c r="D310" s="106"/>
       <c r="E310" s="106"/>
-      <c r="F310" s="135"/>
+      <c r="F310" s="140"/>
       <c r="G310" s="106"/>
       <c r="H310" s="106"/>
       <c r="I310" s="107"/>
@@ -14069,7 +15588,9 @@
     </row>
     <row r="311" ht="18.45" customHeight="1">
       <c r="A311" s="72"/>
-      <c r="B311" s="139"/>
+      <c r="B311" s="73">
+        <v>309</v>
+      </c>
       <c r="C311" s="134"/>
       <c r="D311" s="112"/>
       <c r="E311" s="112"/>
@@ -14082,11 +15603,13 @@
     </row>
     <row r="312" ht="18.45" customHeight="1">
       <c r="A312" s="65"/>
-      <c r="B312" s="138"/>
+      <c r="B312" s="66">
+        <v>310</v>
+      </c>
       <c r="C312" s="133"/>
       <c r="D312" s="106"/>
       <c r="E312" s="106"/>
-      <c r="F312" s="135"/>
+      <c r="F312" s="140"/>
       <c r="G312" s="106"/>
       <c r="H312" s="106"/>
       <c r="I312" s="107"/>
@@ -14095,7 +15618,9 @@
     </row>
     <row r="313" ht="18.45" customHeight="1">
       <c r="A313" s="72"/>
-      <c r="B313" s="139"/>
+      <c r="B313" s="73">
+        <v>311</v>
+      </c>
       <c r="C313" s="134"/>
       <c r="D313" s="112"/>
       <c r="E313" s="112"/>
@@ -14108,11 +15633,13 @@
     </row>
     <row r="314" ht="18.45" customHeight="1">
       <c r="A314" s="65"/>
-      <c r="B314" s="138"/>
+      <c r="B314" s="66">
+        <v>312</v>
+      </c>
       <c r="C314" s="133"/>
       <c r="D314" s="106"/>
       <c r="E314" s="106"/>
-      <c r="F314" s="135"/>
+      <c r="F314" s="140"/>
       <c r="G314" s="106"/>
       <c r="H314" s="106"/>
       <c r="I314" s="107"/>
@@ -14121,7 +15648,9 @@
     </row>
     <row r="315" ht="18.45" customHeight="1">
       <c r="A315" s="72"/>
-      <c r="B315" s="139"/>
+      <c r="B315" s="73">
+        <v>313</v>
+      </c>
       <c r="C315" s="134"/>
       <c r="D315" s="112"/>
       <c r="E315" s="112"/>
@@ -14134,11 +15663,13 @@
     </row>
     <row r="316" ht="18.45" customHeight="1">
       <c r="A316" s="65"/>
-      <c r="B316" s="138"/>
+      <c r="B316" s="66">
+        <v>314</v>
+      </c>
       <c r="C316" s="133"/>
       <c r="D316" s="106"/>
       <c r="E316" s="106"/>
-      <c r="F316" s="135"/>
+      <c r="F316" s="140"/>
       <c r="G316" s="106"/>
       <c r="H316" s="106"/>
       <c r="I316" s="107"/>
@@ -14147,7 +15678,9 @@
     </row>
     <row r="317" ht="18.45" customHeight="1">
       <c r="A317" s="72"/>
-      <c r="B317" s="139"/>
+      <c r="B317" s="73">
+        <v>315</v>
+      </c>
       <c r="C317" s="134"/>
       <c r="D317" s="112"/>
       <c r="E317" s="112"/>
@@ -14160,11 +15693,13 @@
     </row>
     <row r="318" ht="18.45" customHeight="1">
       <c r="A318" s="65"/>
-      <c r="B318" s="138"/>
+      <c r="B318" s="66">
+        <v>316</v>
+      </c>
       <c r="C318" s="133"/>
       <c r="D318" s="106"/>
       <c r="E318" s="106"/>
-      <c r="F318" s="135"/>
+      <c r="F318" s="140"/>
       <c r="G318" s="106"/>
       <c r="H318" s="106"/>
       <c r="I318" s="107"/>
@@ -14173,7 +15708,9 @@
     </row>
     <row r="319" ht="18.45" customHeight="1">
       <c r="A319" s="72"/>
-      <c r="B319" s="139"/>
+      <c r="B319" s="73">
+        <v>317</v>
+      </c>
       <c r="C319" s="134"/>
       <c r="D319" s="112"/>
       <c r="E319" s="112"/>
@@ -14186,11 +15723,13 @@
     </row>
     <row r="320" ht="18.45" customHeight="1">
       <c r="A320" s="65"/>
-      <c r="B320" s="138"/>
+      <c r="B320" s="66">
+        <v>318</v>
+      </c>
       <c r="C320" s="133"/>
       <c r="D320" s="106"/>
       <c r="E320" s="106"/>
-      <c r="F320" s="135"/>
+      <c r="F320" s="140"/>
       <c r="G320" s="106"/>
       <c r="H320" s="106"/>
       <c r="I320" s="107"/>
@@ -14199,7 +15738,9 @@
     </row>
     <row r="321" ht="18.45" customHeight="1">
       <c r="A321" s="72"/>
-      <c r="B321" s="139"/>
+      <c r="B321" s="73">
+        <v>319</v>
+      </c>
       <c r="C321" s="134"/>
       <c r="D321" s="112"/>
       <c r="E321" s="112"/>
@@ -14212,11 +15753,13 @@
     </row>
     <row r="322" ht="18.45" customHeight="1">
       <c r="A322" s="65"/>
-      <c r="B322" s="138"/>
+      <c r="B322" s="66">
+        <v>320</v>
+      </c>
       <c r="C322" s="133"/>
       <c r="D322" s="106"/>
       <c r="E322" s="106"/>
-      <c r="F322" s="135"/>
+      <c r="F322" s="140"/>
       <c r="G322" s="106"/>
       <c r="H322" s="106"/>
       <c r="I322" s="107"/>
@@ -14225,7 +15768,9 @@
     </row>
     <row r="323" ht="18.45" customHeight="1">
       <c r="A323" s="72"/>
-      <c r="B323" s="139"/>
+      <c r="B323" s="73">
+        <v>321</v>
+      </c>
       <c r="C323" s="134"/>
       <c r="D323" s="112"/>
       <c r="E323" s="112"/>
@@ -14238,11 +15783,13 @@
     </row>
     <row r="324" ht="18.45" customHeight="1">
       <c r="A324" s="65"/>
-      <c r="B324" s="138"/>
+      <c r="B324" s="66">
+        <v>322</v>
+      </c>
       <c r="C324" s="133"/>
       <c r="D324" s="106"/>
       <c r="E324" s="106"/>
-      <c r="F324" s="135"/>
+      <c r="F324" s="140"/>
       <c r="G324" s="106"/>
       <c r="H324" s="106"/>
       <c r="I324" s="107"/>
@@ -14251,7 +15798,9 @@
     </row>
     <row r="325" ht="18.45" customHeight="1">
       <c r="A325" s="72"/>
-      <c r="B325" s="139"/>
+      <c r="B325" s="73">
+        <v>323</v>
+      </c>
       <c r="C325" s="134"/>
       <c r="D325" s="112"/>
       <c r="E325" s="112"/>
@@ -14264,11 +15813,13 @@
     </row>
     <row r="326" ht="18.45" customHeight="1">
       <c r="A326" s="65"/>
-      <c r="B326" s="138"/>
+      <c r="B326" s="66">
+        <v>324</v>
+      </c>
       <c r="C326" s="133"/>
       <c r="D326" s="106"/>
       <c r="E326" s="106"/>
-      <c r="F326" s="135"/>
+      <c r="F326" s="140"/>
       <c r="G326" s="106"/>
       <c r="H326" s="106"/>
       <c r="I326" s="107"/>
@@ -14277,7 +15828,9 @@
     </row>
     <row r="327" ht="18.45" customHeight="1">
       <c r="A327" s="72"/>
-      <c r="B327" s="139"/>
+      <c r="B327" s="73">
+        <v>325</v>
+      </c>
       <c r="C327" s="134"/>
       <c r="D327" s="112"/>
       <c r="E327" s="112"/>
@@ -14290,11 +15843,13 @@
     </row>
     <row r="328" ht="18.45" customHeight="1">
       <c r="A328" s="65"/>
-      <c r="B328" s="138"/>
+      <c r="B328" s="66">
+        <v>326</v>
+      </c>
       <c r="C328" s="133"/>
       <c r="D328" s="106"/>
       <c r="E328" s="106"/>
-      <c r="F328" s="135"/>
+      <c r="F328" s="140"/>
       <c r="G328" s="106"/>
       <c r="H328" s="106"/>
       <c r="I328" s="107"/>
@@ -14303,7 +15858,9 @@
     </row>
     <row r="329" ht="18.45" customHeight="1">
       <c r="A329" s="72"/>
-      <c r="B329" s="139"/>
+      <c r="B329" s="73">
+        <v>327</v>
+      </c>
       <c r="C329" s="134"/>
       <c r="D329" s="112"/>
       <c r="E329" s="112"/>
@@ -14316,11 +15873,13 @@
     </row>
     <row r="330" ht="18.45" customHeight="1">
       <c r="A330" s="65"/>
-      <c r="B330" s="138"/>
+      <c r="B330" s="66">
+        <v>328</v>
+      </c>
       <c r="C330" s="133"/>
       <c r="D330" s="106"/>
       <c r="E330" s="106"/>
-      <c r="F330" s="135"/>
+      <c r="F330" s="140"/>
       <c r="G330" s="106"/>
       <c r="H330" s="106"/>
       <c r="I330" s="107"/>
@@ -14329,7 +15888,9 @@
     </row>
     <row r="331" ht="18.45" customHeight="1">
       <c r="A331" s="72"/>
-      <c r="B331" s="139"/>
+      <c r="B331" s="73">
+        <v>329</v>
+      </c>
       <c r="C331" s="134"/>
       <c r="D331" s="112"/>
       <c r="E331" s="112"/>
@@ -14342,11 +15903,13 @@
     </row>
     <row r="332" ht="18.45" customHeight="1">
       <c r="A332" s="65"/>
-      <c r="B332" s="138"/>
+      <c r="B332" s="66">
+        <v>330</v>
+      </c>
       <c r="C332" s="133"/>
       <c r="D332" s="106"/>
       <c r="E332" s="106"/>
-      <c r="F332" s="135"/>
+      <c r="F332" s="140"/>
       <c r="G332" s="106"/>
       <c r="H332" s="106"/>
       <c r="I332" s="107"/>
@@ -14355,7 +15918,9 @@
     </row>
     <row r="333" ht="18.45" customHeight="1">
       <c r="A333" s="72"/>
-      <c r="B333" s="139"/>
+      <c r="B333" s="73">
+        <v>331</v>
+      </c>
       <c r="C333" s="134"/>
       <c r="D333" s="112"/>
       <c r="E333" s="112"/>
@@ -14368,11 +15933,13 @@
     </row>
     <row r="334" ht="18.45" customHeight="1">
       <c r="A334" s="65"/>
-      <c r="B334" s="138"/>
+      <c r="B334" s="66">
+        <v>332</v>
+      </c>
       <c r="C334" s="133"/>
       <c r="D334" s="106"/>
       <c r="E334" s="106"/>
-      <c r="F334" s="135"/>
+      <c r="F334" s="140"/>
       <c r="G334" s="106"/>
       <c r="H334" s="106"/>
       <c r="I334" s="107"/>
@@ -14381,7 +15948,9 @@
     </row>
     <row r="335" ht="18.45" customHeight="1">
       <c r="A335" s="72"/>
-      <c r="B335" s="139"/>
+      <c r="B335" s="73">
+        <v>333</v>
+      </c>
       <c r="C335" s="134"/>
       <c r="D335" s="112"/>
       <c r="E335" s="112"/>
@@ -14394,11 +15963,13 @@
     </row>
     <row r="336" ht="18.45" customHeight="1">
       <c r="A336" s="65"/>
-      <c r="B336" s="138"/>
+      <c r="B336" s="66">
+        <v>334</v>
+      </c>
       <c r="C336" s="133"/>
       <c r="D336" s="106"/>
       <c r="E336" s="106"/>
-      <c r="F336" s="135"/>
+      <c r="F336" s="140"/>
       <c r="G336" s="106"/>
       <c r="H336" s="106"/>
       <c r="I336" s="107"/>
@@ -14407,7 +15978,9 @@
     </row>
     <row r="337" ht="18.45" customHeight="1">
       <c r="A337" s="72"/>
-      <c r="B337" s="139"/>
+      <c r="B337" s="73">
+        <v>335</v>
+      </c>
       <c r="C337" s="134"/>
       <c r="D337" s="112"/>
       <c r="E337" s="112"/>
@@ -14420,11 +15993,13 @@
     </row>
     <row r="338" ht="18.45" customHeight="1">
       <c r="A338" s="65"/>
-      <c r="B338" s="138"/>
+      <c r="B338" s="66">
+        <v>336</v>
+      </c>
       <c r="C338" s="133"/>
       <c r="D338" s="106"/>
       <c r="E338" s="106"/>
-      <c r="F338" s="135"/>
+      <c r="F338" s="140"/>
       <c r="G338" s="106"/>
       <c r="H338" s="106"/>
       <c r="I338" s="107"/>
@@ -14433,7 +16008,9 @@
     </row>
     <row r="339" ht="18.45" customHeight="1">
       <c r="A339" s="72"/>
-      <c r="B339" s="139"/>
+      <c r="B339" s="73">
+        <v>337</v>
+      </c>
       <c r="C339" s="134"/>
       <c r="D339" s="112"/>
       <c r="E339" s="112"/>
@@ -14446,11 +16023,13 @@
     </row>
     <row r="340" ht="18.45" customHeight="1">
       <c r="A340" s="65"/>
-      <c r="B340" s="138"/>
+      <c r="B340" s="66">
+        <v>338</v>
+      </c>
       <c r="C340" s="133"/>
       <c r="D340" s="106"/>
       <c r="E340" s="106"/>
-      <c r="F340" s="135"/>
+      <c r="F340" s="140"/>
       <c r="G340" s="106"/>
       <c r="H340" s="106"/>
       <c r="I340" s="107"/>
@@ -14459,7 +16038,9 @@
     </row>
     <row r="341" ht="18.45" customHeight="1">
       <c r="A341" s="72"/>
-      <c r="B341" s="139"/>
+      <c r="B341" s="73">
+        <v>339</v>
+      </c>
       <c r="C341" s="134"/>
       <c r="D341" s="112"/>
       <c r="E341" s="112"/>
@@ -14472,11 +16053,13 @@
     </row>
     <row r="342" ht="18.45" customHeight="1">
       <c r="A342" s="65"/>
-      <c r="B342" s="138"/>
+      <c r="B342" s="66">
+        <v>340</v>
+      </c>
       <c r="C342" s="133"/>
       <c r="D342" s="106"/>
       <c r="E342" s="106"/>
-      <c r="F342" s="135"/>
+      <c r="F342" s="140"/>
       <c r="G342" s="106"/>
       <c r="H342" s="106"/>
       <c r="I342" s="107"/>
@@ -14485,7 +16068,9 @@
     </row>
     <row r="343" ht="18.45" customHeight="1">
       <c r="A343" s="72"/>
-      <c r="B343" s="139"/>
+      <c r="B343" s="73">
+        <v>341</v>
+      </c>
       <c r="C343" s="134"/>
       <c r="D343" s="112"/>
       <c r="E343" s="112"/>
@@ -14498,11 +16083,13 @@
     </row>
     <row r="344" ht="18.45" customHeight="1">
       <c r="A344" s="65"/>
-      <c r="B344" s="138"/>
+      <c r="B344" s="66">
+        <v>342</v>
+      </c>
       <c r="C344" s="133"/>
       <c r="D344" s="106"/>
       <c r="E344" s="106"/>
-      <c r="F344" s="135"/>
+      <c r="F344" s="140"/>
       <c r="G344" s="106"/>
       <c r="H344" s="106"/>
       <c r="I344" s="107"/>
@@ -14511,7 +16098,9 @@
     </row>
     <row r="345" ht="18.45" customHeight="1">
       <c r="A345" s="72"/>
-      <c r="B345" s="139"/>
+      <c r="B345" s="73">
+        <v>343</v>
+      </c>
       <c r="C345" s="134"/>
       <c r="D345" s="112"/>
       <c r="E345" s="112"/>
@@ -14524,11 +16113,13 @@
     </row>
     <row r="346" ht="18.45" customHeight="1">
       <c r="A346" s="65"/>
-      <c r="B346" s="138"/>
+      <c r="B346" s="66">
+        <v>344</v>
+      </c>
       <c r="C346" s="133"/>
       <c r="D346" s="106"/>
       <c r="E346" s="106"/>
-      <c r="F346" s="135"/>
+      <c r="F346" s="140"/>
       <c r="G346" s="106"/>
       <c r="H346" s="106"/>
       <c r="I346" s="107"/>
@@ -14537,7 +16128,9 @@
     </row>
     <row r="347" ht="18.45" customHeight="1">
       <c r="A347" s="72"/>
-      <c r="B347" s="139"/>
+      <c r="B347" s="73">
+        <v>345</v>
+      </c>
       <c r="C347" s="134"/>
       <c r="D347" s="112"/>
       <c r="E347" s="112"/>
@@ -14550,11 +16143,13 @@
     </row>
     <row r="348" ht="18.45" customHeight="1">
       <c r="A348" s="65"/>
-      <c r="B348" s="138"/>
+      <c r="B348" s="66">
+        <v>346</v>
+      </c>
       <c r="C348" s="133"/>
       <c r="D348" s="106"/>
       <c r="E348" s="106"/>
-      <c r="F348" s="135"/>
+      <c r="F348" s="140"/>
       <c r="G348" s="106"/>
       <c r="H348" s="106"/>
       <c r="I348" s="107"/>
@@ -14563,7 +16158,9 @@
     </row>
     <row r="349" ht="18.45" customHeight="1">
       <c r="A349" s="72"/>
-      <c r="B349" s="139"/>
+      <c r="B349" s="73">
+        <v>347</v>
+      </c>
       <c r="C349" s="134"/>
       <c r="D349" s="112"/>
       <c r="E349" s="112"/>
@@ -14576,11 +16173,13 @@
     </row>
     <row r="350" ht="18.45" customHeight="1">
       <c r="A350" s="65"/>
-      <c r="B350" s="138"/>
+      <c r="B350" s="66">
+        <v>348</v>
+      </c>
       <c r="C350" s="133"/>
       <c r="D350" s="106"/>
       <c r="E350" s="106"/>
-      <c r="F350" s="135"/>
+      <c r="F350" s="140"/>
       <c r="G350" s="106"/>
       <c r="H350" s="106"/>
       <c r="I350" s="107"/>
@@ -14589,7 +16188,9 @@
     </row>
     <row r="351" ht="18.45" customHeight="1">
       <c r="A351" s="72"/>
-      <c r="B351" s="139"/>
+      <c r="B351" s="73">
+        <v>349</v>
+      </c>
       <c r="C351" s="134"/>
       <c r="D351" s="112"/>
       <c r="E351" s="112"/>
@@ -14602,11 +16203,13 @@
     </row>
     <row r="352" ht="18.45" customHeight="1">
       <c r="A352" s="65"/>
-      <c r="B352" s="138"/>
+      <c r="B352" s="66">
+        <v>350</v>
+      </c>
       <c r="C352" s="133"/>
       <c r="D352" s="106"/>
       <c r="E352" s="106"/>
-      <c r="F352" s="135"/>
+      <c r="F352" s="140"/>
       <c r="G352" s="106"/>
       <c r="H352" s="106"/>
       <c r="I352" s="107"/>
@@ -14615,7 +16218,9 @@
     </row>
     <row r="353" ht="18.45" customHeight="1">
       <c r="A353" s="72"/>
-      <c r="B353" s="139"/>
+      <c r="B353" s="73">
+        <v>351</v>
+      </c>
       <c r="C353" s="134"/>
       <c r="D353" s="112"/>
       <c r="E353" s="112"/>
@@ -14628,11 +16233,13 @@
     </row>
     <row r="354" ht="18.45" customHeight="1">
       <c r="A354" s="65"/>
-      <c r="B354" s="138"/>
+      <c r="B354" s="66">
+        <v>352</v>
+      </c>
       <c r="C354" s="133"/>
       <c r="D354" s="106"/>
       <c r="E354" s="106"/>
-      <c r="F354" s="135"/>
+      <c r="F354" s="140"/>
       <c r="G354" s="106"/>
       <c r="H354" s="106"/>
       <c r="I354" s="107"/>
@@ -14641,7 +16248,9 @@
     </row>
     <row r="355" ht="18.45" customHeight="1">
       <c r="A355" s="72"/>
-      <c r="B355" s="139"/>
+      <c r="B355" s="73">
+        <v>353</v>
+      </c>
       <c r="C355" s="134"/>
       <c r="D355" s="112"/>
       <c r="E355" s="112"/>
@@ -14654,11 +16263,13 @@
     </row>
     <row r="356" ht="18.45" customHeight="1">
       <c r="A356" s="65"/>
-      <c r="B356" s="138"/>
+      <c r="B356" s="66">
+        <v>354</v>
+      </c>
       <c r="C356" s="133"/>
       <c r="D356" s="106"/>
       <c r="E356" s="106"/>
-      <c r="F356" s="135"/>
+      <c r="F356" s="140"/>
       <c r="G356" s="106"/>
       <c r="H356" s="106"/>
       <c r="I356" s="107"/>
@@ -14667,7 +16278,9 @@
     </row>
     <row r="357" ht="18.45" customHeight="1">
       <c r="A357" s="72"/>
-      <c r="B357" s="139"/>
+      <c r="B357" s="73">
+        <v>355</v>
+      </c>
       <c r="C357" s="134"/>
       <c r="D357" s="112"/>
       <c r="E357" s="112"/>
@@ -14680,11 +16293,13 @@
     </row>
     <row r="358" ht="18.45" customHeight="1">
       <c r="A358" s="65"/>
-      <c r="B358" s="138"/>
+      <c r="B358" s="66">
+        <v>356</v>
+      </c>
       <c r="C358" s="133"/>
       <c r="D358" s="106"/>
       <c r="E358" s="106"/>
-      <c r="F358" s="135"/>
+      <c r="F358" s="140"/>
       <c r="G358" s="106"/>
       <c r="H358" s="106"/>
       <c r="I358" s="107"/>
@@ -14693,7 +16308,9 @@
     </row>
     <row r="359" ht="18.45" customHeight="1">
       <c r="A359" s="72"/>
-      <c r="B359" s="139"/>
+      <c r="B359" s="73">
+        <v>357</v>
+      </c>
       <c r="C359" s="134"/>
       <c r="D359" s="112"/>
       <c r="E359" s="112"/>
@@ -14706,11 +16323,13 @@
     </row>
     <row r="360" ht="18.45" customHeight="1">
       <c r="A360" s="65"/>
-      <c r="B360" s="138"/>
+      <c r="B360" s="66">
+        <v>358</v>
+      </c>
       <c r="C360" s="133"/>
       <c r="D360" s="106"/>
       <c r="E360" s="106"/>
-      <c r="F360" s="135"/>
+      <c r="F360" s="140"/>
       <c r="G360" s="106"/>
       <c r="H360" s="106"/>
       <c r="I360" s="107"/>
@@ -14719,7 +16338,9 @@
     </row>
     <row r="361" ht="18.45" customHeight="1">
       <c r="A361" s="72"/>
-      <c r="B361" s="139"/>
+      <c r="B361" s="73">
+        <v>359</v>
+      </c>
       <c r="C361" s="134"/>
       <c r="D361" s="112"/>
       <c r="E361" s="112"/>
@@ -14732,11 +16353,13 @@
     </row>
     <row r="362" ht="18.45" customHeight="1">
       <c r="A362" s="65"/>
-      <c r="B362" s="138"/>
+      <c r="B362" s="66">
+        <v>360</v>
+      </c>
       <c r="C362" s="133"/>
       <c r="D362" s="106"/>
       <c r="E362" s="106"/>
-      <c r="F362" s="135"/>
+      <c r="F362" s="140"/>
       <c r="G362" s="106"/>
       <c r="H362" s="106"/>
       <c r="I362" s="107"/>
@@ -14745,7 +16368,9 @@
     </row>
     <row r="363" ht="18.45" customHeight="1">
       <c r="A363" s="72"/>
-      <c r="B363" s="139"/>
+      <c r="B363" s="73">
+        <v>361</v>
+      </c>
       <c r="C363" s="134"/>
       <c r="D363" s="112"/>
       <c r="E363" s="112"/>
@@ -14758,11 +16383,13 @@
     </row>
     <row r="364" ht="18.45" customHeight="1">
       <c r="A364" s="65"/>
-      <c r="B364" s="138"/>
+      <c r="B364" s="66">
+        <v>362</v>
+      </c>
       <c r="C364" s="133"/>
       <c r="D364" s="106"/>
       <c r="E364" s="106"/>
-      <c r="F364" s="135"/>
+      <c r="F364" s="140"/>
       <c r="G364" s="106"/>
       <c r="H364" s="106"/>
       <c r="I364" s="107"/>
@@ -14771,7 +16398,9 @@
     </row>
     <row r="365" ht="18.45" customHeight="1">
       <c r="A365" s="72"/>
-      <c r="B365" s="139"/>
+      <c r="B365" s="73">
+        <v>363</v>
+      </c>
       <c r="C365" s="134"/>
       <c r="D365" s="112"/>
       <c r="E365" s="112"/>
@@ -14784,20 +16413,24 @@
     </row>
     <row r="366" ht="18.45" customHeight="1">
       <c r="A366" s="65"/>
-      <c r="B366" s="138"/>
+      <c r="B366" s="66">
+        <v>364</v>
+      </c>
       <c r="C366" s="133"/>
       <c r="D366" s="106"/>
       <c r="E366" s="106"/>
-      <c r="F366" s="135"/>
+      <c r="F366" s="140"/>
       <c r="G366" s="106"/>
       <c r="H366" s="106"/>
       <c r="I366" s="107"/>
       <c r="J366" s="108"/>
       <c r="K366" s="108"/>
     </row>
-    <row r="367" ht="18.7" customHeight="1">
-      <c r="A367" s="140"/>
-      <c r="B367" s="139"/>
+    <row r="367" ht="18.45" customHeight="1">
+      <c r="A367" s="72"/>
+      <c r="B367" s="73">
+        <v>365</v>
+      </c>
       <c r="C367" s="134"/>
       <c r="D367" s="112"/>
       <c r="E367" s="112"/>
@@ -14808,19 +16441,427 @@
       <c r="J367" s="38"/>
       <c r="K367" s="38"/>
     </row>
+    <row r="368" ht="18.45" customHeight="1">
+      <c r="A368" s="65"/>
+      <c r="B368" s="66">
+        <v>366</v>
+      </c>
+      <c r="C368" s="133"/>
+      <c r="D368" s="106"/>
+      <c r="E368" s="106"/>
+      <c r="F368" s="140"/>
+      <c r="G368" s="106"/>
+      <c r="H368" s="106"/>
+      <c r="I368" s="107"/>
+      <c r="J368" s="108"/>
+      <c r="K368" s="108"/>
+    </row>
+    <row r="369" ht="18.45" customHeight="1">
+      <c r="A369" s="72"/>
+      <c r="B369" s="73">
+        <v>367</v>
+      </c>
+      <c r="C369" s="134"/>
+      <c r="D369" s="112"/>
+      <c r="E369" s="112"/>
+      <c r="F369" s="132"/>
+      <c r="G369" s="112"/>
+      <c r="H369" s="112"/>
+      <c r="I369" s="113"/>
+      <c r="J369" s="38"/>
+      <c r="K369" s="38"/>
+    </row>
+    <row r="370" ht="18.45" customHeight="1">
+      <c r="A370" s="65"/>
+      <c r="B370" s="66">
+        <v>368</v>
+      </c>
+      <c r="C370" s="133"/>
+      <c r="D370" s="106"/>
+      <c r="E370" s="106"/>
+      <c r="F370" s="140"/>
+      <c r="G370" s="106"/>
+      <c r="H370" s="106"/>
+      <c r="I370" s="107"/>
+      <c r="J370" s="108"/>
+      <c r="K370" s="108"/>
+    </row>
+    <row r="371" ht="18.45" customHeight="1">
+      <c r="A371" s="72"/>
+      <c r="B371" s="73">
+        <v>369</v>
+      </c>
+      <c r="C371" s="134"/>
+      <c r="D371" s="112"/>
+      <c r="E371" s="112"/>
+      <c r="F371" s="132"/>
+      <c r="G371" s="112"/>
+      <c r="H371" s="112"/>
+      <c r="I371" s="113"/>
+      <c r="J371" s="38"/>
+      <c r="K371" s="38"/>
+    </row>
+    <row r="372" ht="18.45" customHeight="1">
+      <c r="A372" s="65"/>
+      <c r="B372" s="66">
+        <v>370</v>
+      </c>
+      <c r="C372" s="133"/>
+      <c r="D372" s="106"/>
+      <c r="E372" s="106"/>
+      <c r="F372" s="140"/>
+      <c r="G372" s="106"/>
+      <c r="H372" s="106"/>
+      <c r="I372" s="107"/>
+      <c r="J372" s="108"/>
+      <c r="K372" s="108"/>
+    </row>
+    <row r="373" ht="18.45" customHeight="1">
+      <c r="A373" s="72"/>
+      <c r="B373" s="73">
+        <v>371</v>
+      </c>
+      <c r="C373" s="134"/>
+      <c r="D373" s="112"/>
+      <c r="E373" s="112"/>
+      <c r="F373" s="132"/>
+      <c r="G373" s="112"/>
+      <c r="H373" s="112"/>
+      <c r="I373" s="113"/>
+      <c r="J373" s="38"/>
+      <c r="K373" s="38"/>
+    </row>
+    <row r="374" ht="18.7" customHeight="1">
+      <c r="A374" s="141"/>
+      <c r="B374" s="66">
+        <v>372</v>
+      </c>
+      <c r="C374" s="133"/>
+      <c r="D374" s="106"/>
+      <c r="E374" s="106"/>
+      <c r="F374" s="140"/>
+      <c r="G374" s="106"/>
+      <c r="H374" s="106"/>
+      <c r="I374" s="107"/>
+      <c r="J374" s="108"/>
+      <c r="K374" s="108"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F19 F21:F367">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F19 F21:F374">
       <formula1>",○,×"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D194" r:id="rId1" location="" tooltip="" display="http://localhost:8080/account/ListAction.action"/>
+    <hyperlink ref="D195" r:id="rId2" location="" tooltip="" display="http://localhost:8080/account/DeleteAction.action"/>
+    <hyperlink ref="D196" r:id="rId3" location="" tooltip="" display="http://localhost:8080/account/UpdateAction.action"/>
+    <hyperlink ref="D197" r:id="rId4" location="" tooltip="" display="http://localhost:8080/account/RegistAction.action"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="3" width="19.6016" style="142" customWidth="1"/>
+    <col min="4" max="4" width="42.6406" style="142" customWidth="1"/>
+    <col min="5" max="5" width="45.9688" style="142" customWidth="1"/>
+    <col min="6" max="8" width="19.6016" style="142" customWidth="1"/>
+    <col min="9" max="9" width="37.8984" style="142" customWidth="1"/>
+    <col min="10" max="11" width="19.6016" style="142" customWidth="1"/>
+    <col min="12" max="16384" width="19.6016" style="142" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>385</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" ht="20.95" customHeight="1">
+      <c r="A2" s="143"/>
+      <c r="B2" t="s" s="52">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="144">
+        <v>386</v>
+      </c>
+      <c r="D2" t="s" s="145">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="145">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="146">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="145">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="145">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s" s="147">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s" s="57">
+        <v>85</v>
+      </c>
+      <c r="K2" t="s" s="57">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" ht="199.65" customHeight="1">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="150">
+        <v>387</v>
+      </c>
+      <c r="D3" t="s" s="150">
+        <v>388</v>
+      </c>
+      <c r="E3" t="s" s="150">
+        <v>389</v>
+      </c>
+      <c r="F3" s="151"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+    </row>
+    <row r="4" ht="213.35" customHeight="1">
+      <c r="A4" s="155"/>
+      <c r="B4" s="156"/>
+      <c r="C4" t="s" s="24">
+        <v>387</v>
+      </c>
+      <c r="D4" t="s" s="24">
+        <v>390</v>
+      </c>
+      <c r="E4" t="s" s="24">
+        <v>389</v>
+      </c>
+      <c r="F4" s="157"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="159"/>
+    </row>
+    <row r="5" ht="153.3" customHeight="1">
+      <c r="A5" s="155"/>
+      <c r="B5" s="156"/>
+      <c r="C5" t="s" s="24">
+        <v>387</v>
+      </c>
+      <c r="D5" t="s" s="24">
+        <v>391</v>
+      </c>
+      <c r="E5" t="s" s="24">
+        <v>392</v>
+      </c>
+      <c r="F5" s="160"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="159"/>
+    </row>
+    <row r="6" ht="168.3" customHeight="1">
+      <c r="A6" s="155"/>
+      <c r="B6" s="156"/>
+      <c r="C6" t="s" s="24">
+        <v>387</v>
+      </c>
+      <c r="D6" t="s" s="24">
+        <v>393</v>
+      </c>
+      <c r="E6" t="s" s="24">
+        <v>392</v>
+      </c>
+      <c r="F6" s="161"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="159"/>
+    </row>
+    <row r="7" ht="93.3" customHeight="1">
+      <c r="A7" s="155"/>
+      <c r="B7" s="156"/>
+      <c r="C7" t="s" s="24">
+        <v>387</v>
+      </c>
+      <c r="D7" t="s" s="24">
+        <v>394</v>
+      </c>
+      <c r="E7" t="s" s="24">
+        <v>395</v>
+      </c>
+      <c r="F7" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" t="s" s="24">
+        <v>396</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="159"/>
+    </row>
+    <row r="8" ht="153.3" customHeight="1">
+      <c r="A8" s="155"/>
+      <c r="B8" s="156"/>
+      <c r="C8" t="s" s="24">
+        <v>397</v>
+      </c>
+      <c r="D8" t="s" s="24">
+        <v>398</v>
+      </c>
+      <c r="E8" t="s" s="24">
+        <v>399</v>
+      </c>
+      <c r="F8" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" t="s" s="24">
+        <v>400</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="159"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" s="155"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="159"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" s="155"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="159"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" s="155"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="159"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="155"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="159"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" s="155"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="159"/>
+    </row>
+    <row r="14" ht="18.4" customHeight="1">
+      <c r="A14" s="162"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="166"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F14">
+      <formula1>",○,×"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" location="" tooltip="" display="http://localhost:8080/account/HomeAction.action"/>
+    <hyperlink ref="D4" r:id="rId2" location="" tooltip="" display="http://localhost:8080/account/HomeAction.action"/>
+    <hyperlink ref="D5" r:id="rId3" location="" tooltip="" display="http://localhost:8080/account/HomeAction.action"/>
+    <hyperlink ref="D6" r:id="rId4" location="" tooltip="" display="http://localhost:8080/account/HomeAction.action"/>
+    <hyperlink ref="D7" r:id="rId5" location="" tooltip="" display="http://localhost:8080/account/HomeAction.action"/>
+    <hyperlink ref="D8" r:id="rId6" location="" tooltip="" display="http://localhost:8080/account/HomeAction.action"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/テスト項目.xlsx
+++ b/テスト項目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -3812,7 +3812,7 @@
 また、指定されていない項目については空欄とする</t>
   </si>
   <si>
-    <t>一つ前のテスト項目にて表示されたアカウント情報が表示されないことを確認</t>
+    <t>「該当する登録情報はありません。」と表示されることを確認</t>
   </si>
   <si>
     <t>①名前（名）にひらがなで登録済みの値を入力する
@@ -3887,6 +3887,9 @@
 また、指定されていない項目については空欄とする</t>
   </si>
   <si>
+    <t>「カナ（名）」の部分がSQL文に追加されていない</t>
+  </si>
+  <si>
     <t>①メールアドレスにアルファベットで登録済みの値を入力する
 ②「検索」ボタンを押下
 ※「性別」と「アカウント権限」については空欄にすることが出来ないため、初期値の「男性」と「一般」に固定とする
@@ -4054,6 +4057,9 @@
     <t>機能</t>
   </si>
   <si>
+    <t>※どうしたら不具合を起こせるのかという観点で作成する</t>
+  </si>
+  <si>
     <t>ログイン機能</t>
   </si>
   <si>
@@ -4512,6 +4518,172 @@
   </si>
   <si>
     <t>同じメアドを登録出来ないようにする処理がない</t>
+  </si>
+  <si>
+    <t>アカウント検索機能</t>
+  </si>
+  <si>
+    <t>①アカウント一覧画面にて性別で「男性」を選択
+②アカウント権限にて「考慮しない」を選択
+③「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>性別が「男性」であるアカウント全てが表示されることを確認</t>
+  </si>
+  <si>
+    <t>性別、アカウント権限の項目に両方を選択対象にする選択肢がない</t>
+  </si>
+  <si>
+    <t>①アカウント一覧画面にて性別で「女性」を選択
+②アカウント権限にて「考慮しない」を選択
+③「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>性別が「女性」であるアカウント全てが表示されることを確認</t>
+  </si>
+  <si>
+    <t>①アカウント一覧画面にてアカウント権限で「一般」を選択
+②性別にて「考慮しない」を選択
+③「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>アカウント権限が「一般」であるアカウント全てが表示されることを確認</t>
+  </si>
+  <si>
+    <t>①アカウント一覧画面にてアカウント権限で「管理者」を選択
+②性別にて「考慮しない」を選択
+③「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>アカウント権限が「管理者」であるアカウント全てが表示されることを確認</t>
+  </si>
+  <si>
+    <t>①アカウント一覧画面にて名前（姓）にひらがなを入力する
+②性別にて「考慮しない」を選択
+③アカウント権限にて「考慮しない」を選択
+④「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>名前（姓）に入力した値を含む全てのアカウントが表示されることを確認</t>
+  </si>
+  <si>
+    <t>①アカウント一覧画面にて名前（名）にひらがなを入力する
+②性別にて「考慮しない」を選択
+③アカウント権限にて「考慮しない」を選択
+④「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>名前（名）に入力した値を含む全てのアカウントが表示されることを確認</t>
+  </si>
+  <si>
+    <t>①アカウント一覧画面にてカナ（姓）にカタカナを入力する
+②性別にて「考慮しない」を選択
+③アカウント権限にて「考慮しない」を選択
+④「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>カナ（姓）に入力した値を含む全てのアカウントが表示されることを確認</t>
+  </si>
+  <si>
+    <t>①アカウント一覧画面にてカナ（名）にカタカナを入力する
+②性別にて「考慮しない」を選択
+③アカウント権限にて「考慮しない」を選択
+④「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>カナ（名）に入力した値を含む全てのアカウントが表示されることを確認</t>
+  </si>
+  <si>
+    <t>①アカウント一覧画面にてメールアドレスにアルファベットまたは数字を入力する
+②性別にて「考慮しない」を選択
+③アカウント権限にて「考慮しない」を選択
+④「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>メールアドレスに入力した値を含む全てのアカウントが表示されることを確認</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント登録」ボタンを押下
+③アカウント登録画面にてエラーが出ない形式で全て入力し、「確認する」を押下
+④アカウント登録確認画面にて「登録する」ボタンを押下
+⑤「TOPページへ戻る」ボタンを押下
+⑥再度、管理者としてログイン
+⑦「アカウント登録」ボタンを押下
+⑧アカウント登録画面にて先ほど登録したものと同じメアドを入力
+※メアド以外はエラーが出ない形式で入力済みとする
+⑨「確認する」を押下</t>
+  </si>
+  <si>
+    <t>「登録済みのメールアドレスです。」との表示が出ることを確認</t>
+  </si>
+  <si>
+    <t>登録済みのメアドを判定する処理がない</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント登録」ボタンを押下
+③エラーが出ない形式で入力し「確認する」を押下
+④アカウント登録確認画面にてページの更新を実行
+⑤「登録する」を押下
+⑥データベースを確認</t>
+  </si>
+  <si>
+    <t>アカウント登録画面にて入力した値がそのままデータベースに登録されていることを確認</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント登録」ボタンを押下
+③エラーが出ない形式で入力し「確認する」を押下
+④アカウント登録確認画面にてページの更新を実行
+⑤「登録する」を押下
+⑥「アカウント登録完了画面」にてページの更新を実行
+⑦データベースを確認</t>
+  </si>
+  <si>
+    <t>アカウント登録画面にて入力した情報が1つのみ登録されていることを確認
+※同じアカウントが2つ登録されている場合はNGとする</t>
+  </si>
+  <si>
+    <t>ページ更新のたびに同じアカウントがデータベースに登録されている</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント登録」ボタンを押下
+③エラーが出ない形式で入力し「確認する」を押下
+④アカウント登録確認画面にてページの更新を実行
+⑤「登録する」を連続して2回以上押下
+⑥データベースを確認</t>
+  </si>
+  <si>
+    <t>「登録する」ボタンを押下した回数だけデータベースにアカウントが登録されている</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント登録」ボタンを押下
+③エラーが出ない形式で入力し「確認する」を押下
+④アカウント登録確認画面にて「登録する」を押下
+⑤アカウント登録完了画面にてページの前画面に戻る「←」ボタンを押下
+⑥再度、「登録する」ボタンを押下
+⑥データベースを確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+同じメアドで「一般」「管理者」の2つのアカウントがある場合はどちらでログインされるのか</t>
+  </si>
+  <si>
+    <t>更新ボタン</t>
+  </si>
+  <si>
+    <t>同じボタンを複数回押下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうやったら不具合が起こせるかを考えながら操作をするようにする
+</t>
+  </si>
+  <si>
+    <t>ハッシュ化の部分は本当に正しく出来ているのか
+⇨確認要</t>
   </si>
 </sst>
 </file>
@@ -4621,7 +4793,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -5758,26 +5930,11 @@
       <left style="thin">
         <color indexed="22"/>
       </left>
-      <right style="thick">
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="12"/>
@@ -5790,51 +5947,6 @@
       </left>
       <right style="thin">
         <color indexed="12"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
       </right>
       <top style="thick">
         <color indexed="8"/>
@@ -5878,56 +5990,11 @@
       <left style="thin">
         <color indexed="12"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
       <right style="thin">
         <color indexed="22"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top>
-        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="12"/>
@@ -6000,7 +6067,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6400,25 +6467,25 @@
     <xf numFmtId="0" fontId="0" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="69" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -6445,61 +6512,55 @@
     <xf numFmtId="49" fontId="4" borderId="75" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="77" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="77" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="77" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="79" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7657,7 +7718,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -7665,10 +7726,10 @@
     <row r="14">
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
+        <v>386</v>
+      </c>
+      <c r="D14" t="s" s="5">
         <v>385</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8990,7 +9051,9 @@
       <c r="F53" t="s" s="37">
         <v>79</v>
       </c>
-      <c r="G53" s="49"/>
+      <c r="G53" t="s" s="41">
+        <v>20</v>
+      </c>
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
@@ -9011,7 +9074,9 @@
       <c r="F54" t="s" s="37">
         <v>81</v>
       </c>
-      <c r="G54" s="49"/>
+      <c r="G54" t="s" s="41">
+        <v>20</v>
+      </c>
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
@@ -9032,7 +9097,9 @@
       <c r="F55" t="s" s="37">
         <v>82</v>
       </c>
-      <c r="G55" s="49"/>
+      <c r="G55" t="s" s="41">
+        <v>20</v>
+      </c>
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
@@ -13360,7 +13427,9 @@
       <c r="B170" s="66">
         <v>168</v>
       </c>
-      <c r="C170" s="133"/>
+      <c r="C170" t="s" s="103">
+        <v>334</v>
+      </c>
       <c r="D170" t="s" s="104">
         <v>337</v>
       </c>
@@ -13381,14 +13450,18 @@
       <c r="B171" s="73">
         <v>169</v>
       </c>
-      <c r="C171" s="134"/>
-      <c r="D171" t="s" s="135">
+      <c r="C171" t="s" s="109">
+        <v>334</v>
+      </c>
+      <c r="D171" t="s" s="133">
         <v>339</v>
       </c>
-      <c r="E171" t="s" s="135">
+      <c r="E171" t="s" s="133">
         <v>336</v>
       </c>
-      <c r="F171" s="132"/>
+      <c r="F171" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G171" s="112"/>
       <c r="H171" s="112"/>
       <c r="I171" s="113"/>
@@ -13400,14 +13473,18 @@
       <c r="B172" s="66">
         <v>170</v>
       </c>
-      <c r="C172" s="136"/>
+      <c r="C172" t="s" s="134">
+        <v>334</v>
+      </c>
       <c r="D172" t="s" s="67">
         <v>340</v>
       </c>
       <c r="E172" t="s" s="67">
         <v>341</v>
       </c>
-      <c r="F172" s="137"/>
+      <c r="F172" t="s" s="135">
+        <v>20</v>
+      </c>
       <c r="G172" s="106"/>
       <c r="H172" s="106"/>
       <c r="I172" s="107"/>
@@ -13422,13 +13499,15 @@
       <c r="C173" t="s" s="109">
         <v>52</v>
       </c>
-      <c r="D173" t="s" s="138">
+      <c r="D173" t="s" s="136">
         <v>342</v>
       </c>
-      <c r="E173" t="s" s="138">
+      <c r="E173" t="s" s="136">
         <v>343</v>
       </c>
-      <c r="F173" s="132"/>
+      <c r="F173" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G173" s="112"/>
       <c r="H173" s="112"/>
       <c r="I173" s="113"/>
@@ -13440,14 +13519,18 @@
       <c r="B174" s="66">
         <v>172</v>
       </c>
-      <c r="C174" s="136"/>
-      <c r="D174" t="s" s="139">
+      <c r="C174" t="s" s="134">
+        <v>52</v>
+      </c>
+      <c r="D174" t="s" s="137">
         <v>344</v>
       </c>
       <c r="E174" t="s" s="124">
         <v>345</v>
       </c>
-      <c r="F174" s="140"/>
+      <c r="F174" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G174" s="106"/>
       <c r="H174" s="106"/>
       <c r="I174" s="107"/>
@@ -13459,14 +13542,18 @@
       <c r="B175" s="128">
         <v>173</v>
       </c>
-      <c r="C175" s="112"/>
+      <c r="C175" t="s" s="110">
+        <v>52</v>
+      </c>
       <c r="D175" t="s" s="125">
         <v>346</v>
       </c>
       <c r="E175" t="s" s="115">
         <v>347</v>
       </c>
-      <c r="F175" s="132"/>
+      <c r="F175" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G175" s="112"/>
       <c r="H175" s="112"/>
       <c r="I175" s="113"/>
@@ -13478,14 +13565,18 @@
       <c r="B176" s="66">
         <v>174</v>
       </c>
-      <c r="C176" s="133"/>
+      <c r="C176" t="s" s="103">
+        <v>52</v>
+      </c>
       <c r="D176" t="s" s="121">
         <v>348</v>
       </c>
       <c r="E176" t="s" s="114">
         <v>349</v>
       </c>
-      <c r="F176" s="140"/>
+      <c r="F176" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G176" s="106"/>
       <c r="H176" s="106"/>
       <c r="I176" s="107"/>
@@ -13497,14 +13588,18 @@
       <c r="B177" s="73">
         <v>175</v>
       </c>
-      <c r="C177" s="134"/>
+      <c r="C177" t="s" s="109">
+        <v>52</v>
+      </c>
       <c r="D177" t="s" s="122">
         <v>350</v>
       </c>
       <c r="E177" t="s" s="116">
         <v>351</v>
       </c>
-      <c r="F177" s="132"/>
+      <c r="F177" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G177" s="112"/>
       <c r="H177" s="112"/>
       <c r="I177" s="113"/>
@@ -13516,14 +13611,18 @@
       <c r="B178" s="66">
         <v>176</v>
       </c>
-      <c r="C178" s="133"/>
+      <c r="C178" t="s" s="103">
+        <v>52</v>
+      </c>
       <c r="D178" t="s" s="104">
         <v>352</v>
       </c>
       <c r="E178" t="s" s="104">
         <v>353</v>
       </c>
-      <c r="F178" s="140"/>
+      <c r="F178" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G178" s="106"/>
       <c r="H178" s="106"/>
       <c r="I178" s="107"/>
@@ -13535,14 +13634,18 @@
       <c r="B179" s="73">
         <v>177</v>
       </c>
-      <c r="C179" s="134"/>
+      <c r="C179" t="s" s="109">
+        <v>52</v>
+      </c>
       <c r="D179" t="s" s="110">
         <v>354</v>
       </c>
       <c r="E179" t="s" s="110">
         <v>355</v>
       </c>
-      <c r="F179" s="132"/>
+      <c r="F179" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G179" s="112"/>
       <c r="H179" s="112"/>
       <c r="I179" s="113"/>
@@ -13554,14 +13657,18 @@
       <c r="B180" s="66">
         <v>178</v>
       </c>
-      <c r="C180" s="133"/>
+      <c r="C180" t="s" s="103">
+        <v>52</v>
+      </c>
       <c r="D180" t="s" s="104">
         <v>356</v>
       </c>
       <c r="E180" t="s" s="104">
         <v>357</v>
       </c>
-      <c r="F180" s="140"/>
+      <c r="F180" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G180" s="106"/>
       <c r="H180" s="106"/>
       <c r="I180" s="107"/>
@@ -13573,14 +13680,18 @@
       <c r="B181" s="73">
         <v>179</v>
       </c>
-      <c r="C181" s="134"/>
+      <c r="C181" t="s" s="109">
+        <v>52</v>
+      </c>
       <c r="D181" t="s" s="110">
         <v>358</v>
       </c>
       <c r="E181" t="s" s="110">
         <v>359</v>
       </c>
-      <c r="F181" s="132"/>
+      <c r="F181" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G181" s="112"/>
       <c r="H181" s="112"/>
       <c r="I181" s="113"/>
@@ -13592,14 +13703,18 @@
       <c r="B182" s="66">
         <v>180</v>
       </c>
-      <c r="C182" s="133"/>
+      <c r="C182" t="s" s="103">
+        <v>52</v>
+      </c>
       <c r="D182" t="s" s="104">
         <v>360</v>
       </c>
       <c r="E182" t="s" s="104">
         <v>361</v>
       </c>
-      <c r="F182" s="140"/>
+      <c r="F182" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G182" s="106"/>
       <c r="H182" s="106"/>
       <c r="I182" s="107"/>
@@ -13611,14 +13726,18 @@
       <c r="B183" s="73">
         <v>181</v>
       </c>
-      <c r="C183" s="134"/>
+      <c r="C183" t="s" s="109">
+        <v>52</v>
+      </c>
       <c r="D183" t="s" s="110">
         <v>356</v>
       </c>
       <c r="E183" t="s" s="110">
         <v>357</v>
       </c>
-      <c r="F183" s="132"/>
+      <c r="F183" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G183" s="112"/>
       <c r="H183" s="112"/>
       <c r="I183" s="113"/>
@@ -13630,14 +13749,18 @@
       <c r="B184" s="66">
         <v>182</v>
       </c>
-      <c r="C184" s="133"/>
+      <c r="C184" t="s" s="103">
+        <v>52</v>
+      </c>
       <c r="D184" t="s" s="104">
         <v>362</v>
       </c>
       <c r="E184" t="s" s="104">
         <v>363</v>
       </c>
-      <c r="F184" s="140"/>
+      <c r="F184" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G184" s="106"/>
       <c r="H184" s="106"/>
       <c r="I184" s="107"/>
@@ -13649,14 +13772,18 @@
       <c r="B185" s="73">
         <v>183</v>
       </c>
-      <c r="C185" s="134"/>
+      <c r="C185" t="s" s="109">
+        <v>52</v>
+      </c>
       <c r="D185" t="s" s="110">
         <v>364</v>
       </c>
       <c r="E185" t="s" s="110">
         <v>365</v>
       </c>
-      <c r="F185" s="132"/>
+      <c r="F185" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G185" s="112"/>
       <c r="H185" s="112"/>
       <c r="I185" s="113"/>
@@ -13668,14 +13795,18 @@
       <c r="B186" s="66">
         <v>184</v>
       </c>
-      <c r="C186" s="133"/>
+      <c r="C186" t="s" s="103">
+        <v>52</v>
+      </c>
       <c r="D186" t="s" s="104">
         <v>366</v>
       </c>
       <c r="E186" t="s" s="104">
         <v>357</v>
       </c>
-      <c r="F186" s="140"/>
+      <c r="F186" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G186" s="106"/>
       <c r="H186" s="106"/>
       <c r="I186" s="107"/>
@@ -13687,14 +13818,18 @@
       <c r="B187" s="73">
         <v>185</v>
       </c>
-      <c r="C187" s="134"/>
+      <c r="C187" t="s" s="109">
+        <v>52</v>
+      </c>
       <c r="D187" t="s" s="110">
         <v>367</v>
       </c>
       <c r="E187" t="s" s="110">
         <v>368</v>
       </c>
-      <c r="F187" s="132"/>
+      <c r="F187" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G187" s="112"/>
       <c r="H187" s="112"/>
       <c r="I187" s="113"/>
@@ -13706,14 +13841,18 @@
       <c r="B188" s="66">
         <v>186</v>
       </c>
-      <c r="C188" s="133"/>
+      <c r="C188" t="s" s="103">
+        <v>52</v>
+      </c>
       <c r="D188" t="s" s="104">
         <v>369</v>
       </c>
       <c r="E188" t="s" s="104">
         <v>370</v>
       </c>
-      <c r="F188" s="140"/>
+      <c r="F188" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G188" s="106"/>
       <c r="H188" s="106"/>
       <c r="I188" s="107"/>
@@ -13725,17 +13864,23 @@
       <c r="B189" s="73">
         <v>187</v>
       </c>
-      <c r="C189" s="134"/>
+      <c r="C189" t="s" s="109">
+        <v>52</v>
+      </c>
       <c r="D189" t="s" s="110">
         <v>371</v>
       </c>
       <c r="E189" t="s" s="110">
         <v>357</v>
       </c>
-      <c r="F189" s="132"/>
+      <c r="F189" t="s" s="111">
+        <v>31</v>
+      </c>
       <c r="G189" s="112"/>
       <c r="H189" s="112"/>
-      <c r="I189" s="113"/>
+      <c r="I189" t="s" s="118">
+        <v>372</v>
+      </c>
       <c r="J189" s="38"/>
       <c r="K189" s="38"/>
     </row>
@@ -13744,14 +13889,18 @@
       <c r="B190" s="66">
         <v>188</v>
       </c>
-      <c r="C190" s="133"/>
+      <c r="C190" t="s" s="103">
+        <v>52</v>
+      </c>
       <c r="D190" t="s" s="104">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E190" t="s" s="104">
-        <v>373</v>
-      </c>
-      <c r="F190" s="140"/>
+        <v>374</v>
+      </c>
+      <c r="F190" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G190" s="106"/>
       <c r="H190" s="106"/>
       <c r="I190" s="107"/>
@@ -13763,14 +13912,18 @@
       <c r="B191" s="73">
         <v>189</v>
       </c>
-      <c r="C191" s="134"/>
+      <c r="C191" t="s" s="109">
+        <v>52</v>
+      </c>
       <c r="D191" t="s" s="110">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E191" t="s" s="110">
-        <v>375</v>
-      </c>
-      <c r="F191" s="132"/>
+        <v>376</v>
+      </c>
+      <c r="F191" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G191" s="112"/>
       <c r="H191" s="112"/>
       <c r="I191" s="113"/>
@@ -13782,14 +13935,18 @@
       <c r="B192" s="66">
         <v>190</v>
       </c>
-      <c r="C192" s="133"/>
+      <c r="C192" t="s" s="103">
+        <v>52</v>
+      </c>
       <c r="D192" t="s" s="104">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E192" t="s" s="104">
         <v>357</v>
       </c>
-      <c r="F192" s="140"/>
+      <c r="F192" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G192" s="106"/>
       <c r="H192" s="106"/>
       <c r="I192" s="107"/>
@@ -13801,14 +13958,18 @@
       <c r="B193" s="73">
         <v>191</v>
       </c>
-      <c r="C193" s="134"/>
+      <c r="C193" t="s" s="109">
+        <v>52</v>
+      </c>
       <c r="D193" t="s" s="110">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E193" t="s" s="110">
-        <v>378</v>
-      </c>
-      <c r="F193" s="132"/>
+        <v>379</v>
+      </c>
+      <c r="F193" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G193" s="112"/>
       <c r="H193" s="112"/>
       <c r="I193" s="113"/>
@@ -13820,14 +13981,16 @@
       <c r="B194" s="66">
         <v>192</v>
       </c>
-      <c r="C194" s="133"/>
+      <c r="C194" s="138"/>
       <c r="D194" t="s" s="104">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E194" t="s" s="104">
-        <v>380</v>
-      </c>
-      <c r="F194" s="140"/>
+        <v>381</v>
+      </c>
+      <c r="F194" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G194" s="106"/>
       <c r="H194" s="106"/>
       <c r="I194" s="107"/>
@@ -13839,14 +14002,16 @@
       <c r="B195" s="73">
         <v>193</v>
       </c>
-      <c r="C195" s="134"/>
+      <c r="C195" s="139"/>
       <c r="D195" t="s" s="110">
+        <v>382</v>
+      </c>
+      <c r="E195" t="s" s="110">
         <v>381</v>
       </c>
-      <c r="E195" t="s" s="110">
-        <v>380</v>
-      </c>
-      <c r="F195" s="132"/>
+      <c r="F195" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G195" s="112"/>
       <c r="H195" s="112"/>
       <c r="I195" s="113"/>
@@ -13858,14 +14023,16 @@
       <c r="B196" s="66">
         <v>194</v>
       </c>
-      <c r="C196" s="133"/>
+      <c r="C196" s="138"/>
       <c r="D196" t="s" s="104">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E196" t="s" s="104">
-        <v>380</v>
-      </c>
-      <c r="F196" s="140"/>
+        <v>381</v>
+      </c>
+      <c r="F196" t="s" s="105">
+        <v>20</v>
+      </c>
       <c r="G196" s="106"/>
       <c r="H196" s="106"/>
       <c r="I196" s="107"/>
@@ -13877,14 +14044,16 @@
       <c r="B197" s="73">
         <v>195</v>
       </c>
-      <c r="C197" s="134"/>
+      <c r="C197" s="139"/>
       <c r="D197" t="s" s="110">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E197" t="s" s="110">
-        <v>380</v>
-      </c>
-      <c r="F197" s="132"/>
+        <v>381</v>
+      </c>
+      <c r="F197" t="s" s="111">
+        <v>20</v>
+      </c>
       <c r="G197" s="112"/>
       <c r="H197" s="112"/>
       <c r="I197" s="113"/>
@@ -13896,7 +14065,7 @@
       <c r="B198" s="66">
         <v>196</v>
       </c>
-      <c r="C198" s="133"/>
+      <c r="C198" s="138"/>
       <c r="D198" s="106"/>
       <c r="E198" s="106"/>
       <c r="F198" s="140"/>
@@ -13911,7 +14080,7 @@
       <c r="B199" s="73">
         <v>197</v>
       </c>
-      <c r="C199" s="134"/>
+      <c r="C199" s="139"/>
       <c r="D199" s="112"/>
       <c r="E199" s="112"/>
       <c r="F199" s="132"/>
@@ -13926,7 +14095,7 @@
       <c r="B200" s="66">
         <v>198</v>
       </c>
-      <c r="C200" s="133"/>
+      <c r="C200" s="138"/>
       <c r="D200" s="106"/>
       <c r="E200" s="106"/>
       <c r="F200" s="140"/>
@@ -13941,7 +14110,7 @@
       <c r="B201" s="73">
         <v>199</v>
       </c>
-      <c r="C201" s="134"/>
+      <c r="C201" s="139"/>
       <c r="D201" s="112"/>
       <c r="E201" s="112"/>
       <c r="F201" s="132"/>
@@ -13956,7 +14125,7 @@
       <c r="B202" s="66">
         <v>200</v>
       </c>
-      <c r="C202" s="133"/>
+      <c r="C202" s="138"/>
       <c r="D202" s="106"/>
       <c r="E202" s="106"/>
       <c r="F202" s="140"/>
@@ -13971,7 +14140,7 @@
       <c r="B203" s="73">
         <v>201</v>
       </c>
-      <c r="C203" s="134"/>
+      <c r="C203" s="139"/>
       <c r="D203" s="112"/>
       <c r="E203" s="112"/>
       <c r="F203" s="132"/>
@@ -13986,7 +14155,7 @@
       <c r="B204" s="66">
         <v>202</v>
       </c>
-      <c r="C204" s="133"/>
+      <c r="C204" s="138"/>
       <c r="D204" s="106"/>
       <c r="E204" s="106"/>
       <c r="F204" s="140"/>
@@ -14001,7 +14170,7 @@
       <c r="B205" s="73">
         <v>203</v>
       </c>
-      <c r="C205" s="134"/>
+      <c r="C205" s="139"/>
       <c r="D205" s="112"/>
       <c r="E205" s="112"/>
       <c r="F205" s="132"/>
@@ -14016,7 +14185,7 @@
       <c r="B206" s="66">
         <v>204</v>
       </c>
-      <c r="C206" s="133"/>
+      <c r="C206" s="138"/>
       <c r="D206" s="106"/>
       <c r="E206" s="106"/>
       <c r="F206" s="140"/>
@@ -14031,7 +14200,7 @@
       <c r="B207" s="73">
         <v>205</v>
       </c>
-      <c r="C207" s="134"/>
+      <c r="C207" s="139"/>
       <c r="D207" s="112"/>
       <c r="E207" s="112"/>
       <c r="F207" s="132"/>
@@ -14046,7 +14215,7 @@
       <c r="B208" s="66">
         <v>206</v>
       </c>
-      <c r="C208" s="133"/>
+      <c r="C208" s="138"/>
       <c r="D208" s="106"/>
       <c r="E208" s="106"/>
       <c r="F208" s="140"/>
@@ -14061,7 +14230,7 @@
       <c r="B209" s="73">
         <v>207</v>
       </c>
-      <c r="C209" s="134"/>
+      <c r="C209" s="139"/>
       <c r="D209" s="112"/>
       <c r="E209" s="112"/>
       <c r="F209" s="132"/>
@@ -14076,7 +14245,7 @@
       <c r="B210" s="66">
         <v>208</v>
       </c>
-      <c r="C210" s="133"/>
+      <c r="C210" s="138"/>
       <c r="D210" s="106"/>
       <c r="E210" s="106"/>
       <c r="F210" s="140"/>
@@ -14091,7 +14260,7 @@
       <c r="B211" s="73">
         <v>209</v>
       </c>
-      <c r="C211" s="134"/>
+      <c r="C211" s="139"/>
       <c r="D211" s="112"/>
       <c r="E211" s="112"/>
       <c r="F211" s="132"/>
@@ -14106,7 +14275,7 @@
       <c r="B212" s="66">
         <v>210</v>
       </c>
-      <c r="C212" s="133"/>
+      <c r="C212" s="138"/>
       <c r="D212" s="106"/>
       <c r="E212" s="106"/>
       <c r="F212" s="140"/>
@@ -14121,7 +14290,7 @@
       <c r="B213" s="73">
         <v>211</v>
       </c>
-      <c r="C213" s="134"/>
+      <c r="C213" s="139"/>
       <c r="D213" s="112"/>
       <c r="E213" s="112"/>
       <c r="F213" s="132"/>
@@ -14136,7 +14305,7 @@
       <c r="B214" s="66">
         <v>212</v>
       </c>
-      <c r="C214" s="133"/>
+      <c r="C214" s="138"/>
       <c r="D214" s="106"/>
       <c r="E214" s="106"/>
       <c r="F214" s="140"/>
@@ -14151,7 +14320,7 @@
       <c r="B215" s="73">
         <v>213</v>
       </c>
-      <c r="C215" s="134"/>
+      <c r="C215" s="139"/>
       <c r="D215" s="112"/>
       <c r="E215" s="112"/>
       <c r="F215" s="132"/>
@@ -14166,7 +14335,7 @@
       <c r="B216" s="66">
         <v>214</v>
       </c>
-      <c r="C216" s="133"/>
+      <c r="C216" s="138"/>
       <c r="D216" s="106"/>
       <c r="E216" s="106"/>
       <c r="F216" s="140"/>
@@ -14181,7 +14350,7 @@
       <c r="B217" s="73">
         <v>215</v>
       </c>
-      <c r="C217" s="134"/>
+      <c r="C217" s="139"/>
       <c r="D217" s="112"/>
       <c r="E217" s="112"/>
       <c r="F217" s="132"/>
@@ -14196,7 +14365,7 @@
       <c r="B218" s="66">
         <v>216</v>
       </c>
-      <c r="C218" s="133"/>
+      <c r="C218" s="138"/>
       <c r="D218" s="106"/>
       <c r="E218" s="106"/>
       <c r="F218" s="140"/>
@@ -14211,7 +14380,7 @@
       <c r="B219" s="73">
         <v>217</v>
       </c>
-      <c r="C219" s="134"/>
+      <c r="C219" s="139"/>
       <c r="D219" s="112"/>
       <c r="E219" s="112"/>
       <c r="F219" s="132"/>
@@ -14226,7 +14395,7 @@
       <c r="B220" s="66">
         <v>218</v>
       </c>
-      <c r="C220" s="133"/>
+      <c r="C220" s="138"/>
       <c r="D220" s="106"/>
       <c r="E220" s="106"/>
       <c r="F220" s="140"/>
@@ -14241,7 +14410,7 @@
       <c r="B221" s="73">
         <v>219</v>
       </c>
-      <c r="C221" s="134"/>
+      <c r="C221" s="139"/>
       <c r="D221" s="112"/>
       <c r="E221" s="112"/>
       <c r="F221" s="132"/>
@@ -14256,7 +14425,7 @@
       <c r="B222" s="66">
         <v>220</v>
       </c>
-      <c r="C222" s="133"/>
+      <c r="C222" s="138"/>
       <c r="D222" s="106"/>
       <c r="E222" s="106"/>
       <c r="F222" s="140"/>
@@ -14271,7 +14440,7 @@
       <c r="B223" s="73">
         <v>221</v>
       </c>
-      <c r="C223" s="134"/>
+      <c r="C223" s="139"/>
       <c r="D223" s="112"/>
       <c r="E223" s="112"/>
       <c r="F223" s="132"/>
@@ -14286,7 +14455,7 @@
       <c r="B224" s="66">
         <v>222</v>
       </c>
-      <c r="C224" s="133"/>
+      <c r="C224" s="138"/>
       <c r="D224" s="106"/>
       <c r="E224" s="106"/>
       <c r="F224" s="140"/>
@@ -14301,7 +14470,7 @@
       <c r="B225" s="73">
         <v>223</v>
       </c>
-      <c r="C225" s="134"/>
+      <c r="C225" s="139"/>
       <c r="D225" s="112"/>
       <c r="E225" s="112"/>
       <c r="F225" s="132"/>
@@ -14316,7 +14485,7 @@
       <c r="B226" s="66">
         <v>224</v>
       </c>
-      <c r="C226" s="133"/>
+      <c r="C226" s="138"/>
       <c r="D226" s="106"/>
       <c r="E226" s="106"/>
       <c r="F226" s="140"/>
@@ -14331,7 +14500,7 @@
       <c r="B227" s="73">
         <v>225</v>
       </c>
-      <c r="C227" s="134"/>
+      <c r="C227" s="139"/>
       <c r="D227" s="112"/>
       <c r="E227" s="112"/>
       <c r="F227" s="132"/>
@@ -14346,7 +14515,7 @@
       <c r="B228" s="66">
         <v>226</v>
       </c>
-      <c r="C228" s="133"/>
+      <c r="C228" s="138"/>
       <c r="D228" s="106"/>
       <c r="E228" s="106"/>
       <c r="F228" s="140"/>
@@ -14361,7 +14530,7 @@
       <c r="B229" s="73">
         <v>227</v>
       </c>
-      <c r="C229" s="134"/>
+      <c r="C229" s="139"/>
       <c r="D229" s="112"/>
       <c r="E229" s="112"/>
       <c r="F229" s="132"/>
@@ -14376,7 +14545,7 @@
       <c r="B230" s="66">
         <v>228</v>
       </c>
-      <c r="C230" s="133"/>
+      <c r="C230" s="138"/>
       <c r="D230" s="106"/>
       <c r="E230" s="106"/>
       <c r="F230" s="140"/>
@@ -14391,7 +14560,7 @@
       <c r="B231" s="73">
         <v>229</v>
       </c>
-      <c r="C231" s="134"/>
+      <c r="C231" s="139"/>
       <c r="D231" s="112"/>
       <c r="E231" s="112"/>
       <c r="F231" s="132"/>
@@ -14406,7 +14575,7 @@
       <c r="B232" s="66">
         <v>230</v>
       </c>
-      <c r="C232" s="133"/>
+      <c r="C232" s="138"/>
       <c r="D232" s="106"/>
       <c r="E232" s="106"/>
       <c r="F232" s="140"/>
@@ -14421,7 +14590,7 @@
       <c r="B233" s="73">
         <v>231</v>
       </c>
-      <c r="C233" s="134"/>
+      <c r="C233" s="139"/>
       <c r="D233" s="112"/>
       <c r="E233" s="112"/>
       <c r="F233" s="132"/>
@@ -14436,7 +14605,7 @@
       <c r="B234" s="66">
         <v>232</v>
       </c>
-      <c r="C234" s="133"/>
+      <c r="C234" s="138"/>
       <c r="D234" s="106"/>
       <c r="E234" s="106"/>
       <c r="F234" s="140"/>
@@ -14451,7 +14620,7 @@
       <c r="B235" s="73">
         <v>233</v>
       </c>
-      <c r="C235" s="134"/>
+      <c r="C235" s="139"/>
       <c r="D235" s="112"/>
       <c r="E235" s="112"/>
       <c r="F235" s="132"/>
@@ -14466,7 +14635,7 @@
       <c r="B236" s="66">
         <v>234</v>
       </c>
-      <c r="C236" s="133"/>
+      <c r="C236" s="138"/>
       <c r="D236" s="106"/>
       <c r="E236" s="106"/>
       <c r="F236" s="140"/>
@@ -14481,7 +14650,7 @@
       <c r="B237" s="73">
         <v>235</v>
       </c>
-      <c r="C237" s="134"/>
+      <c r="C237" s="139"/>
       <c r="D237" s="112"/>
       <c r="E237" s="112"/>
       <c r="F237" s="132"/>
@@ -14496,7 +14665,7 @@
       <c r="B238" s="66">
         <v>236</v>
       </c>
-      <c r="C238" s="133"/>
+      <c r="C238" s="138"/>
       <c r="D238" s="106"/>
       <c r="E238" s="106"/>
       <c r="F238" s="140"/>
@@ -14511,7 +14680,7 @@
       <c r="B239" s="73">
         <v>237</v>
       </c>
-      <c r="C239" s="134"/>
+      <c r="C239" s="139"/>
       <c r="D239" s="112"/>
       <c r="E239" s="112"/>
       <c r="F239" s="132"/>
@@ -14526,7 +14695,7 @@
       <c r="B240" s="66">
         <v>238</v>
       </c>
-      <c r="C240" s="133"/>
+      <c r="C240" s="138"/>
       <c r="D240" s="106"/>
       <c r="E240" s="106"/>
       <c r="F240" s="140"/>
@@ -14541,7 +14710,7 @@
       <c r="B241" s="73">
         <v>239</v>
       </c>
-      <c r="C241" s="134"/>
+      <c r="C241" s="139"/>
       <c r="D241" s="112"/>
       <c r="E241" s="112"/>
       <c r="F241" s="132"/>
@@ -14556,7 +14725,7 @@
       <c r="B242" s="66">
         <v>240</v>
       </c>
-      <c r="C242" s="133"/>
+      <c r="C242" s="138"/>
       <c r="D242" s="106"/>
       <c r="E242" s="106"/>
       <c r="F242" s="140"/>
@@ -14571,7 +14740,7 @@
       <c r="B243" s="73">
         <v>241</v>
       </c>
-      <c r="C243" s="134"/>
+      <c r="C243" s="139"/>
       <c r="D243" s="112"/>
       <c r="E243" s="112"/>
       <c r="F243" s="132"/>
@@ -14586,7 +14755,7 @@
       <c r="B244" s="66">
         <v>242</v>
       </c>
-      <c r="C244" s="133"/>
+      <c r="C244" s="138"/>
       <c r="D244" s="106"/>
       <c r="E244" s="106"/>
       <c r="F244" s="140"/>
@@ -14601,7 +14770,7 @@
       <c r="B245" s="73">
         <v>243</v>
       </c>
-      <c r="C245" s="134"/>
+      <c r="C245" s="139"/>
       <c r="D245" s="112"/>
       <c r="E245" s="112"/>
       <c r="F245" s="132"/>
@@ -14616,7 +14785,7 @@
       <c r="B246" s="66">
         <v>244</v>
       </c>
-      <c r="C246" s="133"/>
+      <c r="C246" s="138"/>
       <c r="D246" s="106"/>
       <c r="E246" s="106"/>
       <c r="F246" s="140"/>
@@ -14631,7 +14800,7 @@
       <c r="B247" s="73">
         <v>245</v>
       </c>
-      <c r="C247" s="134"/>
+      <c r="C247" s="139"/>
       <c r="D247" s="112"/>
       <c r="E247" s="112"/>
       <c r="F247" s="132"/>
@@ -14646,7 +14815,7 @@
       <c r="B248" s="66">
         <v>246</v>
       </c>
-      <c r="C248" s="133"/>
+      <c r="C248" s="138"/>
       <c r="D248" s="106"/>
       <c r="E248" s="106"/>
       <c r="F248" s="140"/>
@@ -14661,7 +14830,7 @@
       <c r="B249" s="73">
         <v>247</v>
       </c>
-      <c r="C249" s="134"/>
+      <c r="C249" s="139"/>
       <c r="D249" s="112"/>
       <c r="E249" s="112"/>
       <c r="F249" s="132"/>
@@ -14676,7 +14845,7 @@
       <c r="B250" s="66">
         <v>248</v>
       </c>
-      <c r="C250" s="133"/>
+      <c r="C250" s="138"/>
       <c r="D250" s="106"/>
       <c r="E250" s="106"/>
       <c r="F250" s="140"/>
@@ -14691,7 +14860,7 @@
       <c r="B251" s="73">
         <v>249</v>
       </c>
-      <c r="C251" s="134"/>
+      <c r="C251" s="139"/>
       <c r="D251" s="112"/>
       <c r="E251" s="112"/>
       <c r="F251" s="132"/>
@@ -14706,7 +14875,7 @@
       <c r="B252" s="66">
         <v>250</v>
       </c>
-      <c r="C252" s="133"/>
+      <c r="C252" s="138"/>
       <c r="D252" s="106"/>
       <c r="E252" s="106"/>
       <c r="F252" s="140"/>
@@ -14721,7 +14890,7 @@
       <c r="B253" s="73">
         <v>251</v>
       </c>
-      <c r="C253" s="134"/>
+      <c r="C253" s="139"/>
       <c r="D253" s="112"/>
       <c r="E253" s="112"/>
       <c r="F253" s="132"/>
@@ -14736,7 +14905,7 @@
       <c r="B254" s="66">
         <v>252</v>
       </c>
-      <c r="C254" s="133"/>
+      <c r="C254" s="138"/>
       <c r="D254" s="106"/>
       <c r="E254" s="106"/>
       <c r="F254" s="140"/>
@@ -14751,7 +14920,7 @@
       <c r="B255" s="73">
         <v>253</v>
       </c>
-      <c r="C255" s="134"/>
+      <c r="C255" s="139"/>
       <c r="D255" s="112"/>
       <c r="E255" s="112"/>
       <c r="F255" s="132"/>
@@ -14766,7 +14935,7 @@
       <c r="B256" s="66">
         <v>254</v>
       </c>
-      <c r="C256" s="133"/>
+      <c r="C256" s="138"/>
       <c r="D256" s="106"/>
       <c r="E256" s="106"/>
       <c r="F256" s="140"/>
@@ -14781,7 +14950,7 @@
       <c r="B257" s="73">
         <v>255</v>
       </c>
-      <c r="C257" s="134"/>
+      <c r="C257" s="139"/>
       <c r="D257" s="112"/>
       <c r="E257" s="112"/>
       <c r="F257" s="132"/>
@@ -14796,7 +14965,7 @@
       <c r="B258" s="66">
         <v>256</v>
       </c>
-      <c r="C258" s="133"/>
+      <c r="C258" s="138"/>
       <c r="D258" s="106"/>
       <c r="E258" s="106"/>
       <c r="F258" s="140"/>
@@ -14811,7 +14980,7 @@
       <c r="B259" s="73">
         <v>257</v>
       </c>
-      <c r="C259" s="134"/>
+      <c r="C259" s="139"/>
       <c r="D259" s="112"/>
       <c r="E259" s="112"/>
       <c r="F259" s="132"/>
@@ -14826,7 +14995,7 @@
       <c r="B260" s="66">
         <v>258</v>
       </c>
-      <c r="C260" s="133"/>
+      <c r="C260" s="138"/>
       <c r="D260" s="106"/>
       <c r="E260" s="106"/>
       <c r="F260" s="140"/>
@@ -14841,7 +15010,7 @@
       <c r="B261" s="73">
         <v>259</v>
       </c>
-      <c r="C261" s="134"/>
+      <c r="C261" s="139"/>
       <c r="D261" s="112"/>
       <c r="E261" s="112"/>
       <c r="F261" s="132"/>
@@ -14856,7 +15025,7 @@
       <c r="B262" s="66">
         <v>260</v>
       </c>
-      <c r="C262" s="133"/>
+      <c r="C262" s="138"/>
       <c r="D262" s="106"/>
       <c r="E262" s="106"/>
       <c r="F262" s="140"/>
@@ -14871,7 +15040,7 @@
       <c r="B263" s="73">
         <v>261</v>
       </c>
-      <c r="C263" s="134"/>
+      <c r="C263" s="139"/>
       <c r="D263" s="112"/>
       <c r="E263" s="112"/>
       <c r="F263" s="132"/>
@@ -14886,7 +15055,7 @@
       <c r="B264" s="66">
         <v>262</v>
       </c>
-      <c r="C264" s="133"/>
+      <c r="C264" s="138"/>
       <c r="D264" s="106"/>
       <c r="E264" s="106"/>
       <c r="F264" s="140"/>
@@ -14901,7 +15070,7 @@
       <c r="B265" s="73">
         <v>263</v>
       </c>
-      <c r="C265" s="134"/>
+      <c r="C265" s="139"/>
       <c r="D265" s="112"/>
       <c r="E265" s="112"/>
       <c r="F265" s="132"/>
@@ -14916,7 +15085,7 @@
       <c r="B266" s="66">
         <v>264</v>
       </c>
-      <c r="C266" s="133"/>
+      <c r="C266" s="138"/>
       <c r="D266" s="106"/>
       <c r="E266" s="106"/>
       <c r="F266" s="140"/>
@@ -14931,7 +15100,7 @@
       <c r="B267" s="73">
         <v>265</v>
       </c>
-      <c r="C267" s="134"/>
+      <c r="C267" s="139"/>
       <c r="D267" s="112"/>
       <c r="E267" s="112"/>
       <c r="F267" s="132"/>
@@ -14946,7 +15115,7 @@
       <c r="B268" s="66">
         <v>266</v>
       </c>
-      <c r="C268" s="133"/>
+      <c r="C268" s="138"/>
       <c r="D268" s="106"/>
       <c r="E268" s="106"/>
       <c r="F268" s="140"/>
@@ -14961,7 +15130,7 @@
       <c r="B269" s="73">
         <v>267</v>
       </c>
-      <c r="C269" s="134"/>
+      <c r="C269" s="139"/>
       <c r="D269" s="112"/>
       <c r="E269" s="112"/>
       <c r="F269" s="132"/>
@@ -14976,7 +15145,7 @@
       <c r="B270" s="66">
         <v>268</v>
       </c>
-      <c r="C270" s="133"/>
+      <c r="C270" s="138"/>
       <c r="D270" s="106"/>
       <c r="E270" s="106"/>
       <c r="F270" s="140"/>
@@ -14991,7 +15160,7 @@
       <c r="B271" s="73">
         <v>269</v>
       </c>
-      <c r="C271" s="134"/>
+      <c r="C271" s="139"/>
       <c r="D271" s="112"/>
       <c r="E271" s="112"/>
       <c r="F271" s="132"/>
@@ -15006,7 +15175,7 @@
       <c r="B272" s="66">
         <v>270</v>
       </c>
-      <c r="C272" s="133"/>
+      <c r="C272" s="138"/>
       <c r="D272" s="106"/>
       <c r="E272" s="106"/>
       <c r="F272" s="140"/>
@@ -15021,7 +15190,7 @@
       <c r="B273" s="73">
         <v>271</v>
       </c>
-      <c r="C273" s="134"/>
+      <c r="C273" s="139"/>
       <c r="D273" s="112"/>
       <c r="E273" s="112"/>
       <c r="F273" s="132"/>
@@ -15036,7 +15205,7 @@
       <c r="B274" s="66">
         <v>272</v>
       </c>
-      <c r="C274" s="133"/>
+      <c r="C274" s="138"/>
       <c r="D274" s="106"/>
       <c r="E274" s="106"/>
       <c r="F274" s="140"/>
@@ -15051,7 +15220,7 @@
       <c r="B275" s="73">
         <v>273</v>
       </c>
-      <c r="C275" s="134"/>
+      <c r="C275" s="139"/>
       <c r="D275" s="112"/>
       <c r="E275" s="112"/>
       <c r="F275" s="132"/>
@@ -15066,7 +15235,7 @@
       <c r="B276" s="66">
         <v>274</v>
       </c>
-      <c r="C276" s="133"/>
+      <c r="C276" s="138"/>
       <c r="D276" s="106"/>
       <c r="E276" s="106"/>
       <c r="F276" s="140"/>
@@ -15081,7 +15250,7 @@
       <c r="B277" s="73">
         <v>275</v>
       </c>
-      <c r="C277" s="134"/>
+      <c r="C277" s="139"/>
       <c r="D277" s="112"/>
       <c r="E277" s="112"/>
       <c r="F277" s="132"/>
@@ -15096,7 +15265,7 @@
       <c r="B278" s="66">
         <v>276</v>
       </c>
-      <c r="C278" s="133"/>
+      <c r="C278" s="138"/>
       <c r="D278" s="106"/>
       <c r="E278" s="106"/>
       <c r="F278" s="140"/>
@@ -15111,7 +15280,7 @@
       <c r="B279" s="73">
         <v>277</v>
       </c>
-      <c r="C279" s="134"/>
+      <c r="C279" s="139"/>
       <c r="D279" s="112"/>
       <c r="E279" s="112"/>
       <c r="F279" s="132"/>
@@ -15126,7 +15295,7 @@
       <c r="B280" s="66">
         <v>278</v>
       </c>
-      <c r="C280" s="133"/>
+      <c r="C280" s="138"/>
       <c r="D280" s="106"/>
       <c r="E280" s="106"/>
       <c r="F280" s="140"/>
@@ -15141,7 +15310,7 @@
       <c r="B281" s="73">
         <v>279</v>
       </c>
-      <c r="C281" s="134"/>
+      <c r="C281" s="139"/>
       <c r="D281" s="112"/>
       <c r="E281" s="112"/>
       <c r="F281" s="132"/>
@@ -15156,7 +15325,7 @@
       <c r="B282" s="66">
         <v>280</v>
       </c>
-      <c r="C282" s="133"/>
+      <c r="C282" s="138"/>
       <c r="D282" s="106"/>
       <c r="E282" s="106"/>
       <c r="F282" s="140"/>
@@ -15171,7 +15340,7 @@
       <c r="B283" s="73">
         <v>281</v>
       </c>
-      <c r="C283" s="134"/>
+      <c r="C283" s="139"/>
       <c r="D283" s="112"/>
       <c r="E283" s="112"/>
       <c r="F283" s="132"/>
@@ -15186,7 +15355,7 @@
       <c r="B284" s="66">
         <v>282</v>
       </c>
-      <c r="C284" s="133"/>
+      <c r="C284" s="138"/>
       <c r="D284" s="106"/>
       <c r="E284" s="106"/>
       <c r="F284" s="140"/>
@@ -15201,7 +15370,7 @@
       <c r="B285" s="73">
         <v>283</v>
       </c>
-      <c r="C285" s="134"/>
+      <c r="C285" s="139"/>
       <c r="D285" s="112"/>
       <c r="E285" s="112"/>
       <c r="F285" s="132"/>
@@ -15216,7 +15385,7 @@
       <c r="B286" s="66">
         <v>284</v>
       </c>
-      <c r="C286" s="133"/>
+      <c r="C286" s="138"/>
       <c r="D286" s="106"/>
       <c r="E286" s="106"/>
       <c r="F286" s="140"/>
@@ -15231,7 +15400,7 @@
       <c r="B287" s="73">
         <v>285</v>
       </c>
-      <c r="C287" s="134"/>
+      <c r="C287" s="139"/>
       <c r="D287" s="112"/>
       <c r="E287" s="112"/>
       <c r="F287" s="132"/>
@@ -15246,7 +15415,7 @@
       <c r="B288" s="66">
         <v>286</v>
       </c>
-      <c r="C288" s="133"/>
+      <c r="C288" s="138"/>
       <c r="D288" s="106"/>
       <c r="E288" s="106"/>
       <c r="F288" s="140"/>
@@ -15261,7 +15430,7 @@
       <c r="B289" s="73">
         <v>287</v>
       </c>
-      <c r="C289" s="134"/>
+      <c r="C289" s="139"/>
       <c r="D289" s="112"/>
       <c r="E289" s="112"/>
       <c r="F289" s="132"/>
@@ -15276,7 +15445,7 @@
       <c r="B290" s="66">
         <v>288</v>
       </c>
-      <c r="C290" s="133"/>
+      <c r="C290" s="138"/>
       <c r="D290" s="106"/>
       <c r="E290" s="106"/>
       <c r="F290" s="140"/>
@@ -15291,7 +15460,7 @@
       <c r="B291" s="73">
         <v>289</v>
       </c>
-      <c r="C291" s="134"/>
+      <c r="C291" s="139"/>
       <c r="D291" s="112"/>
       <c r="E291" s="112"/>
       <c r="F291" s="132"/>
@@ -15306,7 +15475,7 @@
       <c r="B292" s="66">
         <v>290</v>
       </c>
-      <c r="C292" s="133"/>
+      <c r="C292" s="138"/>
       <c r="D292" s="106"/>
       <c r="E292" s="106"/>
       <c r="F292" s="140"/>
@@ -15321,7 +15490,7 @@
       <c r="B293" s="73">
         <v>291</v>
       </c>
-      <c r="C293" s="134"/>
+      <c r="C293" s="139"/>
       <c r="D293" s="112"/>
       <c r="E293" s="112"/>
       <c r="F293" s="132"/>
@@ -15336,7 +15505,7 @@
       <c r="B294" s="66">
         <v>292</v>
       </c>
-      <c r="C294" s="133"/>
+      <c r="C294" s="138"/>
       <c r="D294" s="106"/>
       <c r="E294" s="106"/>
       <c r="F294" s="140"/>
@@ -15351,7 +15520,7 @@
       <c r="B295" s="73">
         <v>293</v>
       </c>
-      <c r="C295" s="134"/>
+      <c r="C295" s="139"/>
       <c r="D295" s="112"/>
       <c r="E295" s="112"/>
       <c r="F295" s="132"/>
@@ -15366,7 +15535,7 @@
       <c r="B296" s="66">
         <v>294</v>
       </c>
-      <c r="C296" s="133"/>
+      <c r="C296" s="138"/>
       <c r="D296" s="106"/>
       <c r="E296" s="106"/>
       <c r="F296" s="140"/>
@@ -15381,7 +15550,7 @@
       <c r="B297" s="73">
         <v>295</v>
       </c>
-      <c r="C297" s="134"/>
+      <c r="C297" s="139"/>
       <c r="D297" s="112"/>
       <c r="E297" s="112"/>
       <c r="F297" s="132"/>
@@ -15396,7 +15565,7 @@
       <c r="B298" s="66">
         <v>296</v>
       </c>
-      <c r="C298" s="133"/>
+      <c r="C298" s="138"/>
       <c r="D298" s="106"/>
       <c r="E298" s="106"/>
       <c r="F298" s="140"/>
@@ -15411,7 +15580,7 @@
       <c r="B299" s="73">
         <v>297</v>
       </c>
-      <c r="C299" s="134"/>
+      <c r="C299" s="139"/>
       <c r="D299" s="112"/>
       <c r="E299" s="112"/>
       <c r="F299" s="132"/>
@@ -15426,7 +15595,7 @@
       <c r="B300" s="66">
         <v>298</v>
       </c>
-      <c r="C300" s="133"/>
+      <c r="C300" s="138"/>
       <c r="D300" s="106"/>
       <c r="E300" s="106"/>
       <c r="F300" s="140"/>
@@ -15441,7 +15610,7 @@
       <c r="B301" s="73">
         <v>299</v>
       </c>
-      <c r="C301" s="134"/>
+      <c r="C301" s="139"/>
       <c r="D301" s="112"/>
       <c r="E301" s="112"/>
       <c r="F301" s="132"/>
@@ -15456,7 +15625,7 @@
       <c r="B302" s="66">
         <v>300</v>
       </c>
-      <c r="C302" s="133"/>
+      <c r="C302" s="138"/>
       <c r="D302" s="106"/>
       <c r="E302" s="106"/>
       <c r="F302" s="140"/>
@@ -15471,7 +15640,7 @@
       <c r="B303" s="73">
         <v>301</v>
       </c>
-      <c r="C303" s="134"/>
+      <c r="C303" s="139"/>
       <c r="D303" s="112"/>
       <c r="E303" s="112"/>
       <c r="F303" s="132"/>
@@ -15486,7 +15655,7 @@
       <c r="B304" s="66">
         <v>302</v>
       </c>
-      <c r="C304" s="133"/>
+      <c r="C304" s="138"/>
       <c r="D304" s="106"/>
       <c r="E304" s="106"/>
       <c r="F304" s="140"/>
@@ -15501,7 +15670,7 @@
       <c r="B305" s="73">
         <v>303</v>
       </c>
-      <c r="C305" s="134"/>
+      <c r="C305" s="139"/>
       <c r="D305" s="112"/>
       <c r="E305" s="112"/>
       <c r="F305" s="132"/>
@@ -15516,7 +15685,7 @@
       <c r="B306" s="66">
         <v>304</v>
       </c>
-      <c r="C306" s="133"/>
+      <c r="C306" s="138"/>
       <c r="D306" s="106"/>
       <c r="E306" s="106"/>
       <c r="F306" s="140"/>
@@ -15531,7 +15700,7 @@
       <c r="B307" s="73">
         <v>305</v>
       </c>
-      <c r="C307" s="134"/>
+      <c r="C307" s="139"/>
       <c r="D307" s="112"/>
       <c r="E307" s="112"/>
       <c r="F307" s="132"/>
@@ -15546,7 +15715,7 @@
       <c r="B308" s="66">
         <v>306</v>
       </c>
-      <c r="C308" s="133"/>
+      <c r="C308" s="138"/>
       <c r="D308" s="106"/>
       <c r="E308" s="106"/>
       <c r="F308" s="140"/>
@@ -15561,7 +15730,7 @@
       <c r="B309" s="73">
         <v>307</v>
       </c>
-      <c r="C309" s="134"/>
+      <c r="C309" s="139"/>
       <c r="D309" s="112"/>
       <c r="E309" s="112"/>
       <c r="F309" s="132"/>
@@ -15576,7 +15745,7 @@
       <c r="B310" s="66">
         <v>308</v>
       </c>
-      <c r="C310" s="133"/>
+      <c r="C310" s="138"/>
       <c r="D310" s="106"/>
       <c r="E310" s="106"/>
       <c r="F310" s="140"/>
@@ -15591,7 +15760,7 @@
       <c r="B311" s="73">
         <v>309</v>
       </c>
-      <c r="C311" s="134"/>
+      <c r="C311" s="139"/>
       <c r="D311" s="112"/>
       <c r="E311" s="112"/>
       <c r="F311" s="132"/>
@@ -15606,7 +15775,7 @@
       <c r="B312" s="66">
         <v>310</v>
       </c>
-      <c r="C312" s="133"/>
+      <c r="C312" s="138"/>
       <c r="D312" s="106"/>
       <c r="E312" s="106"/>
       <c r="F312" s="140"/>
@@ -15621,7 +15790,7 @@
       <c r="B313" s="73">
         <v>311</v>
       </c>
-      <c r="C313" s="134"/>
+      <c r="C313" s="139"/>
       <c r="D313" s="112"/>
       <c r="E313" s="112"/>
       <c r="F313" s="132"/>
@@ -15636,7 +15805,7 @@
       <c r="B314" s="66">
         <v>312</v>
       </c>
-      <c r="C314" s="133"/>
+      <c r="C314" s="138"/>
       <c r="D314" s="106"/>
       <c r="E314" s="106"/>
       <c r="F314" s="140"/>
@@ -15651,7 +15820,7 @@
       <c r="B315" s="73">
         <v>313</v>
       </c>
-      <c r="C315" s="134"/>
+      <c r="C315" s="139"/>
       <c r="D315" s="112"/>
       <c r="E315" s="112"/>
       <c r="F315" s="132"/>
@@ -15666,7 +15835,7 @@
       <c r="B316" s="66">
         <v>314</v>
       </c>
-      <c r="C316" s="133"/>
+      <c r="C316" s="138"/>
       <c r="D316" s="106"/>
       <c r="E316" s="106"/>
       <c r="F316" s="140"/>
@@ -15681,7 +15850,7 @@
       <c r="B317" s="73">
         <v>315</v>
       </c>
-      <c r="C317" s="134"/>
+      <c r="C317" s="139"/>
       <c r="D317" s="112"/>
       <c r="E317" s="112"/>
       <c r="F317" s="132"/>
@@ -15696,7 +15865,7 @@
       <c r="B318" s="66">
         <v>316</v>
       </c>
-      <c r="C318" s="133"/>
+      <c r="C318" s="138"/>
       <c r="D318" s="106"/>
       <c r="E318" s="106"/>
       <c r="F318" s="140"/>
@@ -15711,7 +15880,7 @@
       <c r="B319" s="73">
         <v>317</v>
       </c>
-      <c r="C319" s="134"/>
+      <c r="C319" s="139"/>
       <c r="D319" s="112"/>
       <c r="E319" s="112"/>
       <c r="F319" s="132"/>
@@ -15726,7 +15895,7 @@
       <c r="B320" s="66">
         <v>318</v>
       </c>
-      <c r="C320" s="133"/>
+      <c r="C320" s="138"/>
       <c r="D320" s="106"/>
       <c r="E320" s="106"/>
       <c r="F320" s="140"/>
@@ -15741,7 +15910,7 @@
       <c r="B321" s="73">
         <v>319</v>
       </c>
-      <c r="C321" s="134"/>
+      <c r="C321" s="139"/>
       <c r="D321" s="112"/>
       <c r="E321" s="112"/>
       <c r="F321" s="132"/>
@@ -15756,7 +15925,7 @@
       <c r="B322" s="66">
         <v>320</v>
       </c>
-      <c r="C322" s="133"/>
+      <c r="C322" s="138"/>
       <c r="D322" s="106"/>
       <c r="E322" s="106"/>
       <c r="F322" s="140"/>
@@ -15771,7 +15940,7 @@
       <c r="B323" s="73">
         <v>321</v>
       </c>
-      <c r="C323" s="134"/>
+      <c r="C323" s="139"/>
       <c r="D323" s="112"/>
       <c r="E323" s="112"/>
       <c r="F323" s="132"/>
@@ -15786,7 +15955,7 @@
       <c r="B324" s="66">
         <v>322</v>
       </c>
-      <c r="C324" s="133"/>
+      <c r="C324" s="138"/>
       <c r="D324" s="106"/>
       <c r="E324" s="106"/>
       <c r="F324" s="140"/>
@@ -15801,7 +15970,7 @@
       <c r="B325" s="73">
         <v>323</v>
       </c>
-      <c r="C325" s="134"/>
+      <c r="C325" s="139"/>
       <c r="D325" s="112"/>
       <c r="E325" s="112"/>
       <c r="F325" s="132"/>
@@ -15816,7 +15985,7 @@
       <c r="B326" s="66">
         <v>324</v>
       </c>
-      <c r="C326" s="133"/>
+      <c r="C326" s="138"/>
       <c r="D326" s="106"/>
       <c r="E326" s="106"/>
       <c r="F326" s="140"/>
@@ -15831,7 +16000,7 @@
       <c r="B327" s="73">
         <v>325</v>
       </c>
-      <c r="C327" s="134"/>
+      <c r="C327" s="139"/>
       <c r="D327" s="112"/>
       <c r="E327" s="112"/>
       <c r="F327" s="132"/>
@@ -15846,7 +16015,7 @@
       <c r="B328" s="66">
         <v>326</v>
       </c>
-      <c r="C328" s="133"/>
+      <c r="C328" s="138"/>
       <c r="D328" s="106"/>
       <c r="E328" s="106"/>
       <c r="F328" s="140"/>
@@ -15861,7 +16030,7 @@
       <c r="B329" s="73">
         <v>327</v>
       </c>
-      <c r="C329" s="134"/>
+      <c r="C329" s="139"/>
       <c r="D329" s="112"/>
       <c r="E329" s="112"/>
       <c r="F329" s="132"/>
@@ -15876,7 +16045,7 @@
       <c r="B330" s="66">
         <v>328</v>
       </c>
-      <c r="C330" s="133"/>
+      <c r="C330" s="138"/>
       <c r="D330" s="106"/>
       <c r="E330" s="106"/>
       <c r="F330" s="140"/>
@@ -15891,7 +16060,7 @@
       <c r="B331" s="73">
         <v>329</v>
       </c>
-      <c r="C331" s="134"/>
+      <c r="C331" s="139"/>
       <c r="D331" s="112"/>
       <c r="E331" s="112"/>
       <c r="F331" s="132"/>
@@ -15906,7 +16075,7 @@
       <c r="B332" s="66">
         <v>330</v>
       </c>
-      <c r="C332" s="133"/>
+      <c r="C332" s="138"/>
       <c r="D332" s="106"/>
       <c r="E332" s="106"/>
       <c r="F332" s="140"/>
@@ -15921,7 +16090,7 @@
       <c r="B333" s="73">
         <v>331</v>
       </c>
-      <c r="C333" s="134"/>
+      <c r="C333" s="139"/>
       <c r="D333" s="112"/>
       <c r="E333" s="112"/>
       <c r="F333" s="132"/>
@@ -15936,7 +16105,7 @@
       <c r="B334" s="66">
         <v>332</v>
       </c>
-      <c r="C334" s="133"/>
+      <c r="C334" s="138"/>
       <c r="D334" s="106"/>
       <c r="E334" s="106"/>
       <c r="F334" s="140"/>
@@ -15951,7 +16120,7 @@
       <c r="B335" s="73">
         <v>333</v>
       </c>
-      <c r="C335" s="134"/>
+      <c r="C335" s="139"/>
       <c r="D335" s="112"/>
       <c r="E335" s="112"/>
       <c r="F335" s="132"/>
@@ -15966,7 +16135,7 @@
       <c r="B336" s="66">
         <v>334</v>
       </c>
-      <c r="C336" s="133"/>
+      <c r="C336" s="138"/>
       <c r="D336" s="106"/>
       <c r="E336" s="106"/>
       <c r="F336" s="140"/>
@@ -15981,7 +16150,7 @@
       <c r="B337" s="73">
         <v>335</v>
       </c>
-      <c r="C337" s="134"/>
+      <c r="C337" s="139"/>
       <c r="D337" s="112"/>
       <c r="E337" s="112"/>
       <c r="F337" s="132"/>
@@ -15996,7 +16165,7 @@
       <c r="B338" s="66">
         <v>336</v>
       </c>
-      <c r="C338" s="133"/>
+      <c r="C338" s="138"/>
       <c r="D338" s="106"/>
       <c r="E338" s="106"/>
       <c r="F338" s="140"/>
@@ -16011,7 +16180,7 @@
       <c r="B339" s="73">
         <v>337</v>
       </c>
-      <c r="C339" s="134"/>
+      <c r="C339" s="139"/>
       <c r="D339" s="112"/>
       <c r="E339" s="112"/>
       <c r="F339" s="132"/>
@@ -16026,7 +16195,7 @@
       <c r="B340" s="66">
         <v>338</v>
       </c>
-      <c r="C340" s="133"/>
+      <c r="C340" s="138"/>
       <c r="D340" s="106"/>
       <c r="E340" s="106"/>
       <c r="F340" s="140"/>
@@ -16041,7 +16210,7 @@
       <c r="B341" s="73">
         <v>339</v>
       </c>
-      <c r="C341" s="134"/>
+      <c r="C341" s="139"/>
       <c r="D341" s="112"/>
       <c r="E341" s="112"/>
       <c r="F341" s="132"/>
@@ -16056,7 +16225,7 @@
       <c r="B342" s="66">
         <v>340</v>
       </c>
-      <c r="C342" s="133"/>
+      <c r="C342" s="138"/>
       <c r="D342" s="106"/>
       <c r="E342" s="106"/>
       <c r="F342" s="140"/>
@@ -16071,7 +16240,7 @@
       <c r="B343" s="73">
         <v>341</v>
       </c>
-      <c r="C343" s="134"/>
+      <c r="C343" s="139"/>
       <c r="D343" s="112"/>
       <c r="E343" s="112"/>
       <c r="F343" s="132"/>
@@ -16086,7 +16255,7 @@
       <c r="B344" s="66">
         <v>342</v>
       </c>
-      <c r="C344" s="133"/>
+      <c r="C344" s="138"/>
       <c r="D344" s="106"/>
       <c r="E344" s="106"/>
       <c r="F344" s="140"/>
@@ -16101,7 +16270,7 @@
       <c r="B345" s="73">
         <v>343</v>
       </c>
-      <c r="C345" s="134"/>
+      <c r="C345" s="139"/>
       <c r="D345" s="112"/>
       <c r="E345" s="112"/>
       <c r="F345" s="132"/>
@@ -16116,7 +16285,7 @@
       <c r="B346" s="66">
         <v>344</v>
       </c>
-      <c r="C346" s="133"/>
+      <c r="C346" s="138"/>
       <c r="D346" s="106"/>
       <c r="E346" s="106"/>
       <c r="F346" s="140"/>
@@ -16131,7 +16300,7 @@
       <c r="B347" s="73">
         <v>345</v>
       </c>
-      <c r="C347" s="134"/>
+      <c r="C347" s="139"/>
       <c r="D347" s="112"/>
       <c r="E347" s="112"/>
       <c r="F347" s="132"/>
@@ -16146,7 +16315,7 @@
       <c r="B348" s="66">
         <v>346</v>
       </c>
-      <c r="C348" s="133"/>
+      <c r="C348" s="138"/>
       <c r="D348" s="106"/>
       <c r="E348" s="106"/>
       <c r="F348" s="140"/>
@@ -16161,7 +16330,7 @@
       <c r="B349" s="73">
         <v>347</v>
       </c>
-      <c r="C349" s="134"/>
+      <c r="C349" s="139"/>
       <c r="D349" s="112"/>
       <c r="E349" s="112"/>
       <c r="F349" s="132"/>
@@ -16176,7 +16345,7 @@
       <c r="B350" s="66">
         <v>348</v>
       </c>
-      <c r="C350" s="133"/>
+      <c r="C350" s="138"/>
       <c r="D350" s="106"/>
       <c r="E350" s="106"/>
       <c r="F350" s="140"/>
@@ -16191,7 +16360,7 @@
       <c r="B351" s="73">
         <v>349</v>
       </c>
-      <c r="C351" s="134"/>
+      <c r="C351" s="139"/>
       <c r="D351" s="112"/>
       <c r="E351" s="112"/>
       <c r="F351" s="132"/>
@@ -16206,7 +16375,7 @@
       <c r="B352" s="66">
         <v>350</v>
       </c>
-      <c r="C352" s="133"/>
+      <c r="C352" s="138"/>
       <c r="D352" s="106"/>
       <c r="E352" s="106"/>
       <c r="F352" s="140"/>
@@ -16221,7 +16390,7 @@
       <c r="B353" s="73">
         <v>351</v>
       </c>
-      <c r="C353" s="134"/>
+      <c r="C353" s="139"/>
       <c r="D353" s="112"/>
       <c r="E353" s="112"/>
       <c r="F353" s="132"/>
@@ -16236,7 +16405,7 @@
       <c r="B354" s="66">
         <v>352</v>
       </c>
-      <c r="C354" s="133"/>
+      <c r="C354" s="138"/>
       <c r="D354" s="106"/>
       <c r="E354" s="106"/>
       <c r="F354" s="140"/>
@@ -16251,7 +16420,7 @@
       <c r="B355" s="73">
         <v>353</v>
       </c>
-      <c r="C355" s="134"/>
+      <c r="C355" s="139"/>
       <c r="D355" s="112"/>
       <c r="E355" s="112"/>
       <c r="F355" s="132"/>
@@ -16266,7 +16435,7 @@
       <c r="B356" s="66">
         <v>354</v>
       </c>
-      <c r="C356" s="133"/>
+      <c r="C356" s="138"/>
       <c r="D356" s="106"/>
       <c r="E356" s="106"/>
       <c r="F356" s="140"/>
@@ -16281,7 +16450,7 @@
       <c r="B357" s="73">
         <v>355</v>
       </c>
-      <c r="C357" s="134"/>
+      <c r="C357" s="139"/>
       <c r="D357" s="112"/>
       <c r="E357" s="112"/>
       <c r="F357" s="132"/>
@@ -16296,7 +16465,7 @@
       <c r="B358" s="66">
         <v>356</v>
       </c>
-      <c r="C358" s="133"/>
+      <c r="C358" s="138"/>
       <c r="D358" s="106"/>
       <c r="E358" s="106"/>
       <c r="F358" s="140"/>
@@ -16311,7 +16480,7 @@
       <c r="B359" s="73">
         <v>357</v>
       </c>
-      <c r="C359" s="134"/>
+      <c r="C359" s="139"/>
       <c r="D359" s="112"/>
       <c r="E359" s="112"/>
       <c r="F359" s="132"/>
@@ -16326,7 +16495,7 @@
       <c r="B360" s="66">
         <v>358</v>
       </c>
-      <c r="C360" s="133"/>
+      <c r="C360" s="138"/>
       <c r="D360" s="106"/>
       <c r="E360" s="106"/>
       <c r="F360" s="140"/>
@@ -16341,7 +16510,7 @@
       <c r="B361" s="73">
         <v>359</v>
       </c>
-      <c r="C361" s="134"/>
+      <c r="C361" s="139"/>
       <c r="D361" s="112"/>
       <c r="E361" s="112"/>
       <c r="F361" s="132"/>
@@ -16356,7 +16525,7 @@
       <c r="B362" s="66">
         <v>360</v>
       </c>
-      <c r="C362" s="133"/>
+      <c r="C362" s="138"/>
       <c r="D362" s="106"/>
       <c r="E362" s="106"/>
       <c r="F362" s="140"/>
@@ -16371,7 +16540,7 @@
       <c r="B363" s="73">
         <v>361</v>
       </c>
-      <c r="C363" s="134"/>
+      <c r="C363" s="139"/>
       <c r="D363" s="112"/>
       <c r="E363" s="112"/>
       <c r="F363" s="132"/>
@@ -16386,7 +16555,7 @@
       <c r="B364" s="66">
         <v>362</v>
       </c>
-      <c r="C364" s="133"/>
+      <c r="C364" s="138"/>
       <c r="D364" s="106"/>
       <c r="E364" s="106"/>
       <c r="F364" s="140"/>
@@ -16401,7 +16570,7 @@
       <c r="B365" s="73">
         <v>363</v>
       </c>
-      <c r="C365" s="134"/>
+      <c r="C365" s="139"/>
       <c r="D365" s="112"/>
       <c r="E365" s="112"/>
       <c r="F365" s="132"/>
@@ -16416,7 +16585,7 @@
       <c r="B366" s="66">
         <v>364</v>
       </c>
-      <c r="C366" s="133"/>
+      <c r="C366" s="138"/>
       <c r="D366" s="106"/>
       <c r="E366" s="106"/>
       <c r="F366" s="140"/>
@@ -16431,7 +16600,7 @@
       <c r="B367" s="73">
         <v>365</v>
       </c>
-      <c r="C367" s="134"/>
+      <c r="C367" s="139"/>
       <c r="D367" s="112"/>
       <c r="E367" s="112"/>
       <c r="F367" s="132"/>
@@ -16446,7 +16615,7 @@
       <c r="B368" s="66">
         <v>366</v>
       </c>
-      <c r="C368" s="133"/>
+      <c r="C368" s="138"/>
       <c r="D368" s="106"/>
       <c r="E368" s="106"/>
       <c r="F368" s="140"/>
@@ -16461,7 +16630,7 @@
       <c r="B369" s="73">
         <v>367</v>
       </c>
-      <c r="C369" s="134"/>
+      <c r="C369" s="139"/>
       <c r="D369" s="112"/>
       <c r="E369" s="112"/>
       <c r="F369" s="132"/>
@@ -16476,7 +16645,7 @@
       <c r="B370" s="66">
         <v>368</v>
       </c>
-      <c r="C370" s="133"/>
+      <c r="C370" s="138"/>
       <c r="D370" s="106"/>
       <c r="E370" s="106"/>
       <c r="F370" s="140"/>
@@ -16491,7 +16660,7 @@
       <c r="B371" s="73">
         <v>369</v>
       </c>
-      <c r="C371" s="134"/>
+      <c r="C371" s="139"/>
       <c r="D371" s="112"/>
       <c r="E371" s="112"/>
       <c r="F371" s="132"/>
@@ -16506,7 +16675,7 @@
       <c r="B372" s="66">
         <v>370</v>
       </c>
-      <c r="C372" s="133"/>
+      <c r="C372" s="138"/>
       <c r="D372" s="106"/>
       <c r="E372" s="106"/>
       <c r="F372" s="140"/>
@@ -16521,7 +16690,7 @@
       <c r="B373" s="73">
         <v>371</v>
       </c>
-      <c r="C373" s="134"/>
+      <c r="C373" s="139"/>
       <c r="D373" s="112"/>
       <c r="E373" s="112"/>
       <c r="F373" s="132"/>
@@ -16536,7 +16705,7 @@
       <c r="B374" s="66">
         <v>372</v>
       </c>
-      <c r="C374" s="133"/>
+      <c r="C374" s="138"/>
       <c r="D374" s="106"/>
       <c r="E374" s="106"/>
       <c r="F374" s="140"/>
@@ -16574,7 +16743,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K14"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -16582,7 +16751,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="19.6016" style="142" customWidth="1"/>
+    <col min="1" max="1" width="35.75" style="142" customWidth="1"/>
+    <col min="2" max="2" width="19.6016" style="142" customWidth="1"/>
+    <col min="3" max="3" width="24.7969" style="142" customWidth="1"/>
     <col min="4" max="4" width="42.6406" style="142" customWidth="1"/>
     <col min="5" max="5" width="45.9688" style="142" customWidth="1"/>
     <col min="6" max="8" width="19.6016" style="142" customWidth="1"/>
@@ -16593,7 +16764,7 @@
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -16612,7 +16783,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s" s="144">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s" s="145">
         <v>10</v>
@@ -16623,7 +16794,7 @@
       <c r="F2" t="s" s="146">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="145">
+      <c r="G2" t="s" s="11">
         <v>13</v>
       </c>
       <c r="H2" t="s" s="145">
@@ -16640,213 +16811,695 @@
       </c>
     </row>
     <row r="3" ht="199.65" customHeight="1">
-      <c r="A3" s="148"/>
+      <c r="A3" t="s" s="148">
+        <v>388</v>
+      </c>
       <c r="B3" s="149">
         <v>1</v>
       </c>
       <c r="C3" t="s" s="150">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s" s="150">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s" s="150">
+        <v>391</v>
+      </c>
+      <c r="F3" t="s" s="151">
+        <v>20</v>
+      </c>
+      <c r="G3" s="152">
+        <v>44868</v>
+      </c>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+    </row>
+    <row r="4" ht="213.35" customHeight="1">
+      <c r="A4" s="154"/>
+      <c r="B4" s="155">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s" s="24">
         <v>389</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-    </row>
-    <row r="4" ht="213.35" customHeight="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" t="s" s="24">
-        <v>387</v>
-      </c>
       <c r="D4" t="s" s="24">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E4" t="s" s="24">
-        <v>389</v>
-      </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="158"/>
+        <v>391</v>
+      </c>
+      <c r="F4" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="G4" s="156">
+        <v>44868</v>
+      </c>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
-      <c r="K4" s="159"/>
+      <c r="K4" s="157"/>
     </row>
     <row r="5" ht="153.3" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="155">
+        <v>3</v>
+      </c>
       <c r="C5" t="s" s="24">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D5" t="s" s="24">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E5" t="s" s="24">
-        <v>392</v>
-      </c>
-      <c r="F5" s="160"/>
-      <c r="G5" s="26"/>
+        <v>394</v>
+      </c>
+      <c r="F5" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="G5" s="156">
+        <v>44868</v>
+      </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="159"/>
+      <c r="K5" s="157"/>
     </row>
     <row r="6" ht="168.3" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="156"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="155">
+        <v>4</v>
+      </c>
       <c r="C6" t="s" s="24">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s" s="24">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E6" t="s" s="24">
-        <v>392</v>
-      </c>
-      <c r="F6" s="161"/>
-      <c r="G6" s="26"/>
+        <v>394</v>
+      </c>
+      <c r="F6" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="G6" s="156">
+        <v>44868</v>
+      </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
-      <c r="K6" s="159"/>
+      <c r="K6" s="157"/>
     </row>
     <row r="7" ht="93.3" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="155">
+        <v>5</v>
+      </c>
       <c r="C7" t="s" s="24">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D7" t="s" s="24">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E7" t="s" s="24">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F7" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="156">
+        <v>44868</v>
+      </c>
       <c r="H7" s="26"/>
       <c r="I7" t="s" s="24">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="159"/>
+      <c r="K7" s="157"/>
     </row>
     <row r="8" ht="153.3" customHeight="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="155">
+        <v>6</v>
+      </c>
       <c r="C8" t="s" s="24">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s" s="24">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E8" t="s" s="24">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F8" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="156">
+        <v>44868</v>
+      </c>
       <c r="H8" s="26"/>
       <c r="I8" t="s" s="24">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J8" s="26"/>
-      <c r="K8" s="159"/>
-    </row>
-    <row r="9" ht="18.3" customHeight="1">
-      <c r="A9" s="155"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="26"/>
+      <c r="K8" s="157"/>
+    </row>
+    <row r="9" ht="63.3" customHeight="1">
+      <c r="A9" s="154"/>
+      <c r="B9" s="155">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="24">
+        <v>403</v>
+      </c>
+      <c r="D9" t="s" s="24">
+        <v>404</v>
+      </c>
+      <c r="E9" t="s" s="24">
+        <v>405</v>
+      </c>
+      <c r="F9" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G9" s="156">
+        <v>44868</v>
+      </c>
       <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="I9" t="s" s="24">
+        <v>406</v>
+      </c>
       <c r="J9" s="26"/>
-      <c r="K9" s="159"/>
-    </row>
-    <row r="10" ht="18.3" customHeight="1">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="26"/>
+      <c r="K9" s="157"/>
+    </row>
+    <row r="10" ht="63.3" customHeight="1">
+      <c r="A10" s="154"/>
+      <c r="B10" s="155">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="24">
+        <v>403</v>
+      </c>
+      <c r="D10" t="s" s="24">
+        <v>407</v>
+      </c>
+      <c r="E10" t="s" s="24">
+        <v>408</v>
+      </c>
+      <c r="F10" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G10" s="156">
+        <v>44868</v>
+      </c>
       <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="I10" t="s" s="24">
+        <v>406</v>
+      </c>
       <c r="J10" s="26"/>
-      <c r="K10" s="159"/>
-    </row>
-    <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="26"/>
+      <c r="K10" s="157"/>
+    </row>
+    <row r="11" ht="63.3" customHeight="1">
+      <c r="A11" s="154"/>
+      <c r="B11" s="155">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s" s="24">
+        <v>403</v>
+      </c>
+      <c r="D11" t="s" s="24">
+        <v>409</v>
+      </c>
+      <c r="E11" t="s" s="24">
+        <v>410</v>
+      </c>
+      <c r="F11" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G11" s="156">
+        <v>44868</v>
+      </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="I11" t="s" s="24">
+        <v>406</v>
+      </c>
       <c r="J11" s="26"/>
-      <c r="K11" s="159"/>
-    </row>
-    <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" s="155"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="26"/>
+      <c r="K11" s="157"/>
+    </row>
+    <row r="12" ht="63.3" customHeight="1">
+      <c r="A12" s="154"/>
+      <c r="B12" s="155">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s" s="24">
+        <v>403</v>
+      </c>
+      <c r="D12" t="s" s="24">
+        <v>411</v>
+      </c>
+      <c r="E12" t="s" s="24">
+        <v>412</v>
+      </c>
+      <c r="F12" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G12" s="156">
+        <v>44868</v>
+      </c>
       <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="I12" t="s" s="24">
+        <v>406</v>
+      </c>
       <c r="J12" s="26"/>
-      <c r="K12" s="159"/>
-    </row>
-    <row r="13" ht="18.3" customHeight="1">
-      <c r="A13" s="155"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="26"/>
+      <c r="K12" s="157"/>
+    </row>
+    <row r="13" ht="78.3" customHeight="1">
+      <c r="A13" s="154"/>
+      <c r="B13" s="155">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="24">
+        <v>403</v>
+      </c>
+      <c r="D13" t="s" s="24">
+        <v>413</v>
+      </c>
+      <c r="E13" t="s" s="24">
+        <v>414</v>
+      </c>
+      <c r="F13" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G13" s="156">
+        <v>44868</v>
+      </c>
       <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="I13" t="s" s="24">
+        <v>406</v>
+      </c>
       <c r="J13" s="26"/>
-      <c r="K13" s="159"/>
-    </row>
-    <row r="14" ht="18.4" customHeight="1">
-      <c r="A14" s="162"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="166"/>
+      <c r="K13" s="157"/>
+    </row>
+    <row r="14" ht="78.3" customHeight="1">
+      <c r="A14" s="154"/>
+      <c r="B14" s="155">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="24">
+        <v>403</v>
+      </c>
+      <c r="D14" t="s" s="24">
+        <v>415</v>
+      </c>
+      <c r="E14" t="s" s="24">
+        <v>416</v>
+      </c>
+      <c r="F14" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G14" s="156">
+        <v>44868</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" t="s" s="24">
+        <v>406</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="157"/>
+    </row>
+    <row r="15" ht="78.3" customHeight="1">
+      <c r="A15" s="154"/>
+      <c r="B15" s="155">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s" s="24">
+        <v>403</v>
+      </c>
+      <c r="D15" t="s" s="24">
+        <v>417</v>
+      </c>
+      <c r="E15" t="s" s="24">
+        <v>418</v>
+      </c>
+      <c r="F15" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G15" s="156">
+        <v>44868</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" t="s" s="24">
+        <v>406</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="157"/>
+    </row>
+    <row r="16" ht="78.3" customHeight="1">
+      <c r="A16" s="154"/>
+      <c r="B16" s="155">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s" s="24">
+        <v>403</v>
+      </c>
+      <c r="D16" t="s" s="24">
+        <v>419</v>
+      </c>
+      <c r="E16" t="s" s="24">
+        <v>420</v>
+      </c>
+      <c r="F16" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G16" s="156">
+        <v>44868</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" t="s" s="24">
+        <v>406</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="157"/>
+    </row>
+    <row r="17" ht="78.3" customHeight="1">
+      <c r="A17" s="154"/>
+      <c r="B17" s="155">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s" s="24">
+        <v>403</v>
+      </c>
+      <c r="D17" t="s" s="24">
+        <v>421</v>
+      </c>
+      <c r="E17" t="s" s="24">
+        <v>422</v>
+      </c>
+      <c r="F17" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G17" s="156">
+        <v>44868</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" t="s" s="24">
+        <v>406</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="157"/>
+    </row>
+    <row r="18" ht="213.35" customHeight="1">
+      <c r="A18" s="154"/>
+      <c r="B18" s="155">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s" s="24">
+        <v>399</v>
+      </c>
+      <c r="D18" t="s" s="24">
+        <v>423</v>
+      </c>
+      <c r="E18" t="s" s="24">
+        <v>424</v>
+      </c>
+      <c r="F18" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G18" s="156">
+        <v>44868</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" t="s" s="24">
+        <v>425</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="157"/>
+    </row>
+    <row r="19" ht="123.3" customHeight="1">
+      <c r="A19" s="154"/>
+      <c r="B19" s="155">
+        <v>17</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" t="s" s="24">
+        <v>426</v>
+      </c>
+      <c r="E19" t="s" s="24">
+        <v>427</v>
+      </c>
+      <c r="F19" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="157"/>
+    </row>
+    <row r="20" ht="153.3" customHeight="1">
+      <c r="A20" s="154"/>
+      <c r="B20" s="155">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" t="s" s="24">
+        <v>428</v>
+      </c>
+      <c r="E20" t="s" s="24">
+        <v>429</v>
+      </c>
+      <c r="F20" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" t="s" s="24">
+        <v>430</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="157"/>
+    </row>
+    <row r="21" ht="123.3" customHeight="1">
+      <c r="A21" s="154"/>
+      <c r="B21" s="155">
+        <v>19</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" t="s" s="24">
+        <v>431</v>
+      </c>
+      <c r="E21" t="s" s="24">
+        <v>429</v>
+      </c>
+      <c r="F21" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" t="s" s="24">
+        <v>432</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="157"/>
+    </row>
+    <row r="22" ht="153.3" customHeight="1">
+      <c r="A22" s="154"/>
+      <c r="B22" s="155">
+        <v>20</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" t="s" s="24">
+        <v>433</v>
+      </c>
+      <c r="E22" t="s" s="24">
+        <v>429</v>
+      </c>
+      <c r="F22" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" t="s" s="24">
+        <v>432</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="157"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="154"/>
+      <c r="B23" s="155">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="157"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="154"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="157"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="154"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="157"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="154"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="157"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="154"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="157"/>
+    </row>
+    <row r="28" ht="78.3" customHeight="1">
+      <c r="A28" s="154"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="26"/>
+      <c r="D28" t="s" s="24">
+        <v>434</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="157"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="154"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="26"/>
+      <c r="D29" t="s" s="24">
+        <v>435</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="157"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="154"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="26"/>
+      <c r="D30" t="s" s="24">
+        <v>436</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="157"/>
+    </row>
+    <row r="31" ht="48.3" customHeight="1">
+      <c r="A31" s="154"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="26"/>
+      <c r="D31" t="s" s="24">
+        <v>437</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="157"/>
+    </row>
+    <row r="32" ht="48.3" customHeight="1">
+      <c r="A32" s="154"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="26"/>
+      <c r="D32" t="s" s="24">
+        <v>438</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="157"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="154"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="157"/>
+    </row>
+    <row r="34" ht="18.4" customHeight="1">
+      <c r="A34" s="160"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F34">
       <formula1>",○,×"</formula1>
     </dataValidation>
   </dataValidations>

--- a/テスト項目.xlsx
+++ b/テスト項目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -4604,6 +4604,20 @@
   </si>
   <si>
     <t>①管理者としてログイン
+②「アカウント一覧」を押下
+③アカウント一覧画面をお気に入り登録する
+④新しいタブを開き、お気に入りからアカウント一覧画面を開く
+⑤画面の表示を確認</t>
+  </si>
+  <si>
+    <t>問題なくアカウント一覧画面が開くことを確認
+※エラー画面など正常にアカウント一覧画面が開かない場合はNGとする</t>
+  </si>
+  <si>
+    <t>エラーの表示が出ることを確認</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
 ②「アカウント登録」ボタンを押下
 ③アカウント登録画面にてエラーが出ない形式で全て入力し、「確認する」を押下
 ④アカウント登録確認画面にて「登録する」ボタンを押下
@@ -4666,6 +4680,125 @@
 ⑤アカウント登録完了画面にてページの前画面に戻る「←」ボタンを押下
 ⑥再度、「登録する」ボタンを押下
 ⑥データベースを確認</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント登録」を押下
+③アカウント登録画面をお気に入り登録する
+④ログアウトをする
+⑤お気に入りよりアカウント登録画面を開く
+⑥画面の表示を確認</t>
+  </si>
+  <si>
+    <t>「アカウント権限がありません」と表示されることを確認</t>
+  </si>
+  <si>
+    <t>「アカウント登録」の画面に直接アクセスする場合は、ログイン済み・アカウント権限の判定なしでも開けてしまう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①管理者としてログイン
+②「アカウント登録」ボタンを押下
+③アカウント登録画面にて「メールアドレス、パスワード」共に「jjjj」と入力し、「アカウント権限」は一般を選択
+※上記以外の項目はエラーが出ない形式で入力されているものとする
+④アカウント登録確認画面にて「登録する」ボタンを押下
+⑤ログイン画面にて管理者としてログイン
+⑥「アカウント登録」ボタンを押下
+⑦アカウント登録画面にて「メールアドレス」に「jjjj」と入力し、「パスワード」には「aaaa」と入力、「アカウント権限」は管理者を選択
+※同様に上記項目以外はエラーが出ない形式で入力済みとする
+⑧アカウント登録確認画面にて「登録する」を押下
+⑨ログイン画面にて「メールアドレス、パスワード」共に「jjjj」でログイン
+⑩アカウント権限を確認
+⑪再度、ログイン画面にて「メールアドレス」は「jjjj」、「パスワード」は「aaaa」でログイン
+⑫アカウント権限を確認
+</t>
+  </si>
+  <si>
+    <t>⑩のログイン操作ではアカウント権限が「一般」としてログイン出来ていることを確認
+⑫ではアカウント権限が「管理者」としてログイン出来ていることを確認</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント登録」ボタンを押下
+③アカウント登録画面にて「メールアドレス、パスワード」共に「jjjj」と入力し、「アカウント権限」は管理者を選択
+※上記以外の項目はエラーが出ない形式で入力されているものとする
+④ログイン画面にて「メールアドレス、パスワード」共に「jjjj」でログイン
+⑩アカウント権限を確認</t>
+  </si>
+  <si>
+    <t>それぞれ両方のアカウントにログイン出来ることを確認</t>
+  </si>
+  <si>
+    <t>同じメアド・パスワードを登録した場合は登録順が早い方でのみログインが出来て、後から登録したアカウントではログインが出来ない状態</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント登録」を押下
+③アカウント登録画面をお気に入りに登録
+④新しいタブを開きお気に入りよりアカウント登録画面を表示
+⑤一つ目の画面にてログアウト
+⑥アカウント登録画面にて必要項目を入力し「確認する」を押下
+⑦アカウント登録確認画面にて「登録する」を押下
+⑧データベースを確認</t>
+  </si>
+  <si>
+    <t>「エラーが発生したため登録出来ませんでした。」と表示が出る、もしくはデータベースにアカウント情報が追加されていないことを確認
+※ログアウト後の操作となるため、正常に登録が出来ていた場合はNGとする</t>
+  </si>
+  <si>
+    <t>アカウント更新機能</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント一覧」を押下
+③アカウント一覧画面にて「全てのアカウント検索」ボタンを押下
+④表示されたアカウントのどれかを選び「更新」ボタンを押下
+⑤アカウント更新画面にて「確認する」ボタンを押下
+⑥アカウント更新確認画面にて「登録する」ボタンを押下
+⑦アカウント更新完了画面にて「ログアウト」ボタンを押下
+⑧ログアウト完了画面表示後にページ左上の「⇦」を押下
+⑨アカウント更新確認画面まで戻り再度、「登録する」を押下</t>
+  </si>
+  <si>
+    <t>ログアウト後でも「⇦」ボタンを押下し画面を戻ればアカウント登録作業が出来る状態</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント一覧」を押下
+③アカウント一覧画面にて「全てのアカウント検索」を押下
+④特定のアカウントの「更新」ボタンを押下
+⑤アカウント更新画面をお気に入り登録する
+⑥新しいタブを開きお気に入りよりアカウント更新画面を開く
+⑦画面の表示を確認</t>
+  </si>
+  <si>
+    <t>エラー画面の表示が出ることを確認</t>
+  </si>
+  <si>
+    <t>仕様では選択したアカウント情報が初期値となっているが、全て入力欄が空欄で「性別、アカウント権限」に関しては選択肢自体が表示されない状態
+また、そのままアカウント更新を実行すると「エラーが発生したためアカウントを更新できません」と表示されることを確認済み</t>
+  </si>
+  <si>
+    <t>アカウント削除機能</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②「アカウント一覧」を押下
+③アカウント一覧画面にて「全てのアカウント検索」を押下
+④特定のアカウントの「削除」ボタンを押下
+⑤アカウント削除画面をお気に入り登録する
+⑥ログアウトをする
+⑦お気に入りからアカウント削除画面を開く
+⑧画面の表示を確認</t>
+  </si>
+  <si>
+    <t>①管理者としてログイン
+②TOPページをお気に入りに登録
+③ログアウトする
+④お気に入りよりTOPページを開く
+⑤画面の表示を確認</t>
+  </si>
+  <si>
+    <t>TOPページが開かずログイン画面が表示されることを確認</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -6067,7 +6200,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6545,13 +6678,10 @@
     <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="82" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -16743,7 +16873,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K34"/>
+  <dimension ref="A2:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -17209,13 +17339,13 @@
       <c r="J17" s="26"/>
       <c r="K17" s="157"/>
     </row>
-    <row r="18" ht="213.35" customHeight="1">
+    <row r="18" ht="93.3" customHeight="1">
       <c r="A18" s="154"/>
       <c r="B18" s="155">
         <v>16</v>
       </c>
       <c r="C18" t="s" s="24">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D18" t="s" s="24">
         <v>423</v>
@@ -17227,7 +17357,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="156">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" t="s" s="24">
@@ -17236,12 +17366,14 @@
       <c r="J18" s="26"/>
       <c r="K18" s="157"/>
     </row>
-    <row r="19" ht="123.3" customHeight="1">
+    <row r="19" ht="213.35" customHeight="1">
       <c r="A19" s="154"/>
       <c r="B19" s="155">
         <v>17</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" t="s" s="24">
+        <v>399</v>
+      </c>
       <c r="D19" t="s" s="24">
         <v>426</v>
       </c>
@@ -17249,217 +17381,337 @@
         <v>427</v>
       </c>
       <c r="F19" t="s" s="25">
-        <v>20</v>
-      </c>
-      <c r="G19" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="G19" s="156">
+        <v>44868</v>
+      </c>
       <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="I19" t="s" s="24">
+        <v>428</v>
+      </c>
       <c r="J19" s="26"/>
       <c r="K19" s="157"/>
     </row>
-    <row r="20" ht="153.3" customHeight="1">
+    <row r="20" ht="123.3" customHeight="1">
       <c r="A20" s="154"/>
       <c r="B20" s="155">
         <v>18</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" t="s" s="24">
+        <v>399</v>
+      </c>
       <c r="D20" t="s" s="24">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E20" t="s" s="24">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F20" t="s" s="25">
-        <v>31</v>
-      </c>
-      <c r="G20" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="G20" s="156">
+        <v>44869</v>
+      </c>
       <c r="H20" s="26"/>
-      <c r="I20" t="s" s="24">
-        <v>430</v>
-      </c>
+      <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="157"/>
     </row>
-    <row r="21" ht="123.3" customHeight="1">
+    <row r="21" ht="153.3" customHeight="1">
       <c r="A21" s="154"/>
       <c r="B21" s="155">
         <v>19</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" t="s" s="24">
+        <v>399</v>
+      </c>
       <c r="D21" t="s" s="24">
         <v>431</v>
       </c>
       <c r="E21" t="s" s="24">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F21" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="156">
+        <v>44869</v>
+      </c>
       <c r="H21" s="26"/>
       <c r="I21" t="s" s="24">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="157"/>
     </row>
-    <row r="22" ht="153.3" customHeight="1">
+    <row r="22" ht="123.3" customHeight="1">
       <c r="A22" s="154"/>
       <c r="B22" s="155">
         <v>20</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" t="s" s="24">
+        <v>399</v>
+      </c>
       <c r="D22" t="s" s="24">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E22" t="s" s="24">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F22" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="156">
+        <v>44869</v>
+      </c>
       <c r="H22" s="26"/>
       <c r="I22" t="s" s="24">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="157"/>
     </row>
-    <row r="23" ht="18.3" customHeight="1">
+    <row r="23" ht="153.3" customHeight="1">
       <c r="A23" s="154"/>
       <c r="B23" s="155">
         <v>21</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="26"/>
+      <c r="C23" t="s" s="24">
+        <v>399</v>
+      </c>
+      <c r="D23" t="s" s="24">
+        <v>436</v>
+      </c>
+      <c r="E23" t="s" s="24">
+        <v>432</v>
+      </c>
+      <c r="F23" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G23" s="156">
+        <v>44869</v>
+      </c>
       <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="I23" t="s" s="24">
+        <v>435</v>
+      </c>
       <c r="J23" s="26"/>
       <c r="K23" s="157"/>
     </row>
-    <row r="24" ht="18.3" customHeight="1">
+    <row r="24" ht="93.3" customHeight="1">
       <c r="A24" s="154"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="26"/>
+      <c r="B24" s="155">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s" s="24">
+        <v>399</v>
+      </c>
+      <c r="D24" t="s" s="24">
+        <v>437</v>
+      </c>
+      <c r="E24" t="s" s="24">
+        <v>438</v>
+      </c>
+      <c r="F24" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G24" s="156">
+        <v>44869</v>
+      </c>
       <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="I24" t="s" s="24">
+        <v>439</v>
+      </c>
       <c r="J24" s="26"/>
       <c r="K24" s="157"/>
     </row>
-    <row r="25" ht="18.3" customHeight="1">
+    <row r="25" ht="438.35" customHeight="1">
       <c r="A25" s="154"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="26"/>
+      <c r="B25" s="155">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s" s="24">
+        <v>389</v>
+      </c>
+      <c r="D25" t="s" s="24">
+        <v>440</v>
+      </c>
+      <c r="E25" t="s" s="24">
+        <v>441</v>
+      </c>
+      <c r="F25" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="G25" s="156">
+        <v>44869</v>
+      </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="157"/>
     </row>
-    <row r="26" ht="18.3" customHeight="1">
+    <row r="26" ht="168.3" customHeight="1">
       <c r="A26" s="154"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="26"/>
+      <c r="B26" s="155">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s" s="24">
+        <v>389</v>
+      </c>
+      <c r="D26" t="s" s="24">
+        <v>442</v>
+      </c>
+      <c r="E26" t="s" s="24">
+        <v>443</v>
+      </c>
+      <c r="F26" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G26" s="156">
+        <v>44869</v>
+      </c>
       <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="I26" t="s" s="24">
+        <v>444</v>
+      </c>
       <c r="J26" s="26"/>
       <c r="K26" s="157"/>
     </row>
-    <row r="27" ht="18.3" customHeight="1">
+    <row r="27" ht="168.3" customHeight="1">
       <c r="A27" s="154"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="155">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s" s="24">
+        <v>389</v>
+      </c>
+      <c r="D27" t="s" s="24">
+        <v>445</v>
+      </c>
+      <c r="E27" t="s" s="24">
+        <v>446</v>
+      </c>
+      <c r="F27" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G27" s="156">
+        <v>44869</v>
+      </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="157"/>
     </row>
-    <row r="28" ht="78.3" customHeight="1">
+    <row r="28" ht="243.35" customHeight="1">
       <c r="A28" s="154"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="155">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s" s="24">
+        <v>447</v>
+      </c>
       <c r="D28" t="s" s="24">
-        <v>434</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="26"/>
+        <v>448</v>
+      </c>
+      <c r="E28" t="s" s="24">
+        <v>381</v>
+      </c>
+      <c r="F28" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G28" s="156">
+        <v>44869</v>
+      </c>
       <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="I28" t="s" s="24">
+        <v>449</v>
+      </c>
       <c r="J28" s="26"/>
       <c r="K28" s="157"/>
     </row>
-    <row r="29" ht="18.3" customHeight="1">
+    <row r="29" ht="138.3" customHeight="1">
       <c r="A29" s="154"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="155">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s" s="24">
+        <v>447</v>
+      </c>
       <c r="D29" t="s" s="24">
-        <v>435</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="26"/>
+        <v>450</v>
+      </c>
+      <c r="E29" t="s" s="24">
+        <v>451</v>
+      </c>
+      <c r="F29" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="G29" s="156">
+        <v>44869</v>
+      </c>
       <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="I29" t="s" s="24">
+        <v>452</v>
+      </c>
       <c r="J29" s="26"/>
       <c r="K29" s="157"/>
     </row>
-    <row r="30" ht="18.3" customHeight="1">
+    <row r="30" ht="138.3" customHeight="1">
       <c r="A30" s="154"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="155">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s" s="24">
+        <v>453</v>
+      </c>
       <c r="D30" t="s" s="24">
-        <v>436</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="26"/>
+        <v>454</v>
+      </c>
+      <c r="E30" t="s" s="24">
+        <v>438</v>
+      </c>
+      <c r="F30" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="G30" s="156">
+        <v>44869</v>
+      </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="157"/>
     </row>
-    <row r="31" ht="48.3" customHeight="1">
+    <row r="31" ht="78.3" customHeight="1">
       <c r="A31" s="154"/>
-      <c r="B31" s="159"/>
+      <c r="B31" s="155">
+        <v>29</v>
+      </c>
       <c r="C31" s="26"/>
       <c r="D31" t="s" s="24">
-        <v>437</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="26"/>
+        <v>455</v>
+      </c>
+      <c r="E31" t="s" s="24">
+        <v>456</v>
+      </c>
+      <c r="F31" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="G31" s="156">
+        <v>44869</v>
+      </c>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="157"/>
     </row>
-    <row r="32" ht="48.3" customHeight="1">
+    <row r="32" ht="18.3" customHeight="1">
       <c r="A32" s="154"/>
-      <c r="B32" s="159"/>
+      <c r="B32" s="155">
+        <v>30</v>
+      </c>
       <c r="C32" s="26"/>
-      <c r="D32" t="s" s="24">
-        <v>438</v>
-      </c>
+      <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="158"/>
       <c r="G32" s="26"/>
@@ -17470,7 +17722,9 @@
     </row>
     <row r="33" ht="18.3" customHeight="1">
       <c r="A33" s="154"/>
-      <c r="B33" s="159"/>
+      <c r="B33" s="155">
+        <v>31</v>
+      </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
@@ -17481,25 +17735,622 @@
       <c r="J33" s="26"/>
       <c r="K33" s="157"/>
     </row>
-    <row r="34" ht="18.4" customHeight="1">
-      <c r="A34" s="160"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="164"/>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="154"/>
+      <c r="B34" s="155">
+        <v>32</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="157"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="154"/>
+      <c r="B35" s="155">
+        <v>33</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="157"/>
+    </row>
+    <row r="36" ht="18.3" customHeight="1">
+      <c r="A36" s="154"/>
+      <c r="B36" s="155">
+        <v>34</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="157"/>
+    </row>
+    <row r="37" ht="18.3" customHeight="1">
+      <c r="A37" s="154"/>
+      <c r="B37" s="155">
+        <v>35</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="157"/>
+    </row>
+    <row r="38" ht="18.3" customHeight="1">
+      <c r="A38" s="154"/>
+      <c r="B38" s="155">
+        <v>36</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="157"/>
+    </row>
+    <row r="39" ht="18.3" customHeight="1">
+      <c r="A39" s="154"/>
+      <c r="B39" s="155">
+        <v>37</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="157"/>
+    </row>
+    <row r="40" ht="18.3" customHeight="1">
+      <c r="A40" s="154"/>
+      <c r="B40" s="155">
+        <v>38</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="157"/>
+    </row>
+    <row r="41" ht="18.3" customHeight="1">
+      <c r="A41" s="154"/>
+      <c r="B41" s="155">
+        <v>39</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="157"/>
+    </row>
+    <row r="42" ht="18.3" customHeight="1">
+      <c r="A42" s="154"/>
+      <c r="B42" s="155">
+        <v>40</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="157"/>
+    </row>
+    <row r="43" ht="18.3" customHeight="1">
+      <c r="A43" s="154"/>
+      <c r="B43" s="155">
+        <v>41</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="157"/>
+    </row>
+    <row r="44" ht="18.3" customHeight="1">
+      <c r="A44" s="154"/>
+      <c r="B44" s="155">
+        <v>42</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="157"/>
+    </row>
+    <row r="45" ht="18.3" customHeight="1">
+      <c r="A45" s="154"/>
+      <c r="B45" s="155">
+        <v>43</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="157"/>
+    </row>
+    <row r="46" ht="18.3" customHeight="1">
+      <c r="A46" s="154"/>
+      <c r="B46" s="155">
+        <v>44</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="157"/>
+    </row>
+    <row r="47" ht="18.3" customHeight="1">
+      <c r="A47" s="154"/>
+      <c r="B47" s="155">
+        <v>45</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="157"/>
+    </row>
+    <row r="48" ht="18.3" customHeight="1">
+      <c r="A48" s="154"/>
+      <c r="B48" s="155">
+        <v>46</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="157"/>
+    </row>
+    <row r="49" ht="18.3" customHeight="1">
+      <c r="A49" s="154"/>
+      <c r="B49" s="155">
+        <v>47</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="157"/>
+    </row>
+    <row r="50" ht="18.3" customHeight="1">
+      <c r="A50" s="154"/>
+      <c r="B50" s="155">
+        <v>48</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="157"/>
+    </row>
+    <row r="51" ht="18.3" customHeight="1">
+      <c r="A51" s="154"/>
+      <c r="B51" s="155">
+        <v>49</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="157"/>
+    </row>
+    <row r="52" ht="18.3" customHeight="1">
+      <c r="A52" s="154"/>
+      <c r="B52" s="155">
+        <v>50</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="157"/>
+    </row>
+    <row r="53" ht="18.3" customHeight="1">
+      <c r="A53" s="154"/>
+      <c r="B53" s="155">
+        <v>51</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="157"/>
+    </row>
+    <row r="54" ht="18.3" customHeight="1">
+      <c r="A54" s="154"/>
+      <c r="B54" s="155">
+        <v>52</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="157"/>
+    </row>
+    <row r="55" ht="18.3" customHeight="1">
+      <c r="A55" s="154"/>
+      <c r="B55" s="155">
+        <v>53</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="157"/>
+    </row>
+    <row r="56" ht="18.3" customHeight="1">
+      <c r="A56" s="154"/>
+      <c r="B56" s="155">
+        <v>54</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="157"/>
+    </row>
+    <row r="57" ht="78.3" customHeight="1">
+      <c r="A57" s="154"/>
+      <c r="B57" s="155">
+        <v>55</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" t="s" s="24">
+        <v>457</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="158"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="157"/>
+    </row>
+    <row r="58" ht="18.3" customHeight="1">
+      <c r="A58" s="154"/>
+      <c r="B58" s="155">
+        <v>56</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" t="s" s="24">
+        <v>458</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="157"/>
+    </row>
+    <row r="59" ht="18.3" customHeight="1">
+      <c r="A59" s="154"/>
+      <c r="B59" s="155">
+        <v>57</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" t="s" s="24">
+        <v>459</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="157"/>
+    </row>
+    <row r="60" ht="48.3" customHeight="1">
+      <c r="A60" s="154"/>
+      <c r="B60" s="155">
+        <v>58</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" t="s" s="24">
+        <v>460</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="157"/>
+    </row>
+    <row r="61" ht="48.3" customHeight="1">
+      <c r="A61" s="154"/>
+      <c r="B61" s="155">
+        <v>59</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" t="s" s="24">
+        <v>461</v>
+      </c>
+      <c r="E61" s="26"/>
+      <c r="F61" s="158"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="157"/>
+    </row>
+    <row r="62" ht="18.3" customHeight="1">
+      <c r="A62" s="154"/>
+      <c r="B62" s="155">
+        <v>60</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="158"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="157"/>
+    </row>
+    <row r="63" ht="18.3" customHeight="1">
+      <c r="A63" s="154"/>
+      <c r="B63" s="155">
+        <v>61</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="157"/>
+    </row>
+    <row r="64" ht="18.3" customHeight="1">
+      <c r="A64" s="154"/>
+      <c r="B64" s="155">
+        <v>62</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="157"/>
+    </row>
+    <row r="65" ht="18.3" customHeight="1">
+      <c r="A65" s="154"/>
+      <c r="B65" s="155">
+        <v>63</v>
+      </c>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="158"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="157"/>
+    </row>
+    <row r="66" ht="18.3" customHeight="1">
+      <c r="A66" s="154"/>
+      <c r="B66" s="155">
+        <v>64</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="157"/>
+    </row>
+    <row r="67" ht="18.3" customHeight="1">
+      <c r="A67" s="154"/>
+      <c r="B67" s="155">
+        <v>65</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="158"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="157"/>
+    </row>
+    <row r="68" ht="18.3" customHeight="1">
+      <c r="A68" s="154"/>
+      <c r="B68" s="155">
+        <v>66</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="157"/>
+    </row>
+    <row r="69" ht="18.3" customHeight="1">
+      <c r="A69" s="154"/>
+      <c r="B69" s="155">
+        <v>67</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="157"/>
+    </row>
+    <row r="70" ht="18.3" customHeight="1">
+      <c r="A70" s="154"/>
+      <c r="B70" s="155">
+        <v>68</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="158"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="157"/>
+    </row>
+    <row r="71" ht="18.3" customHeight="1">
+      <c r="A71" s="154"/>
+      <c r="B71" s="155">
+        <v>69</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="158"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="157"/>
+    </row>
+    <row r="72" ht="18.3" customHeight="1">
+      <c r="A72" s="154"/>
+      <c r="B72" s="155">
+        <v>70</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="158"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="157"/>
+    </row>
+    <row r="73" ht="18.4" customHeight="1">
+      <c r="A73" s="159"/>
+      <c r="B73" s="160">
+        <v>71</v>
+      </c>
+      <c r="C73" s="161"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="161"/>
+      <c r="F73" s="162"/>
+      <c r="G73" s="161"/>
+      <c r="H73" s="161"/>
+      <c r="I73" s="161"/>
+      <c r="J73" s="161"/>
+      <c r="K73" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F73">
       <formula1>",○,×"</formula1>
     </dataValidation>
   </dataValidations>
